--- a/SAMPLES/zz_lista_volontera_24_25.xlsx
+++ b/SAMPLES/zz_lista_volontera_24_25.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lobel\Documents\Lobel\Zlatni Zmaj\Evidencija\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lobel\Documents\Lobel\Zlatni Zmaj\Izvjesce\ZZ_Report_Analysis\SAMPLES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC263484-4DB3-4497-8C80-68C718085F1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BD19528-16E6-4166-862F-B99419AF0EA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="2" activeTab="2" xr2:uid="{E4510751-5150-4AC6-8207-09F7448F3FDD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="3" xr2:uid="{E4510751-5150-4AC6-8207-09F7448F3FDD}"/>
   </bookViews>
   <sheets>
     <sheet name="raspored" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="263">
   <si>
     <t>LOKACIJE</t>
   </si>
@@ -932,7 +932,7 @@
     <numFmt numFmtId="164" formatCode="d\.m\.;@"/>
     <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1173,7 +1173,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1205,7 +1205,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="16" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1263,8 +1262,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Output" xfId="1" builtinId="21"/>
+    <cellStyle name="Izlaz" xfId="1" builtinId="21"/>
+    <cellStyle name="Normalno" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1286,9 +1285,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema sustava Office 2013 – 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 – 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1326,7 +1325,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 – 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1432,7 +1431,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 – 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1574,7 +1573,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1584,11 +1583,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A949D4D-8DCF-44A5-B736-0090FCC111AD}">
   <dimension ref="B6:I34"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="31.5703125" customWidth="1"/>
     <col min="4" max="4" width="38.28515625" customWidth="1"/>
@@ -1598,14 +1597,14 @@
     <col min="13" max="13" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:9" ht="30.75" customHeight="1">
-      <c r="C6" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-    </row>
-    <row r="7" spans="2:9" ht="24" customHeight="1">
+    <row r="6" spans="2:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+    </row>
+    <row r="7" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="3" t="s">
         <v>1</v>
       </c>
@@ -1616,7 +1615,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="33" customHeight="1">
+    <row r="8" spans="2:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="5" t="s">
         <v>4</v>
       </c>
@@ -1627,24 +1626,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:9">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="I9" s="7"/>
     </row>
-    <row r="10" spans="2:9">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C10">
         <v>140</v>
       </c>
       <c r="I10" s="7"/>
     </row>
-    <row r="13" spans="2:9" ht="33.75" customHeight="1">
-      <c r="B13" s="21" t="s">
+    <row r="13" spans="2:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-    </row>
-    <row r="14" spans="2:9" ht="23.25" customHeight="1">
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+    </row>
+    <row r="14" spans="2:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
         <v>8</v>
       </c>
@@ -1658,7 +1657,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="2:9" ht="25.5" customHeight="1">
+    <row r="15" spans="2:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>10</v>
       </c>
@@ -1672,7 +1671,7 @@
         <v>0.8125</v>
       </c>
     </row>
-    <row r="16" spans="2:9" ht="25.5" customHeight="1">
+    <row r="16" spans="2:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
@@ -1686,13 +1685,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="3:4">
+    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="3:4" ht="15" customHeight="1"/>
-    <row r="21" spans="3:4" ht="43.5" customHeight="1">
+    <row r="20" spans="3:4" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="3:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" s="13" t="s">
         <v>16</v>
       </c>
@@ -1700,42 +1699,42 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="3:4">
+    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C24" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="3:4">
+    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="3:4">
+    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="3:4">
+    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="3:4">
+    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="3:4">
+    <row r="31" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="3:4">
+    <row r="32" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C32" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="3:3">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>25</v>
       </c>
@@ -1755,12 +1754,12 @@
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="6" ySplit="9" topLeftCell="G10" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="Z9" sqref="Z9"/>
+      <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="topRight" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="5.140625" customWidth="1"/>
@@ -1771,7 +1770,7 @@
     <col min="7" max="36" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -1780,7 +1779,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -1789,7 +1788,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:36">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -1797,8 +1796,12 @@
         <f>COUNTIF(F:F, "&gt;9")</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:36">
+      <c r="C4">
+        <f>COUNTIF(F:F, 0)</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -1806,7 +1809,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:36">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -1815,7 +1818,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:36">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="F7" t="s">
         <v>31</v>
       </c>
@@ -1890,7 +1893,7 @@
       <c r="AI7" s="9"/>
       <c r="AJ7" s="9"/>
     </row>
-    <row r="8" spans="1:36" ht="14.25" customHeight="1">
+    <row r="8" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F8" t="s">
         <v>52</v>
       </c>
@@ -1955,7 +1958,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:36" ht="16.5" customHeight="1">
+    <row r="9" spans="1:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F9" t="s">
         <v>53</v>
       </c>
@@ -2020,17 +2023,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:36">
-      <c r="C10" s="26" t="s">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="C10" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
       <c r="F10" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:36">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>56</v>
       </c>
@@ -2045,7 +2048,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:36">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
         <v>59</v>
       </c>
@@ -2054,7 +2057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:36">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
         <v>60</v>
       </c>
@@ -2066,7 +2069,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:36">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>61</v>
       </c>
@@ -2078,7 +2081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="5:26">
+    <row r="17" spans="5:26" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
         <v>63</v>
       </c>
@@ -2093,7 +2096,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="5:26">
+    <row r="18" spans="5:26" x14ac:dyDescent="0.25">
       <c r="E18" t="s">
         <v>64</v>
       </c>
@@ -2102,7 +2105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="5:26">
+    <row r="19" spans="5:26" x14ac:dyDescent="0.25">
       <c r="E19" t="s">
         <v>65</v>
       </c>
@@ -2111,7 +2114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="5:26">
+    <row r="20" spans="5:26" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
         <v>66</v>
       </c>
@@ -2120,7 +2123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="5:26">
+    <row r="21" spans="5:26" x14ac:dyDescent="0.25">
       <c r="E21" t="s">
         <v>67</v>
       </c>
@@ -2147,7 +2150,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="5:26">
+    <row r="22" spans="5:26" x14ac:dyDescent="0.25">
       <c r="E22" s="14" t="s">
         <v>68</v>
       </c>
@@ -2156,7 +2159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="5:26">
+    <row r="23" spans="5:26" x14ac:dyDescent="0.25">
       <c r="E23" s="14" t="s">
         <v>69</v>
       </c>
@@ -2165,7 +2168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="5:26">
+    <row r="24" spans="5:26" x14ac:dyDescent="0.25">
       <c r="E24" t="s">
         <v>70</v>
       </c>
@@ -2174,7 +2177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="5:26">
+    <row r="25" spans="5:26" x14ac:dyDescent="0.25">
       <c r="E25" t="s">
         <v>71</v>
       </c>
@@ -2183,7 +2186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="5:26">
+    <row r="26" spans="5:26" x14ac:dyDescent="0.25">
       <c r="E26" t="s">
         <v>72</v>
       </c>
@@ -2192,7 +2195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="5:26">
+    <row r="27" spans="5:26" x14ac:dyDescent="0.25">
       <c r="E27" t="s">
         <v>73</v>
       </c>
@@ -2201,7 +2204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="5:26">
+    <row r="28" spans="5:26" x14ac:dyDescent="0.25">
       <c r="E28" t="s">
         <v>74</v>
       </c>
@@ -2213,8 +2216,8 @@
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="5:26">
-      <c r="E29" s="15" t="s">
+    <row r="29" spans="5:26" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
         <v>75</v>
       </c>
       <c r="F29">
@@ -2222,7 +2225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="5:26">
+    <row r="30" spans="5:26" x14ac:dyDescent="0.25">
       <c r="E30" s="14" t="s">
         <v>76</v>
       </c>
@@ -2231,7 +2234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="5:26">
+    <row r="31" spans="5:26" x14ac:dyDescent="0.25">
       <c r="E31" t="s">
         <v>77</v>
       </c>
@@ -2240,7 +2243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="5:26">
+    <row r="32" spans="5:26" x14ac:dyDescent="0.25">
       <c r="E32" t="s">
         <v>78</v>
       </c>
@@ -2249,7 +2252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="3:24">
+    <row r="33" spans="3:24" x14ac:dyDescent="0.25">
       <c r="E33" t="s">
         <v>79</v>
       </c>
@@ -2258,7 +2261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="3:24">
+    <row r="34" spans="3:24" x14ac:dyDescent="0.25">
       <c r="E34" t="s">
         <v>80</v>
       </c>
@@ -2267,7 +2270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="3:24">
+    <row r="35" spans="3:24" x14ac:dyDescent="0.25">
       <c r="E35" t="s">
         <v>81</v>
       </c>
@@ -2279,7 +2282,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="3:24">
+    <row r="37" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>82</v>
       </c>
@@ -2300,7 +2303,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="3:24">
+    <row r="38" spans="3:24" x14ac:dyDescent="0.25">
       <c r="E38" s="10" t="s">
         <v>84</v>
       </c>
@@ -2324,7 +2327,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="39" spans="3:24">
+    <row r="39" spans="3:24" x14ac:dyDescent="0.25">
       <c r="E39" s="11" t="s">
         <v>85</v>
       </c>
@@ -2339,7 +2342,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="3:24">
+    <row r="40" spans="3:24" x14ac:dyDescent="0.25">
       <c r="E40" s="14" t="s">
         <v>86</v>
       </c>
@@ -2348,7 +2351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="3:24">
+    <row r="41" spans="3:24" x14ac:dyDescent="0.25">
       <c r="E41" t="s">
         <v>87</v>
       </c>
@@ -2366,7 +2369,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="42" spans="3:24">
+    <row r="42" spans="3:24" x14ac:dyDescent="0.25">
       <c r="E42" t="s">
         <v>88</v>
       </c>
@@ -2390,7 +2393,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="43" spans="3:24">
+    <row r="43" spans="3:24" x14ac:dyDescent="0.25">
       <c r="E43" t="s">
         <v>89</v>
       </c>
@@ -2402,7 +2405,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="3:24">
+    <row r="44" spans="3:24" x14ac:dyDescent="0.25">
       <c r="E44" t="s">
         <v>90</v>
       </c>
@@ -2411,7 +2414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="3:24">
+    <row r="45" spans="3:24" x14ac:dyDescent="0.25">
       <c r="E45" t="s">
         <v>91</v>
       </c>
@@ -2420,7 +2423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="3:24">
+    <row r="46" spans="3:24" x14ac:dyDescent="0.25">
       <c r="E46" t="s">
         <v>92</v>
       </c>
@@ -2429,7 +2432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="3:24">
+    <row r="47" spans="3:24" x14ac:dyDescent="0.25">
       <c r="E47" t="s">
         <v>93</v>
       </c>
@@ -2441,7 +2444,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="48" spans="3:24">
+    <row r="48" spans="3:24" x14ac:dyDescent="0.25">
       <c r="E48" t="s">
         <v>94</v>
       </c>
@@ -2450,7 +2453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="5:25">
+    <row r="49" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E49" t="s">
         <v>95</v>
       </c>
@@ -2465,7 +2468,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="50" spans="5:25">
+    <row r="50" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E50" t="s">
         <v>96</v>
       </c>
@@ -2474,7 +2477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="5:25">
+    <row r="51" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E51" t="s">
         <v>97</v>
       </c>
@@ -2486,7 +2489,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="52" spans="5:25">
+    <row r="52" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E52" t="s">
         <v>98</v>
       </c>
@@ -2495,7 +2498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="5:25">
+    <row r="53" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E53" t="s">
         <v>99</v>
       </c>
@@ -2504,7 +2507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="5:25">
+    <row r="54" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E54" t="s">
         <v>100</v>
       </c>
@@ -2513,7 +2516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="5:25">
+    <row r="55" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E55" t="s">
         <v>101</v>
       </c>
@@ -2522,7 +2525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="5:25">
+    <row r="56" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E56" t="s">
         <v>102</v>
       </c>
@@ -2531,7 +2534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="5:25">
+    <row r="57" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E57" t="s">
         <v>103</v>
       </c>
@@ -2540,7 +2543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="5:25">
+    <row r="58" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E58" t="s">
         <v>104</v>
       </c>
@@ -2549,7 +2552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="5:25">
+    <row r="59" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E59" t="s">
         <v>105</v>
       </c>
@@ -2558,7 +2561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="5:25">
+    <row r="60" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E60" t="s">
         <v>106</v>
       </c>
@@ -2570,7 +2573,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="5:25">
+    <row r="61" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E61" t="s">
         <v>107</v>
       </c>
@@ -2582,7 +2585,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="62" spans="5:25">
+    <row r="62" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E62" t="s">
         <v>108</v>
       </c>
@@ -2591,7 +2594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="5:25">
+    <row r="63" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E63" t="s">
         <v>109</v>
       </c>
@@ -2600,7 +2603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="5:25">
+    <row r="64" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E64" t="s">
         <v>110</v>
       </c>
@@ -2612,7 +2615,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="65" spans="3:23">
+    <row r="65" spans="3:23" x14ac:dyDescent="0.25">
       <c r="E65" t="s">
         <v>111</v>
       </c>
@@ -2624,7 +2627,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="66" spans="3:23">
+    <row r="66" spans="3:23" x14ac:dyDescent="0.25">
       <c r="E66" t="s">
         <v>112</v>
       </c>
@@ -2633,7 +2636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="3:23">
+    <row r="67" spans="3:23" x14ac:dyDescent="0.25">
       <c r="E67" t="s">
         <v>113</v>
       </c>
@@ -2648,7 +2651,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="68" spans="3:23">
+    <row r="68" spans="3:23" x14ac:dyDescent="0.25">
       <c r="E68" t="s">
         <v>114</v>
       </c>
@@ -2657,7 +2660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="3:23">
+    <row r="69" spans="3:23" x14ac:dyDescent="0.25">
       <c r="E69" t="s">
         <v>115</v>
       </c>
@@ -2675,7 +2678,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="71" spans="3:23">
+    <row r="71" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>116</v>
       </c>
@@ -2693,7 +2696,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="72" spans="3:23">
+    <row r="72" spans="3:23" x14ac:dyDescent="0.25">
       <c r="E72" t="s">
         <v>118</v>
       </c>
@@ -2702,7 +2705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="3:23">
+    <row r="73" spans="3:23" x14ac:dyDescent="0.25">
       <c r="E73" t="s">
         <v>119</v>
       </c>
@@ -2711,7 +2714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="3:23">
+    <row r="74" spans="3:23" x14ac:dyDescent="0.25">
       <c r="E74" t="s">
         <v>120</v>
       </c>
@@ -2720,7 +2723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="3:23">
+    <row r="75" spans="3:23" x14ac:dyDescent="0.25">
       <c r="E75" t="s">
         <v>121</v>
       </c>
@@ -2729,7 +2732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="3:23">
+    <row r="76" spans="3:23" x14ac:dyDescent="0.25">
       <c r="E76" s="14" t="s">
         <v>122</v>
       </c>
@@ -2738,7 +2741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="3:23">
+    <row r="77" spans="3:23" x14ac:dyDescent="0.25">
       <c r="E77" t="s">
         <v>123</v>
       </c>
@@ -2756,14 +2759,14 @@
         <v>58</v>
       </c>
     </row>
-    <row r="79" spans="3:23">
-      <c r="C79" s="31" t="s">
+    <row r="79" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C79" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="D79" s="31"/>
-      <c r="E79" s="31"/>
-    </row>
-    <row r="81" spans="3:26">
+      <c r="D79" s="30"/>
+      <c r="E79" s="30"/>
+    </row>
+    <row r="81" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>82</v>
       </c>
@@ -2802,14 +2805,14 @@
         <v>58</v>
       </c>
     </row>
-    <row r="83" spans="3:26">
-      <c r="C83" s="30" t="s">
+    <row r="83" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C83" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="D83" s="30"/>
-      <c r="E83" s="30"/>
-    </row>
-    <row r="85" spans="3:26">
+      <c r="D83" s="29"/>
+      <c r="E83" s="29"/>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>56</v>
       </c>
@@ -2821,7 +2824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="3:26">
+    <row r="87" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>61</v>
       </c>
@@ -2836,7 +2839,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="88" spans="3:26">
+    <row r="88" spans="3:26" x14ac:dyDescent="0.25">
       <c r="E88" t="s">
         <v>129</v>
       </c>
@@ -2848,7 +2851,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="89" spans="3:26">
+    <row r="89" spans="3:26" x14ac:dyDescent="0.25">
       <c r="E89" t="s">
         <v>130</v>
       </c>
@@ -2857,7 +2860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="3:26">
+    <row r="91" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C91" t="s">
         <v>82</v>
       </c>
@@ -2875,7 +2878,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="92" spans="3:26">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.25">
       <c r="E92" t="s">
         <v>132</v>
       </c>
@@ -2893,7 +2896,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="93" spans="3:26">
+    <row r="93" spans="3:26" x14ac:dyDescent="0.25">
       <c r="E93" t="s">
         <v>133</v>
       </c>
@@ -2902,7 +2905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="3:26">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C95" t="s">
         <v>116</v>
       </c>
@@ -2914,7 +2917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="3:26">
+    <row r="96" spans="3:26" x14ac:dyDescent="0.25">
       <c r="E96" t="s">
         <v>135</v>
       </c>
@@ -2926,14 +2929,14 @@
         <v>58</v>
       </c>
     </row>
-    <row r="98" spans="3:25">
-      <c r="C98" s="29" t="s">
+    <row r="98" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="C98" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="D98" s="29"/>
-      <c r="E98" s="29"/>
-    </row>
-    <row r="100" spans="3:25">
+      <c r="D98" s="28"/>
+      <c r="E98" s="28"/>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C100" t="s">
         <v>61</v>
       </c>
@@ -2990,7 +2993,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="101" spans="3:25">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.25">
       <c r="E101" t="s">
         <v>138</v>
       </c>
@@ -3044,7 +3047,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="102" spans="3:25">
+    <row r="102" spans="3:25" x14ac:dyDescent="0.25">
       <c r="E102" s="14" t="s">
         <v>139</v>
       </c>
@@ -3053,21 +3056,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="3:25">
-      <c r="C104" s="28" t="s">
+    <row r="104" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="C104" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="D104" s="28"/>
-      <c r="E104" s="28"/>
-    </row>
-    <row r="106" spans="3:25">
-      <c r="C106" s="27" t="s">
+      <c r="D104" s="27"/>
+      <c r="E104" s="27"/>
+    </row>
+    <row r="106" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="C106" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="D106" s="27"/>
-      <c r="E106" s="27"/>
-    </row>
-    <row r="108" spans="3:25">
+      <c r="D106" s="26"/>
+      <c r="E106" s="26"/>
+    </row>
+    <row r="108" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C108" t="s">
         <v>82</v>
       </c>
@@ -3079,7 +3082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="3:25">
+    <row r="109" spans="3:25" x14ac:dyDescent="0.25">
       <c r="E109" t="s">
         <v>143</v>
       </c>
@@ -3088,14 +3091,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="3:25">
-      <c r="C111" s="24" t="s">
+    <row r="111" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="C111" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="D111" s="24"/>
-      <c r="E111" s="24"/>
-    </row>
-    <row r="113" spans="3:19">
+      <c r="D111" s="23"/>
+      <c r="E111" s="23"/>
+    </row>
+    <row r="113" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C113" t="s">
         <v>82</v>
       </c>
@@ -3107,14 +3110,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="3:19">
-      <c r="C115" s="25" t="s">
+    <row r="115" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C115" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="D115" s="25"/>
-      <c r="E115" s="25"/>
-    </row>
-    <row r="117" spans="3:19">
+      <c r="D115" s="24"/>
+      <c r="E115" s="24"/>
+    </row>
+    <row r="117" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C117" t="s">
         <v>82</v>
       </c>
@@ -3148,17 +3151,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{542F59A4-8EDF-4321-A813-639939D43A6C}">
   <dimension ref="A1:AJ150"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="6" ySplit="9" topLeftCell="T74" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="AA77" sqref="AA77"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="6" ySplit="9" topLeftCell="G10" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="topRight" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="3.85546875" customWidth="1"/>
+    <col min="2" max="2" width="6.140625" customWidth="1"/>
     <col min="3" max="3" width="9.5703125" customWidth="1"/>
     <col min="4" max="4" width="5.85546875" customWidth="1"/>
     <col min="5" max="5" width="21.85546875" customWidth="1"/>
@@ -3166,7 +3169,7 @@
     <col min="7" max="36" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -3175,7 +3178,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -3184,7 +3187,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="4" spans="1:36">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -3192,8 +3195,12 @@
         <f>COUNTIF(F:F, "&gt;9")</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:36">
+      <c r="C4">
+        <f xml:space="preserve"> COUNTIF(F:F, 0)</f>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -3201,7 +3208,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:36">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -3210,7 +3217,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:36">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="F7" t="s">
         <v>31</v>
       </c>
@@ -3232,7 +3239,7 @@
       <c r="L7" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="M7" s="17" t="s">
+      <c r="M7" s="16" t="s">
         <v>38</v>
       </c>
       <c r="N7" s="9" t="s">
@@ -3247,7 +3254,7 @@
       <c r="Q7" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="R7" s="18" t="s">
+      <c r="R7" s="17" t="s">
         <v>149</v>
       </c>
       <c r="S7" s="9" t="s">
@@ -3262,7 +3269,7 @@
       <c r="V7" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="W7" s="18" t="s">
+      <c r="W7" s="17" t="s">
         <v>48</v>
       </c>
       <c r="X7" s="9" t="s">
@@ -3285,7 +3292,7 @@
       <c r="AI7" s="9"/>
       <c r="AJ7" s="9"/>
     </row>
-    <row r="8" spans="1:36" ht="14.25" customHeight="1">
+    <row r="8" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F8" t="s">
         <v>52</v>
       </c>
@@ -3350,7 +3357,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:36" ht="16.5" customHeight="1">
+    <row r="9" spans="1:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F9" t="s">
         <v>53</v>
       </c>
@@ -3415,17 +3422,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:36">
-      <c r="C10" s="26" t="s">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="C10" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
       <c r="F10" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:36">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>56</v>
       </c>
@@ -3437,7 +3444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:36">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
         <v>151</v>
       </c>
@@ -3452,7 +3459,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:36">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="E14" s="14" t="s">
         <v>152</v>
       </c>
@@ -3464,7 +3471,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:36">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="E15" t="s">
         <v>59</v>
       </c>
@@ -3473,7 +3480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:36">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="E16" t="s">
         <v>60</v>
       </c>
@@ -3485,7 +3492,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="3:25">
+    <row r="17" spans="3:25" x14ac:dyDescent="0.25">
       <c r="E17" s="14" t="s">
         <v>153</v>
       </c>
@@ -3494,7 +3501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="3:25">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.25">
       <c r="E18" s="14" t="s">
         <v>154</v>
       </c>
@@ -3503,8 +3510,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="3:25">
-      <c r="E19" s="15" t="s">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
         <v>155</v>
       </c>
       <c r="F19">
@@ -3518,9 +3525,8 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="3:25">
-      <c r="D20" s="15"/>
-      <c r="E20" s="15" t="s">
+    <row r="20" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
         <v>156</v>
       </c>
       <c r="F20">
@@ -3528,11 +3534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="3:25">
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-    </row>
-    <row r="22" spans="3:25">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>61</v>
       </c>
@@ -3544,7 +3546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="3:25">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.25">
       <c r="E23" t="s">
         <v>158</v>
       </c>
@@ -3553,7 +3555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="3:25">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.25">
       <c r="E24" t="s">
         <v>159</v>
       </c>
@@ -3565,7 +3567,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="3:25">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.25">
       <c r="E25" t="s">
         <v>160</v>
       </c>
@@ -3574,7 +3576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="3:25">
+    <row r="26" spans="3:25" x14ac:dyDescent="0.25">
       <c r="E26" t="s">
         <v>161</v>
       </c>
@@ -3583,7 +3585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="3:25">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.25">
       <c r="E27" t="s">
         <v>162</v>
       </c>
@@ -3625,7 +3627,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="3:25">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.25">
       <c r="E28" t="s">
         <v>163</v>
       </c>
@@ -3646,7 +3648,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="3:25">
+    <row r="29" spans="3:25" x14ac:dyDescent="0.25">
       <c r="E29" t="s">
         <v>164</v>
       </c>
@@ -3661,7 +3663,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="3:25">
+    <row r="30" spans="3:25" x14ac:dyDescent="0.25">
       <c r="E30" t="s">
         <v>71</v>
       </c>
@@ -3670,7 +3672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="3:25">
+    <row r="31" spans="3:25" x14ac:dyDescent="0.25">
       <c r="E31" t="s">
         <v>72</v>
       </c>
@@ -3679,7 +3681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="3:25">
+    <row r="32" spans="3:25" x14ac:dyDescent="0.25">
       <c r="E32" t="s">
         <v>73</v>
       </c>
@@ -3688,66 +3690,66 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="5:23">
+    <row r="33" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E33" t="s">
         <v>165</v>
       </c>
       <c r="F33">
-        <f>COUNTIF(G33:EZ33, "da")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="5:23">
+        <f t="shared" ref="F33:F53" si="2">COUNTIF(G33:EZ33, "da")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E34" t="s">
         <v>166</v>
       </c>
       <c r="F34">
-        <f>COUNTIF(G34:EZ34, "da")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="5:23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E35" t="s">
         <v>74</v>
       </c>
       <c r="F35">
-        <f>COUNTIF(G35:EZ35, "da")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="5:23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E36" t="s">
         <v>167</v>
       </c>
       <c r="F36">
-        <f>COUNTIF(G36:EZ36, "da")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="5:23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E37" t="s">
         <v>108</v>
       </c>
       <c r="F37">
-        <f>COUNTIF(G37:EZ37, "da")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="5:23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E38" t="s">
         <v>168</v>
       </c>
       <c r="F38">
-        <f>COUNTIF(G38:EZ38, "da")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="5:23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E39" t="s">
         <v>77</v>
       </c>
       <c r="F39">
-        <f>COUNTIF(G39:EZ39, "da")</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="I39" t="s">
@@ -3763,12 +3765,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="5:23">
+    <row r="40" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E40" s="14" t="s">
         <v>169</v>
       </c>
       <c r="F40">
-        <f>COUNTIF(G40:EZ40, "da")</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="I40" t="s">
@@ -3784,33 +3786,33 @@
         <v>58</v>
       </c>
     </row>
-    <row r="41" spans="5:23">
+    <row r="41" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E41" t="s">
         <v>170</v>
       </c>
       <c r="F41">
-        <f>COUNTIF(G41:EZ41, "da")</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="K41" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="42" spans="5:23">
+    <row r="42" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E42" t="s">
         <v>78</v>
       </c>
       <c r="F42">
-        <f>COUNTIF(G42:EZ42, "da")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="5:23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E43" t="s">
         <v>171</v>
       </c>
       <c r="F43">
-        <f>COUNTIF(G43:EZ43, "da")</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="O43" t="s">
@@ -3823,24 +3825,24 @@
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="5:23">
+    <row r="44" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E44" t="s">
         <v>172</v>
       </c>
       <c r="F44">
-        <f>COUNTIF(G44:EZ44, "da")</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="K44" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="45" spans="5:23">
+    <row r="45" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E45" t="s">
         <v>173</v>
       </c>
       <c r="F45">
-        <f>COUNTIF(G45:EZ45, "da")</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="M45" t="s">
@@ -3853,12 +3855,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="46" spans="5:23">
+    <row r="46" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E46" t="s">
         <v>79</v>
       </c>
       <c r="F46">
-        <f>COUNTIF(G46:EZ46, "da")</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="N46" t="s">
@@ -3868,42 +3870,42 @@
         <v>58</v>
       </c>
     </row>
-    <row r="47" spans="5:23">
-      <c r="E47" s="16" t="s">
+    <row r="47" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E47" s="15" t="s">
         <v>80</v>
       </c>
       <c r="F47">
-        <f>COUNTIF(G47:EZ47, "da")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="5:23">
-      <c r="E48" s="16" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E48" s="15" t="s">
         <v>174</v>
       </c>
       <c r="F48">
-        <f>COUNTIF(G48:EZ48, "da")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:26">
-      <c r="E49" s="16" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="E49" s="15" t="s">
         <v>175</v>
       </c>
       <c r="F49">
-        <f>COUNTIF(G49:EZ49, "da")</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="R49" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="50" spans="3:26">
-      <c r="E50" s="16" t="s">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="E50" s="15" t="s">
         <v>176</v>
       </c>
       <c r="F50">
-        <f>COUNTIF(G50:EZ50, "da")</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="P50" t="s">
@@ -3916,12 +3918,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="51" spans="3:26">
-      <c r="E51" s="16" t="s">
+    <row r="51" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="E51" s="15" t="s">
         <v>177</v>
       </c>
       <c r="F51">
-        <f>COUNTIF(G51:EZ51, "da")</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="M51" t="s">
@@ -3931,25 +3933,25 @@
         <v>58</v>
       </c>
     </row>
-    <row r="52" spans="3:26">
-      <c r="E52" s="16" t="s">
+    <row r="52" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="E52" s="15" t="s">
         <v>178</v>
       </c>
       <c r="F52">
-        <f>COUNTIF(G52:EZ52, "da")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:26">
-      <c r="E53" s="16" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="E53" s="15" t="s">
         <v>179</v>
       </c>
       <c r="F53">
-        <f>COUNTIF(G53:EZ53, "da")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="3:26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>82</v>
       </c>
@@ -4006,7 +4008,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="56" spans="3:26">
+    <row r="56" spans="3:26" x14ac:dyDescent="0.25">
       <c r="E56" s="1" t="s">
         <v>181</v>
       </c>
@@ -4030,7 +4032,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="57" spans="3:26">
+    <row r="57" spans="3:26" x14ac:dyDescent="0.25">
       <c r="E57" s="1" t="s">
         <v>182</v>
       </c>
@@ -4039,7 +4041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="3:26">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.25">
       <c r="E58" s="11" t="s">
         <v>84</v>
       </c>
@@ -4057,7 +4059,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="3:26">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.25">
       <c r="E59" s="11" t="s">
         <v>183</v>
       </c>
@@ -4066,7 +4068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="3:26">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.25">
       <c r="E60" t="s">
         <v>184</v>
       </c>
@@ -4075,7 +4077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="3:26">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.25">
       <c r="E61" t="s">
         <v>185</v>
       </c>
@@ -4114,7 +4116,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="62" spans="3:26">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.25">
       <c r="E62" t="s">
         <v>186</v>
       </c>
@@ -4156,7 +4158,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="63" spans="3:26">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.25">
       <c r="E63" t="s">
         <v>187</v>
       </c>
@@ -4165,7 +4167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="3:26">
+    <row r="64" spans="3:26" x14ac:dyDescent="0.25">
       <c r="E64" t="s">
         <v>188</v>
       </c>
@@ -4174,7 +4176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="5:26">
+    <row r="65" spans="5:26" x14ac:dyDescent="0.25">
       <c r="E65" t="s">
         <v>89</v>
       </c>
@@ -4183,7 +4185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="5:26">
+    <row r="66" spans="5:26" x14ac:dyDescent="0.25">
       <c r="E66" t="s">
         <v>90</v>
       </c>
@@ -4201,7 +4203,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="67" spans="5:26">
+    <row r="67" spans="5:26" x14ac:dyDescent="0.25">
       <c r="E67" t="s">
         <v>91</v>
       </c>
@@ -4210,7 +4212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="5:26">
+    <row r="68" spans="5:26" x14ac:dyDescent="0.25">
       <c r="E68" t="s">
         <v>92</v>
       </c>
@@ -4219,7 +4221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="5:26">
+    <row r="69" spans="5:26" x14ac:dyDescent="0.25">
       <c r="E69" t="s">
         <v>94</v>
       </c>
@@ -4228,7 +4230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="5:26">
+    <row r="70" spans="5:26" x14ac:dyDescent="0.25">
       <c r="E70" t="s">
         <v>189</v>
       </c>
@@ -4237,7 +4239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="5:26">
+    <row r="71" spans="5:26" x14ac:dyDescent="0.25">
       <c r="E71" t="s">
         <v>190</v>
       </c>
@@ -4273,7 +4275,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="72" spans="5:26">
+    <row r="72" spans="5:26" x14ac:dyDescent="0.25">
       <c r="E72" t="s">
         <v>191</v>
       </c>
@@ -4282,7 +4284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="5:26">
+    <row r="73" spans="5:26" x14ac:dyDescent="0.25">
       <c r="E73" t="s">
         <v>192</v>
       </c>
@@ -4294,7 +4296,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="74" spans="5:26">
+    <row r="74" spans="5:26" x14ac:dyDescent="0.25">
       <c r="E74" t="s">
         <v>193</v>
       </c>
@@ -4303,7 +4305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="5:26">
+    <row r="75" spans="5:26" x14ac:dyDescent="0.25">
       <c r="E75" t="s">
         <v>98</v>
       </c>
@@ -4324,7 +4326,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="76" spans="5:26">
+    <row r="76" spans="5:26" x14ac:dyDescent="0.25">
       <c r="E76" t="s">
         <v>194</v>
       </c>
@@ -4345,7 +4347,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="77" spans="5:26">
+    <row r="77" spans="5:26" x14ac:dyDescent="0.25">
       <c r="E77" t="s">
         <v>195</v>
       </c>
@@ -4375,7 +4377,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="78" spans="5:26">
+    <row r="78" spans="5:26" x14ac:dyDescent="0.25">
       <c r="E78" t="s">
         <v>196</v>
       </c>
@@ -4405,7 +4407,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="79" spans="5:26">
+    <row r="79" spans="5:26" x14ac:dyDescent="0.25">
       <c r="E79" t="s">
         <v>197</v>
       </c>
@@ -4414,7 +4416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="5:26">
+    <row r="80" spans="5:26" x14ac:dyDescent="0.25">
       <c r="E80" t="s">
         <v>198</v>
       </c>
@@ -4444,7 +4446,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="81" spans="3:26">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.25">
       <c r="E81" t="s">
         <v>199</v>
       </c>
@@ -4459,12 +4461,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="82" spans="3:26">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.25">
       <c r="E82" t="s">
         <v>200</v>
       </c>
       <c r="F82">
-        <f t="shared" ref="F82:F87" si="2">COUNTIF(G82:EZ82, "da")</f>
+        <f t="shared" ref="F82:F87" si="3">COUNTIF(G82:EZ82, "da")</f>
         <v>2</v>
       </c>
       <c r="K82" t="s">
@@ -4474,24 +4476,24 @@
         <v>58</v>
       </c>
     </row>
-    <row r="83" spans="3:26">
+    <row r="83" spans="3:26" x14ac:dyDescent="0.25">
       <c r="E83" t="s">
         <v>201</v>
       </c>
       <c r="F83">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="S83" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="84" spans="3:26">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.25">
       <c r="E84" t="s">
         <v>110</v>
       </c>
       <c r="F84">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="J84" t="s">
@@ -4510,30 +4512,30 @@
         <v>58</v>
       </c>
     </row>
-    <row r="85" spans="3:26">
+    <row r="85" spans="3:26" x14ac:dyDescent="0.25">
       <c r="E85" t="s">
         <v>111</v>
       </c>
       <c r="F85">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="3:26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.25">
       <c r="E86" t="s">
         <v>112</v>
       </c>
       <c r="F86">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="3:26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.25">
       <c r="E87" t="s">
         <v>113</v>
       </c>
       <c r="F87">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="T87" t="s">
@@ -4549,7 +4551,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="88" spans="3:26">
+    <row r="88" spans="3:26" x14ac:dyDescent="0.25">
       <c r="E88" t="s">
         <v>202</v>
       </c>
@@ -4558,7 +4560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="3:26">
+    <row r="89" spans="3:26" x14ac:dyDescent="0.25">
       <c r="E89" t="s">
         <v>203</v>
       </c>
@@ -4570,7 +4572,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="90" spans="3:26">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.25">
       <c r="E90" t="s">
         <v>88</v>
       </c>
@@ -4591,7 +4593,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="91" spans="3:26">
+    <row r="91" spans="3:26" x14ac:dyDescent="0.25">
       <c r="E91" t="s">
         <v>204</v>
       </c>
@@ -4603,7 +4605,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="92" spans="3:26">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.25">
       <c r="E92" t="s">
         <v>205</v>
       </c>
@@ -4615,7 +4617,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="94" spans="3:26">
+    <row r="94" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C94" t="s">
         <v>116</v>
       </c>
@@ -4627,7 +4629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="3:26">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.25">
       <c r="E95" t="s">
         <v>119</v>
       </c>
@@ -4657,7 +4659,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="96" spans="3:26">
+    <row r="96" spans="3:26" x14ac:dyDescent="0.25">
       <c r="E96" t="s">
         <v>120</v>
       </c>
@@ -4669,14 +4671,14 @@
         <v>58</v>
       </c>
     </row>
-    <row r="98" spans="3:25">
-      <c r="C98" s="31" t="s">
+    <row r="98" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="C98" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="D98" s="31"/>
-      <c r="E98" s="31"/>
-    </row>
-    <row r="100" spans="3:25">
+      <c r="D98" s="30"/>
+      <c r="E98" s="30"/>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C100" t="s">
         <v>82</v>
       </c>
@@ -4691,14 +4693,14 @@
         <v>58</v>
       </c>
     </row>
-    <row r="102" spans="3:25">
-      <c r="C102" s="30" t="s">
+    <row r="102" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="C102" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="D102" s="30"/>
-      <c r="E102" s="30"/>
-    </row>
-    <row r="104" spans="3:25">
+      <c r="D102" s="29"/>
+      <c r="E102" s="29"/>
+    </row>
+    <row r="104" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C104" t="s">
         <v>82</v>
       </c>
@@ -4710,7 +4712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="3:25">
+    <row r="105" spans="3:25" x14ac:dyDescent="0.25">
       <c r="E105" t="s">
         <v>208</v>
       </c>
@@ -4722,14 +4724,14 @@
         <v>58</v>
       </c>
     </row>
-    <row r="107" spans="3:25">
-      <c r="C107" s="29" t="s">
+    <row r="107" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="C107" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="D107" s="29"/>
-      <c r="E107" s="29"/>
-    </row>
-    <row r="109" spans="3:25">
+      <c r="D107" s="28"/>
+      <c r="E107" s="28"/>
+    </row>
+    <row r="109" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C109" t="s">
         <v>61</v>
       </c>
@@ -4741,7 +4743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="3:25">
+    <row r="110" spans="3:25" x14ac:dyDescent="0.25">
       <c r="E110" t="s">
         <v>210</v>
       </c>
@@ -4750,7 +4752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="3:25">
+    <row r="111" spans="3:25" x14ac:dyDescent="0.25">
       <c r="E111" s="14" t="s">
         <v>139</v>
       </c>
@@ -4759,7 +4761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="3:21">
+    <row r="113" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C113" t="s">
         <v>82</v>
       </c>
@@ -4771,7 +4773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="3:21">
+    <row r="114" spans="3:21" x14ac:dyDescent="0.25">
       <c r="E114" t="s">
         <v>212</v>
       </c>
@@ -4786,7 +4788,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="116" spans="3:21">
+    <row r="116" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C116" t="s">
         <v>116</v>
       </c>
@@ -4798,7 +4800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="3:21">
+    <row r="117" spans="3:21" x14ac:dyDescent="0.25">
       <c r="E117" t="s">
         <v>214</v>
       </c>
@@ -4816,7 +4818,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="118" spans="3:21">
+    <row r="118" spans="3:21" x14ac:dyDescent="0.25">
       <c r="E118" t="s">
         <v>215</v>
       </c>
@@ -4825,7 +4827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="3:21">
+    <row r="119" spans="3:21" x14ac:dyDescent="0.25">
       <c r="D119" t="s">
         <v>216</v>
       </c>
@@ -4837,7 +4839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="3:21">
+    <row r="120" spans="3:21" x14ac:dyDescent="0.25">
       <c r="E120" t="s">
         <v>218</v>
       </c>
@@ -4846,7 +4848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="3:21">
+    <row r="121" spans="3:21" x14ac:dyDescent="0.25">
       <c r="E121" t="s">
         <v>152</v>
       </c>
@@ -4858,28 +4860,31 @@
         <v>58</v>
       </c>
     </row>
-    <row r="123" spans="3:21">
-      <c r="C123" s="28" t="s">
+    <row r="123" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C123" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="D123" s="28"/>
-      <c r="E123" s="28"/>
-    </row>
-    <row r="125" spans="3:21">
-      <c r="C125" s="27" t="s">
+      <c r="D123" s="27"/>
+      <c r="E123" s="27"/>
+    </row>
+    <row r="125" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C125" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="D125" s="27"/>
-      <c r="E125" s="27"/>
-    </row>
-    <row r="127" spans="3:21">
-      <c r="C127" s="34" t="s">
+      <c r="D125" s="26"/>
+      <c r="E125" s="26"/>
+    </row>
+    <row r="127" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C127" s="33" t="s">
         <v>219</v>
       </c>
-      <c r="D127" s="34"/>
-      <c r="E127" s="34"/>
-    </row>
-    <row r="129" spans="3:24">
+      <c r="D127" s="33"/>
+      <c r="E127" s="33"/>
+    </row>
+    <row r="129" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C129" t="s">
+        <v>14</v>
+      </c>
       <c r="E129" s="14" t="s">
         <v>220</v>
       </c>
@@ -4888,14 +4893,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="3:24">
-      <c r="C131" s="25" t="s">
+    <row r="131" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C131" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="D131" s="25"/>
-      <c r="E131" s="25"/>
-    </row>
-    <row r="133" spans="3:24">
+      <c r="D131" s="24"/>
+      <c r="E131" s="24"/>
+    </row>
+    <row r="133" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C133" t="s">
         <v>82</v>
       </c>
@@ -4916,14 +4921,14 @@
         <v>58</v>
       </c>
     </row>
-    <row r="135" spans="3:24">
-      <c r="C135" s="32" t="s">
+    <row r="135" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C135" s="31" t="s">
         <v>222</v>
       </c>
-      <c r="D135" s="32"/>
-      <c r="E135" s="32"/>
-    </row>
-    <row r="137" spans="3:24">
+      <c r="D135" s="31"/>
+      <c r="E135" s="31"/>
+    </row>
+    <row r="137" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C137" t="s">
         <v>61</v>
       </c>
@@ -4935,12 +4940,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="3:24">
-      <c r="E138" s="16" t="s">
+    <row r="138" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="E138" s="15" t="s">
         <v>224</v>
       </c>
       <c r="F138">
-        <f t="shared" ref="F138:F150" si="3">COUNTIF(G138:EZ138, "da")</f>
+        <f t="shared" ref="F138:F150" si="4">COUNTIF(G138:EZ138, "da")</f>
         <v>2</v>
       </c>
       <c r="U138" t="s">
@@ -4950,12 +4955,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="139" spans="3:24">
-      <c r="E139" s="16" t="s">
+    <row r="139" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="E139" s="15" t="s">
         <v>225</v>
       </c>
       <c r="F139">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="U139" t="s">
@@ -4965,10 +4970,10 @@
         <v>58</v>
       </c>
     </row>
-    <row r="140" spans="3:24">
-      <c r="E140" s="16"/>
-    </row>
-    <row r="141" spans="3:24">
+    <row r="140" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="E140" s="15"/>
+    </row>
+    <row r="141" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C141" t="s">
         <v>82</v>
       </c>
@@ -4976,23 +4981,23 @@
         <v>226</v>
       </c>
       <c r="F141">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="3:24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="3:24" x14ac:dyDescent="0.25">
       <c r="E142" t="s">
         <v>227</v>
       </c>
       <c r="F142">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="V142" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="144" spans="3:24">
+    <row r="144" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C144" t="s">
         <v>116</v>
       </c>
@@ -5000,20 +5005,20 @@
         <v>228</v>
       </c>
       <c r="F144">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="3:6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E145" t="s">
         <v>229</v>
       </c>
       <c r="F145">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="3:6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E146" t="s">
         <v>230</v>
       </c>
@@ -5022,14 +5027,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="3:6">
-      <c r="C148" s="33" t="s">
+    <row r="148" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C148" s="32" t="s">
         <v>231</v>
       </c>
-      <c r="D148" s="33"/>
-      <c r="E148" s="33"/>
-    </row>
-    <row r="150" spans="3:6">
+      <c r="D148" s="32"/>
+      <c r="E148" s="32"/>
+    </row>
+    <row r="150" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C150" t="s">
         <v>61</v>
       </c>
@@ -5037,7 +5042,7 @@
         <v>232</v>
       </c>
       <c r="F150">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -5062,14 +5067,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{893FA989-93CF-494A-8578-57CB6CF43C39}">
   <dimension ref="A1:AJ89"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="6" ySplit="9" topLeftCell="G44" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="6" ySplit="9" topLeftCell="G10" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="topRight" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomRight" activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="4.85546875" customWidth="1"/>
@@ -5080,7 +5085,7 @@
     <col min="7" max="36" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -5089,7 +5094,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -5098,7 +5103,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:36">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -5106,8 +5111,12 @@
         <f>COUNTIF(F:F, "&gt;9")</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:36">
+      <c r="C4">
+        <f>COUNTIF(F:F, 0)</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -5115,7 +5124,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:36">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -5124,8 +5133,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:36" s="7" customFormat="1">
-      <c r="F7" s="20" t="s">
+    <row r="7" spans="1:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F7" s="19" t="s">
         <v>31</v>
       </c>
       <c r="G7" s="9" t="s">
@@ -5134,7 +5143,7 @@
       <c r="H7" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="I7" s="19" t="s">
+      <c r="I7" s="18" t="s">
         <v>235</v>
       </c>
       <c r="J7" s="7" t="s">
@@ -5173,7 +5182,7 @@
       <c r="AI7" s="9"/>
       <c r="AJ7" s="9"/>
     </row>
-    <row r="8" spans="1:36" ht="14.25" customHeight="1">
+    <row r="8" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F8" t="s">
         <v>52</v>
       </c>
@@ -5199,7 +5208,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:36" ht="16.5" customHeight="1">
+    <row r="9" spans="1:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F9" t="s">
         <v>53</v>
       </c>
@@ -5225,17 +5234,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:36">
-      <c r="C10" s="26" t="s">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="C10" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
       <c r="F10" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:36">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>56</v>
       </c>
@@ -5247,7 +5256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:36">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
         <v>59</v>
       </c>
@@ -5265,7 +5274,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:36">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>61</v>
       </c>
@@ -5277,7 +5286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:36">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="E16" t="s">
         <v>70</v>
       </c>
@@ -5286,8 +5295,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="3:13">
-      <c r="E17" s="16" t="s">
+    <row r="17" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="E17" s="15" t="s">
         <v>80</v>
       </c>
       <c r="F17">
@@ -5295,7 +5304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="3:13">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>82</v>
       </c>
@@ -5325,7 +5334,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="3:13">
+    <row r="20" spans="3:13" x14ac:dyDescent="0.25">
       <c r="E20" s="11" t="s">
         <v>91</v>
       </c>
@@ -5334,7 +5343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="3:13">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.25">
       <c r="E21" t="s">
         <v>92</v>
       </c>
@@ -5343,7 +5352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="3:13">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.25">
       <c r="E22" t="s">
         <v>93</v>
       </c>
@@ -5352,7 +5361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="3:13">
+    <row r="23" spans="3:13" x14ac:dyDescent="0.25">
       <c r="E23" t="s">
         <v>96</v>
       </c>
@@ -5367,7 +5376,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="3:13">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.25">
       <c r="E24" t="s">
         <v>104</v>
       </c>
@@ -5376,7 +5385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="3:13">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.25">
       <c r="E25" t="s">
         <v>105</v>
       </c>
@@ -5385,7 +5394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="3:13">
+    <row r="26" spans="3:13" x14ac:dyDescent="0.25">
       <c r="E26" t="s">
         <v>240</v>
       </c>
@@ -5394,7 +5403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="3:13">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.25">
       <c r="E27" t="s">
         <v>108</v>
       </c>
@@ -5403,7 +5412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="3:13">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.25">
       <c r="E28" t="s">
         <v>77</v>
       </c>
@@ -5412,7 +5421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="3:13">
+    <row r="29" spans="3:13" x14ac:dyDescent="0.25">
       <c r="E29" t="s">
         <v>110</v>
       </c>
@@ -5421,7 +5430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="3:13">
+    <row r="30" spans="3:13" x14ac:dyDescent="0.25">
       <c r="E30" t="s">
         <v>111</v>
       </c>
@@ -5430,7 +5439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="3:13">
+    <row r="31" spans="3:13" x14ac:dyDescent="0.25">
       <c r="E31" t="s">
         <v>114</v>
       </c>
@@ -5439,7 +5448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="3:13">
+    <row r="33" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>116</v>
       </c>
@@ -5451,7 +5460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="3:13">
+    <row r="34" spans="3:13" x14ac:dyDescent="0.25">
       <c r="E34" t="s">
         <v>121</v>
       </c>
@@ -5460,14 +5469,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="3:13">
-      <c r="C36" s="30" t="s">
+    <row r="36" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C36" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
-    </row>
-    <row r="38" spans="3:13">
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
+    </row>
+    <row r="38" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>56</v>
       </c>
@@ -5479,7 +5488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="3:13">
+    <row r="39" spans="3:13" x14ac:dyDescent="0.25">
       <c r="E39" s="14" t="s">
         <v>241</v>
       </c>
@@ -5488,7 +5497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="3:13">
+    <row r="41" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>61</v>
       </c>
@@ -5512,7 +5521,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="42" spans="3:13">
+    <row r="42" spans="3:13" x14ac:dyDescent="0.25">
       <c r="E42" t="s">
         <v>129</v>
       </c>
@@ -5530,7 +5539,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="43" spans="3:13">
+    <row r="43" spans="3:13" x14ac:dyDescent="0.25">
       <c r="E43" t="s">
         <v>130</v>
       </c>
@@ -5539,7 +5548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="3:13">
+    <row r="45" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>82</v>
       </c>
@@ -5569,7 +5578,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="46" spans="3:13">
+    <row r="46" spans="3:13" x14ac:dyDescent="0.25">
       <c r="E46" t="s">
         <v>242</v>
       </c>
@@ -5587,7 +5596,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="47" spans="3:13">
+    <row r="47" spans="3:13" x14ac:dyDescent="0.25">
       <c r="E47" t="s">
         <v>243</v>
       </c>
@@ -5596,7 +5605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="3:13">
+    <row r="48" spans="3:13" x14ac:dyDescent="0.25">
       <c r="E48" t="s">
         <v>244</v>
       </c>
@@ -5605,7 +5614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="3:13">
+    <row r="49" spans="3:13" x14ac:dyDescent="0.25">
       <c r="E49" t="s">
         <v>245</v>
       </c>
@@ -5614,7 +5623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="3:13">
+    <row r="50" spans="3:13" x14ac:dyDescent="0.25">
       <c r="E50" t="s">
         <v>246</v>
       </c>
@@ -5635,7 +5644,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="51" spans="3:13">
+    <row r="51" spans="3:13" x14ac:dyDescent="0.25">
       <c r="E51" t="s">
         <v>247</v>
       </c>
@@ -5647,7 +5656,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="52" spans="3:13">
+    <row r="52" spans="3:13" x14ac:dyDescent="0.25">
       <c r="E52" t="s">
         <v>248</v>
       </c>
@@ -5662,7 +5671,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="53" spans="3:13">
+    <row r="53" spans="3:13" x14ac:dyDescent="0.25">
       <c r="E53" s="14" t="s">
         <v>249</v>
       </c>
@@ -5674,7 +5683,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="54" spans="3:13">
+    <row r="54" spans="3:13" x14ac:dyDescent="0.25">
       <c r="E54" t="s">
         <v>250</v>
       </c>
@@ -5686,7 +5695,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="55" spans="3:13">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.25">
       <c r="E55" t="s">
         <v>251</v>
       </c>
@@ -5704,12 +5713,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="56" spans="3:13">
+    <row r="56" spans="3:13" x14ac:dyDescent="0.25">
       <c r="E56" t="s">
         <v>132</v>
       </c>
       <c r="F56">
-        <f>COUNTIF(G56:EZ56, "da")</f>
+        <f t="shared" ref="F56:F62" si="3">COUNTIF(G56:EZ56, "da")</f>
         <v>4</v>
       </c>
       <c r="H56" t="s">
@@ -5725,30 +5734,30 @@
         <v>58</v>
       </c>
     </row>
-    <row r="57" spans="3:13">
+    <row r="57" spans="3:13" x14ac:dyDescent="0.25">
       <c r="E57" t="s">
         <v>252</v>
       </c>
       <c r="F57">
-        <f>COUNTIF(G57:EZ57, "da")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.25">
       <c r="E58" t="s">
         <v>253</v>
       </c>
       <c r="F58">
-        <f>COUNTIF(G58:EZ58, "da")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.25">
       <c r="E59" t="s">
         <v>254</v>
       </c>
       <c r="F59">
-        <f>COUNTIF(G59:EZ59, "da")</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="J59" t="s">
@@ -5758,39 +5767,39 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="3:13">
+    <row r="60" spans="3:13" x14ac:dyDescent="0.25">
       <c r="E60" t="s">
         <v>255</v>
       </c>
       <c r="F60">
-        <f>COUNTIF(G60:EZ60, "da")</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J60" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="3:13">
+    <row r="61" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C61" s="6"/>
       <c r="E61" t="s">
         <v>133</v>
       </c>
       <c r="F61">
-        <f>COUNTIF(G61:EZ61, "da")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C62" s="6"/>
       <c r="E62" t="s">
         <v>256</v>
       </c>
       <c r="F62">
-        <f>COUNTIF(G62:EZ62, "da")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="3:13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>116</v>
       </c>
@@ -5808,7 +5817,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="65" spans="3:13">
+    <row r="65" spans="3:13" x14ac:dyDescent="0.25">
       <c r="E65" t="s">
         <v>134</v>
       </c>
@@ -5817,7 +5826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="3:13">
+    <row r="66" spans="3:13" x14ac:dyDescent="0.25">
       <c r="E66" t="s">
         <v>257</v>
       </c>
@@ -5826,7 +5835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="3:13">
+    <row r="67" spans="3:13" x14ac:dyDescent="0.25">
       <c r="E67" t="s">
         <v>258</v>
       </c>
@@ -5835,14 +5844,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="3:13">
-      <c r="C69" s="31" t="s">
+    <row r="69" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C69" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="D69" s="31"/>
-      <c r="E69" s="31"/>
-    </row>
-    <row r="71" spans="3:13">
+      <c r="D69" s="30"/>
+      <c r="E69" s="30"/>
+    </row>
+    <row r="71" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>61</v>
       </c>
@@ -5854,7 +5863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="3:13">
+    <row r="73" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>82</v>
       </c>
@@ -5869,14 +5878,14 @@
         <v>58</v>
       </c>
     </row>
-    <row r="75" spans="3:13">
-      <c r="C75" s="29" t="s">
+    <row r="75" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C75" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="D75" s="29"/>
-      <c r="E75" s="29"/>
-    </row>
-    <row r="77" spans="3:13">
+      <c r="D75" s="28"/>
+      <c r="E75" s="28"/>
+    </row>
+    <row r="77" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>61</v>
       </c>
@@ -5884,20 +5893,20 @@
         <v>139</v>
       </c>
       <c r="F77">
-        <f t="shared" ref="F77:F81" si="3">COUNTIF(G77:EZ77, "da")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="3:13">
+        <f t="shared" ref="F77:F81" si="4">COUNTIF(G77:EZ77, "da")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="3:13" x14ac:dyDescent="0.25">
       <c r="E78" t="s">
         <v>260</v>
       </c>
       <c r="F78">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="3:13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>116</v>
       </c>
@@ -5905,7 +5914,7 @@
         <v>261</v>
       </c>
       <c r="F80">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="J80" t="s">
@@ -5915,38 +5924,41 @@
         <v>58</v>
       </c>
     </row>
-    <row r="81" spans="3:6">
+    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E81" t="s">
         <v>217</v>
       </c>
       <c r="F81">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="3:6">
-      <c r="C83" s="28" t="s">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C83" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="D83" s="28"/>
-      <c r="E83" s="28"/>
-    </row>
-    <row r="85" spans="3:6">
-      <c r="C85" s="27" t="s">
+      <c r="D83" s="27"/>
+      <c r="E83" s="27"/>
+    </row>
+    <row r="85" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C85" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="D85" s="27"/>
-      <c r="E85" s="27"/>
-    </row>
-    <row r="87" spans="3:6">
-      <c r="C87" s="34" t="s">
+      <c r="D85" s="26"/>
+      <c r="E85" s="26"/>
+    </row>
+    <row r="87" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C87" s="33" t="s">
         <v>219</v>
       </c>
-      <c r="D87" s="34"/>
-      <c r="E87" s="34"/>
-    </row>
-    <row r="89" spans="3:6">
-      <c r="E89" s="15" t="s">
+      <c r="D87" s="33"/>
+      <c r="E87" s="33"/>
+    </row>
+    <row r="89" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C89" t="s">
+        <v>14</v>
+      </c>
+      <c r="E89" t="s">
         <v>262</v>
       </c>
       <c r="F89">

--- a/SAMPLES/zz_lista_volontera_24_25.xlsx
+++ b/SAMPLES/zz_lista_volontera_24_25.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lobel\Documents\Lobel\Zlatni Zmaj\Izvjesce\ZZ_Report_Analysis\SAMPLES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BD19528-16E6-4166-862F-B99419AF0EA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A579CD3A-9333-4035-95E6-0378796246B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="3" xr2:uid="{E4510751-5150-4AC6-8207-09F7448F3FDD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{E4510751-5150-4AC6-8207-09F7448F3FDD}"/>
   </bookViews>
   <sheets>
     <sheet name="raspored" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="264">
   <si>
     <t>LOKACIJE</t>
   </si>
@@ -922,6 +922,9 @@
   </si>
   <si>
     <t>Laura Matić Zbiljski</t>
+  </si>
+  <si>
+    <t>ŠPANSKO (samo srijedom)</t>
   </si>
 </sst>
 </file>
@@ -1584,7 +1587,7 @@
   <dimension ref="B6:I34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1654,7 +1657,7 @@
         <v>9</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>3</v>
+        <v>263</v>
       </c>
     </row>
     <row r="15" spans="2:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1752,11 +1755,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71401D37-8643-4D80-AD6F-CCF38A0A6DA2}">
   <dimension ref="A1:AJ117"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="6" ySplit="9" topLeftCell="G10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1778,6 +1781,10 @@
         <f>COUNT(F:F)</f>
         <v>80</v>
       </c>
+      <c r="C1">
+        <f>B2/B6</f>
+        <v>4.8499999999999996</v>
+      </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -1894,6 +1901,14 @@
       <c r="AJ7" s="9"/>
     </row>
     <row r="8" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f>COUNTIF(E:E, "*~**")-A9</f>
+        <v>31</v>
+      </c>
+      <c r="B8">
+        <f>B1-A8-2*A9</f>
+        <v>25</v>
+      </c>
       <c r="F8" t="s">
         <v>52</v>
       </c>
@@ -1959,6 +1974,10 @@
       </c>
     </row>
     <row r="9" spans="1:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f>COUNTIF(E:E, "*~*~**")</f>
+        <v>12</v>
+      </c>
       <c r="F9" t="s">
         <v>53</v>
       </c>
@@ -3152,10 +3171,10 @@
   <dimension ref="A1:AJ150"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="6" ySplit="9" topLeftCell="G10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="9" topLeftCell="G31" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3177,6 +3196,10 @@
         <f>COUNT(F:F)</f>
         <v>107</v>
       </c>
+      <c r="C1">
+        <f>B2/B6</f>
+        <v>8.9499999999999993</v>
+      </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -3293,6 +3316,14 @@
       <c r="AJ7" s="9"/>
     </row>
     <row r="8" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f>COUNTIF(E:E, "*~**")-A9</f>
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <f>B1-A8-2*A9</f>
+        <v>70</v>
+      </c>
       <c r="F8" t="s">
         <v>52</v>
       </c>
@@ -3358,6 +3389,10 @@
       </c>
     </row>
     <row r="9" spans="1:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f>COUNTIF(E:E, "*~*~**")</f>
+        <v>11</v>
+      </c>
       <c r="F9" t="s">
         <v>53</v>
       </c>
@@ -5067,11 +5102,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{893FA989-93CF-494A-8578-57CB6CF43C39}">
   <dimension ref="A1:AJ89"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane xSplit="6" ySplit="9" topLeftCell="G10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="K25" sqref="K25"/>
+      <selection pane="bottomRight" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5092,6 +5127,10 @@
       <c r="B1">
         <f>COUNT(F:F)</f>
         <v>54</v>
+      </c>
+      <c r="C1">
+        <f>B1/B6</f>
+        <v>7.7142857142857144</v>
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.25">
@@ -5183,6 +5222,14 @@
       <c r="AJ7" s="9"/>
     </row>
     <row r="8" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f>COUNTIF(E:E, "*~**")-A9</f>
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <f>B1-A8-2*A9</f>
+        <v>16</v>
+      </c>
       <c r="F8" t="s">
         <v>52</v>
       </c>
@@ -5209,6 +5256,10 @@
       </c>
     </row>
     <row r="9" spans="1:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f>COUNTIF(E:E, "*~*~**")</f>
+        <v>11</v>
+      </c>
       <c r="F9" t="s">
         <v>53</v>
       </c>

--- a/SAMPLES/zz_lista_volontera_24_25.xlsx
+++ b/SAMPLES/zz_lista_volontera_24_25.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28412"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lobel\Documents\Lobel\Zlatni Zmaj\Izvjesce\ZZ_Report_Analysis\SAMPLES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lobel\Documents\Lobel\Zlatni Zmaj\Evidencija\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A579CD3A-9333-4035-95E6-0378796246B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{939D811A-20F2-4B53-9963-B191B8F92DE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{E4510751-5150-4AC6-8207-09F7448F3FDD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{E4510751-5150-4AC6-8207-09F7448F3FDD}"/>
   </bookViews>
   <sheets>
     <sheet name="raspored" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="275">
   <si>
     <t>LOKACIJE</t>
   </si>
@@ -213,6 +213,21 @@
     <t>x na sivoj pozadini označava da taj tjedan nije bilo instrukcija (zbog praznika ili su radi nečeg drugog odgođene)</t>
   </si>
   <si>
+    <t>DODATNE UPUTE ZA FUNKCIONIRANJE PYTHON PROGRAMA ZA IZVJEŠTAJE</t>
+  </si>
+  <si>
+    <t>Prvi sheet u Excelu mora biti "raspored". Svaki naredni sheet mora nositi ime duljine jednog slova, koje je početno slovo imena lokacije za koju taj sheet služi.</t>
+  </si>
+  <si>
+    <t>Jedini mergani cellovi u svakom sheetu moraju biti imena škola. I sva imena škola trebaju biti u merganim cellovima.</t>
+  </si>
+  <si>
+    <t>Sva imena škola moraju biti jednaka u svakom sheetu u kojem se pojavljuju.</t>
+  </si>
+  <si>
+    <t>Razredi se moraju pisati u početnoj koloni merganog cella i pišu se samo za prvu osobu usvakom razredu. Dvije kolone na desno upisuju se imena volontera.</t>
+  </si>
+  <si>
     <t xml:space="preserve">broj volontera: </t>
   </si>
   <si>
@@ -228,6 +243,9 @@
     <t>broj termina:</t>
   </si>
   <si>
+    <t>Sajam u MZ</t>
+  </si>
+  <si>
     <t xml:space="preserve">datum: </t>
   </si>
   <si>
@@ -291,9 +309,24 @@
     <t>5.12.2024.</t>
   </si>
   <si>
+    <t>10.12.2024.</t>
+  </si>
+  <si>
+    <t>12.12.2024.</t>
+  </si>
+  <si>
+    <t>17.12.2024.</t>
+  </si>
+  <si>
+    <t>19.12.2024.</t>
+  </si>
+  <si>
     <t>broj volontera:</t>
   </si>
   <si>
+    <t>x</t>
+  </si>
+  <si>
     <t>broj djece:</t>
   </si>
   <si>
@@ -396,7 +429,7 @@
     <t>Karla Peric</t>
   </si>
   <si>
-    <t>Anja Vukobratović</t>
+    <t>Anja Vukobratović*</t>
   </si>
   <si>
     <t>Mauro Kritovac</t>
@@ -675,9 +708,6 @@
     <t>Sven Ridzak</t>
   </si>
   <si>
-    <t>Rita Bakić</t>
-  </si>
-  <si>
     <t>Nika Milinković</t>
   </si>
   <si>
@@ -855,6 +885,12 @@
     <t>27.11.2024.</t>
   </si>
   <si>
+    <t>4.12.2024.</t>
+  </si>
+  <si>
+    <t>11.12.2024.</t>
+  </si>
+  <si>
     <t>Franka Islamović</t>
   </si>
   <si>
@@ -922,9 +958,6 @@
   </si>
   <si>
     <t>Laura Matić Zbiljski</t>
-  </si>
-  <si>
-    <t>ŠPANSKO (samo srijedom)</t>
   </si>
 </sst>
 </file>
@@ -935,7 +968,7 @@
     <numFmt numFmtId="164" formatCode="d\.m\.;@"/>
     <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1057,7 +1090,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1147,6 +1180,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1176,7 +1215,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1208,6 +1247,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="16" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1220,6 +1260,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1265,8 +1308,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Izlaz" xfId="1" builtinId="21"/>
-    <cellStyle name="Normalno" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Output" xfId="1" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1288,9 +1331,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema sustava Office 2013 – 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 – 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1328,7 +1371,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 – 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1434,7 +1477,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 – 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1576,7 +1619,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1584,13 +1627,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A949D4D-8DCF-44A5-B736-0090FCC111AD}">
-  <dimension ref="B6:I34"/>
+  <dimension ref="B6:I44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="31.5703125" customWidth="1"/>
     <col min="4" max="4" width="38.28515625" customWidth="1"/>
@@ -1600,14 +1643,14 @@
     <col min="13" max="13" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-    </row>
-    <row r="7" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" ht="30.75" customHeight="1">
+      <c r="C6" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+    </row>
+    <row r="7" spans="2:9" ht="24" customHeight="1">
       <c r="C7" s="3" t="s">
         <v>1</v>
       </c>
@@ -1618,7 +1661,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="33" customHeight="1">
       <c r="C8" s="5" t="s">
         <v>4</v>
       </c>
@@ -1629,24 +1672,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9">
       <c r="I9" s="7"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9">
       <c r="C10">
         <v>140</v>
       </c>
       <c r="I10" s="7"/>
     </row>
-    <row r="13" spans="2:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="20" t="s">
+    <row r="13" spans="2:9" ht="33.75" customHeight="1">
+      <c r="B13" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-    </row>
-    <row r="14" spans="2:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+    </row>
+    <row r="14" spans="2:9" ht="23.25" customHeight="1">
       <c r="B14" s="8" t="s">
         <v>8</v>
       </c>
@@ -1657,10 +1700,10 @@
         <v>9</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" ht="25.5" customHeight="1">
       <c r="B15" s="5" t="s">
         <v>10</v>
       </c>
@@ -1674,7 +1717,7 @@
         <v>0.8125</v>
       </c>
     </row>
-    <row r="16" spans="2:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" ht="25.5" customHeight="1">
       <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
@@ -1688,13 +1731,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:4">
       <c r="C19" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="3:4" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="3:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:4" ht="15" customHeight="1"/>
+    <row r="21" spans="3:4" ht="43.5" customHeight="1">
       <c r="C21" s="13" t="s">
         <v>16</v>
       </c>
@@ -1702,44 +1745,69 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:4">
       <c r="C24" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:4">
       <c r="C26" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:4">
       <c r="C27" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:4">
       <c r="C28" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:4">
       <c r="C29" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:4">
       <c r="C31" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:4">
       <c r="C32" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:3">
       <c r="C34" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3">
+      <c r="C37" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3">
+      <c r="C39" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="3:3">
+      <c r="C41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="3:3">
+      <c r="C42" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" spans="3:3">
+      <c r="C44" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1755,14 +1823,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71401D37-8643-4D80-AD6F-CCF38A0A6DA2}">
   <dimension ref="A1:AJ117"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="6" ySplit="9" topLeftCell="G10" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="6" ySplit="9" topLeftCell="V10" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="AH7" sqref="AH7"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="5.140625" customWidth="1"/>
@@ -1773,126 +1841,129 @@
     <col min="7" max="36" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B1">
         <f>COUNT(F:F)</f>
         <v>80</v>
       </c>
-      <c r="C1">
-        <f>B2/B6</f>
-        <v>4.8499999999999996</v>
-      </c>
-    </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:36">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B2">
         <f>SUM(F:F)</f>
-        <v>97</v>
-      </c>
-    </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B4">
         <f>COUNTIF(F:F, "&gt;9")</f>
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <f>COUNTIF(F:F, 0)</f>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B6">
         <f>COUNTA(G8:EZ8)</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36">
       <c r="F7" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="N7" s="9" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="O7" s="9" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="P7" s="9" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="Q7" s="9" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="R7" s="9" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="S7" s="9" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="T7" s="9" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="U7" s="9" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="V7" s="9" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="W7" s="9" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="X7" s="9" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="Y7" s="9" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="Z7" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA7" s="9"/>
-      <c r="AB7" s="9"/>
-      <c r="AC7" s="9"/>
-      <c r="AD7" s="9"/>
+        <v>57</v>
+      </c>
+      <c r="AA7" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB7" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC7" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD7" s="9" t="s">
+        <v>61</v>
+      </c>
       <c r="AE7" s="9"/>
       <c r="AF7" s="9"/>
       <c r="AG7" s="9"/>
@@ -1900,17 +1971,9 @@
       <c r="AI7" s="9"/>
       <c r="AJ7" s="9"/>
     </row>
-    <row r="8" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <f>COUNTIF(E:E, "*~**")-A9</f>
-        <v>31</v>
-      </c>
-      <c r="B8">
-        <f>B1-A8-2*A9</f>
-        <v>25</v>
-      </c>
+    <row r="8" spans="1:36" ht="14.25" customHeight="1">
       <c r="F8" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="G8">
         <v>3</v>
@@ -1972,14 +2035,22 @@
       <c r="Z8">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <f>COUNTIF(E:E, "*~*~**")</f>
-        <v>12</v>
-      </c>
+      <c r="AA8">
+        <v>4</v>
+      </c>
+      <c r="AB8">
+        <v>4</v>
+      </c>
+      <c r="AC8">
+        <v>3</v>
+      </c>
+      <c r="AD8" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" ht="16.5" customHeight="1">
       <c r="F9" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -2041,1114 +2112,1159 @@
       <c r="Z9">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="C10" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
+      <c r="AA9">
+        <v>6</v>
+      </c>
+      <c r="AB9">
+        <v>1</v>
+      </c>
+      <c r="AC9">
+        <v>3</v>
+      </c>
+      <c r="AD9" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36">
+      <c r="C10" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
       <c r="F10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36">
       <c r="C12" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="E12" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="F12">
         <f t="shared" ref="F12:F109" si="0">COUNTIF(G12:EZ12, "da")</f>
         <v>1</v>
       </c>
       <c r="L12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36">
       <c r="E13" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="F13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36">
       <c r="E14" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="F14">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36">
       <c r="C16" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="E16" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="F16">
         <f>COUNTIF(G16:EZ16, "da")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="5:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:29">
       <c r="E17" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="F17">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="K17" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="O17" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="5:26" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="5:29">
       <c r="E18" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="F18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="5:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:29">
       <c r="E19" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="F19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="5:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:29">
       <c r="E20" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="F20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="5:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="5:29">
       <c r="E21" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="F21">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H21" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="K21" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="O21" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="Q21" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="V21" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="Z21" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="5:26" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="5:29">
       <c r="E22" s="14" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="F22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="5:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="5:29">
       <c r="E23" s="14" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="F23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="5:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="5:29">
       <c r="E24" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="F24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="5:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="5:29">
       <c r="E25" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="F25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="5:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="5:29">
       <c r="E26" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="F26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="5:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="5:29">
       <c r="E27" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="F27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="5:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="5:29">
       <c r="E28" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="F28">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z28" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="29" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E29" t="s">
-        <v>75</v>
+        <v>69</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="5:29">
+      <c r="E29" s="15" t="s">
+        <v>86</v>
       </c>
       <c r="F29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="5:26" x14ac:dyDescent="0.25">
+    <row r="30" spans="5:29">
       <c r="E30" s="14" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="F30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="5:26" x14ac:dyDescent="0.25">
+    <row r="31" spans="5:29">
       <c r="E31" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="F31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="5:26" x14ac:dyDescent="0.25">
+    <row r="32" spans="5:29">
       <c r="E32" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="F32">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:24">
       <c r="E33" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="F33">
         <f>COUNTIF(G33:EZ33, "da")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:24">
       <c r="E34" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="F34">
         <f>COUNTIF(G34:EZ34, "da")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:24">
       <c r="E35" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="F35">
         <f>COUNTIF(G35:EZ35, "da")</f>
         <v>1</v>
       </c>
       <c r="M35" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="37" spans="3:24" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="3:24">
       <c r="C37" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="F37">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="Q37" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="U37" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="X37" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="38" spans="3:24" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="3:24">
       <c r="E38" s="10" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="F38">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="G38" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="I38" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="M38" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="Q38" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="U38" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="39" spans="3:24" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="3:24">
       <c r="E39" s="11" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="F39">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="N39" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="U39" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="40" spans="3:24" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="3:24">
       <c r="E40" s="14" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="F40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:24">
       <c r="E41" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="F41">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="M41" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="R41" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="V41" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="42" spans="3:24" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42" spans="3:24">
       <c r="E42" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="F42">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="H42" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="I42" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="J42" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="L42" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="O42" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="43" spans="3:24" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="43" spans="3:24">
       <c r="E43" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="F43">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="N43" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="44" spans="3:24" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="44" spans="3:24">
       <c r="E44" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="F44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:24">
       <c r="E45" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="F45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:24">
       <c r="E46" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="F46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:24">
       <c r="E47" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="F47">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I47" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="48" spans="3:24" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="48" spans="3:24">
       <c r="E48" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="F48">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="5:25" x14ac:dyDescent="0.25">
+    <row r="49" spans="5:28">
       <c r="E49" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="F49">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="V49" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="Y49" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="50" spans="5:25" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="50" spans="5:28">
       <c r="E50" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="F50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="5:25" x14ac:dyDescent="0.25">
+    <row r="51" spans="5:28">
       <c r="E51" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="F51">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="U51" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="52" spans="5:25" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="52" spans="5:28">
       <c r="E52" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="F52">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="5:25" x14ac:dyDescent="0.25">
+    <row r="53" spans="5:28">
       <c r="E53" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="F53">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="5:25" x14ac:dyDescent="0.25">
+    <row r="54" spans="5:28">
       <c r="E54" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="F54">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="5:25" x14ac:dyDescent="0.25">
+    <row r="55" spans="5:28">
       <c r="E55" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="F55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="5:25" x14ac:dyDescent="0.25">
+    <row r="56" spans="5:28">
       <c r="E56" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="F56">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="5:25" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="AB56" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="57" spans="5:28">
       <c r="E57" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="F57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="5:25" x14ac:dyDescent="0.25">
+    <row r="58" spans="5:28">
       <c r="E58" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="F58">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="5:25" x14ac:dyDescent="0.25">
+    <row r="59" spans="5:28">
       <c r="E59" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="F59">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="5:25" x14ac:dyDescent="0.25">
+    <row r="60" spans="5:28">
       <c r="E60" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="F60">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="Q60" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="61" spans="5:25" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="61" spans="5:28">
       <c r="E61" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="F61">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="Q61" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="62" spans="5:25" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="62" spans="5:28">
       <c r="E62" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="F62">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="5:25" x14ac:dyDescent="0.25">
+    <row r="63" spans="5:28">
       <c r="E63" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="F63">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="5:25" x14ac:dyDescent="0.25">
+    <row r="64" spans="5:28">
       <c r="E64" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="F64">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="L64" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="65" spans="3:23" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="65" spans="3:23">
       <c r="E65" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="F65">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="L65" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="66" spans="3:23" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="66" spans="3:23">
       <c r="E66" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="F66">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:23">
       <c r="E67" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="F67">
         <f>COUNTIF(G67:EZ67, "da")</f>
         <v>2</v>
       </c>
       <c r="R67" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="T67" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="68" spans="3:23" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="68" spans="3:23">
       <c r="E68" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="F68">
         <f>COUNTIF(G68:EZ68, "da")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:23">
       <c r="E69" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="F69">
         <f>COUNTIF(G69:EZ69, "da")</f>
         <v>3</v>
       </c>
       <c r="Q69" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="S69" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="U69" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="71" spans="3:23" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="3:23">
       <c r="C71" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="E71" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="F71">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="P71" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="V71" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="72" spans="3:23" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="72" spans="3:23">
       <c r="E72" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="F72">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:23">
       <c r="E73" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="F73">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:23">
       <c r="E74" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="F74">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:23">
       <c r="E75" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="F75">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:23">
       <c r="E76" s="14" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="F76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:23">
       <c r="E77" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="F77">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="R77" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="S77" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="W77" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="79" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C79" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="D79" s="30"/>
-      <c r="E79" s="30"/>
-    </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="79" spans="3:23">
+      <c r="C79" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="D79" s="32"/>
+      <c r="E79" s="32"/>
+    </row>
+    <row r="81" spans="3:27">
       <c r="C81" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="F81">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I81" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="M81" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="N81" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="Q81" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="R81" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="S81" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="U81" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="W81" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="Z81" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C83" s="29" t="s">
-        <v>126</v>
-      </c>
-      <c r="D83" s="29"/>
-      <c r="E83" s="29"/>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="AA81" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="83" spans="3:27">
+      <c r="C83" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="D83" s="31"/>
+      <c r="E83" s="31"/>
+    </row>
+    <row r="85" spans="3:27">
       <c r="C85" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="E85" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="F85">
         <f>COUNTIF(G85:EZ85, "da")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:27">
       <c r="C87" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="E87" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="F87">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="Q87" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27">
       <c r="E88" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="F88">
         <f>COUNTIF(G88:EZ88, "da")</f>
         <v>1</v>
       </c>
       <c r="Q88" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27">
       <c r="E89" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="F89">
         <f>COUNTIF(G89:EZ89, "da")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:27">
       <c r="C91" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="E91" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="F91">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="N91" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="V91" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27">
       <c r="E92" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="F92">
         <f>COUNTIF(G92:EZ92, "da")</f>
         <v>3</v>
       </c>
       <c r="N92" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="V92" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="Y92" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27">
       <c r="E93" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="F93">
         <f>COUNTIF(G93:EZ93, "da")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:27">
       <c r="C95" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="E95" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="F95">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:27">
       <c r="E96" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F96">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="Y96" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C98" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="D98" s="28"/>
-      <c r="E98" s="28"/>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29">
+      <c r="C98" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="D98" s="30"/>
+      <c r="E98" s="30"/>
+    </row>
+    <row r="100" spans="3:29">
       <c r="C100" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="E100" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="F100">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G100" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="H100" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="I100" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="K100" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="L100" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="M100" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="O100" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="P100" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="Q100" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="S100" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="T100" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="U100" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="W100" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="X100" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="Y100" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="AA100" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB100" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC100" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="101" spans="3:29">
       <c r="E101" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="F101">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G101" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="H101" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="I101" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="K101" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="L101" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="M101" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="O101" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="P101" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="Q101" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="S101" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="T101" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="U101" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="W101" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="X101" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="Y101" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="AA101" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB101" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC101" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29">
       <c r="E102" s="14" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="F102">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C104" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="D104" s="27"/>
-      <c r="E104" s="27"/>
-    </row>
-    <row r="106" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C106" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="D106" s="26"/>
-      <c r="E106" s="26"/>
-    </row>
-    <row r="108" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:29">
+      <c r="C104" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="D104" s="29"/>
+      <c r="E104" s="29"/>
+    </row>
+    <row r="106" spans="3:29">
+      <c r="C106" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="D106" s="28"/>
+      <c r="E106" s="28"/>
+    </row>
+    <row r="108" spans="3:29">
       <c r="C108" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="E108" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="F108">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:29">
       <c r="E109" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F109">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C111" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="D111" s="23"/>
-      <c r="E111" s="23"/>
-    </row>
-    <row r="113" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:29">
+      <c r="C111" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="D111" s="25"/>
+      <c r="E111" s="25"/>
+    </row>
+    <row r="113" spans="3:19">
       <c r="C113" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="E113" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="F113">
         <f>COUNTIF(G113:EZ113, "da")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C115" s="24" t="s">
-        <v>146</v>
-      </c>
-      <c r="D115" s="24"/>
-      <c r="E115" s="24"/>
-    </row>
-    <row r="117" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:19">
+      <c r="C115" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="D115" s="26"/>
+      <c r="E115" s="26"/>
+    </row>
+    <row r="117" spans="3:19">
       <c r="C117" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="E117" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="F117">
         <f>COUNTIF(G117:EZ117, "da")</f>
         <v>1</v>
       </c>
       <c r="S117" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -3171,16 +3287,16 @@
   <dimension ref="A1:AJ150"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="6" ySplit="9" topLeftCell="G31" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="9" topLeftCell="S50" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="B54" sqref="B54"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="3.85546875" customWidth="1"/>
     <col min="3" max="3" width="9.5703125" customWidth="1"/>
     <col min="4" max="4" width="5.85546875" customWidth="1"/>
     <col min="5" max="5" width="21.85546875" customWidth="1"/>
@@ -3188,125 +3304,123 @@
     <col min="7" max="36" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B1">
         <f>COUNT(F:F)</f>
         <v>107</v>
       </c>
-      <c r="C1">
-        <f>B2/B6</f>
-        <v>8.9499999999999993</v>
-      </c>
-    </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:36">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B2">
         <f>SUM(F:F)</f>
         <v>179</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B4">
         <f>COUNTIF(F:F, "&gt;9")</f>
         <v>4</v>
       </c>
-      <c r="C4">
-        <f xml:space="preserve"> COUNTIF(F:F, 0)</f>
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:36">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B6">
         <f>COUNTA(G8:EZ8)</f>
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36">
       <c r="F7" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="M7" s="16" t="s">
-        <v>38</v>
+        <v>43</v>
+      </c>
+      <c r="M7" s="17" t="s">
+        <v>44</v>
       </c>
       <c r="N7" s="9" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="O7" s="9" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="P7" s="9" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="Q7" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="R7" s="17" t="s">
-        <v>149</v>
+        <v>159</v>
+      </c>
+      <c r="R7" s="18" t="s">
+        <v>160</v>
       </c>
       <c r="S7" s="9" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="T7" s="9" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="U7" s="9" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="V7" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="W7" s="17" t="s">
-        <v>48</v>
+        <v>53</v>
+      </c>
+      <c r="W7" s="18" t="s">
+        <v>54</v>
       </c>
       <c r="X7" s="9" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="Y7" s="9" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="Z7" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA7" s="9"/>
-      <c r="AB7" s="9"/>
-      <c r="AC7" s="9"/>
+        <v>57</v>
+      </c>
+      <c r="AA7" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB7" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC7" s="9" t="s">
+        <v>60</v>
+      </c>
       <c r="AD7" s="9"/>
       <c r="AE7" s="9"/>
       <c r="AF7" s="9"/>
@@ -3315,17 +3429,9 @@
       <c r="AI7" s="9"/>
       <c r="AJ7" s="9"/>
     </row>
-    <row r="8" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <f>COUNTIF(E:E, "*~**")-A9</f>
-        <v>15</v>
-      </c>
-      <c r="B8">
-        <f>B1-A8-2*A9</f>
-        <v>70</v>
-      </c>
+    <row r="8" spans="1:36" ht="14.25" customHeight="1">
       <c r="F8" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="G8">
         <v>7</v>
@@ -3388,13 +3494,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <f>COUNTIF(E:E, "*~*~**")</f>
-        <v>11</v>
-      </c>
+    <row r="9" spans="1:36" ht="16.5" customHeight="1">
       <c r="F9" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="G9">
         <v>6</v>
@@ -3457,1642 +3559,1644 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="C10" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
+    <row r="10" spans="1:36">
+      <c r="C10" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
       <c r="F10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36">
       <c r="C12" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="E12" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="F12">
         <f t="shared" ref="F12:F14" si="0">COUNTIF(G12:EZ12, "da")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36">
       <c r="E13" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="F13">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="H13" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="V13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36">
       <c r="E14" s="14" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="F14">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="K14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36">
       <c r="E15" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="F15">
         <f t="shared" ref="F15:F118" si="1">COUNTIF(G15:EZ15, "da")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36">
       <c r="E16" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="F16">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="3:25">
       <c r="E17" s="14" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="F17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:25">
       <c r="E18" s="14" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="F18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="E19" t="s">
-        <v>155</v>
+    <row r="19" spans="3:25">
+      <c r="E19" s="15" t="s">
+        <v>166</v>
       </c>
       <c r="F19">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="M19" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="Q19" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="E20" t="s">
-        <v>156</v>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="3:25">
+      <c r="D20" s="15"/>
+      <c r="E20" s="15" t="s">
+        <v>167</v>
       </c>
       <c r="F20">
         <f>COUNTIF(G20:EZ20, "da")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:25">
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+    </row>
+    <row r="22" spans="3:25">
       <c r="C22" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="E22" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="F22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:25">
       <c r="E23" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="F23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:25">
       <c r="E24" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="F24">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="T24" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25">
       <c r="E25" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="F25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:25">
       <c r="E26" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="F26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:25">
       <c r="E27" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="F27">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="G27" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="H27" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="I27" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="K27" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="O27" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="R27" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="S27" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="T27" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="U27" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="V27" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="Y27" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="3:25">
       <c r="E28" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="F28">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="I28" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="M28" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="O28" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="U28" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25">
       <c r="E29" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="F29">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="J29" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="N29" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25">
       <c r="E30" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="F30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:25">
       <c r="E31" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="F31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:25">
       <c r="E32" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="F32">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="5:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:23">
       <c r="E33" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="F33">
-        <f t="shared" ref="F33:F53" si="2">COUNTIF(G33:EZ33, "da")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="5:23" x14ac:dyDescent="0.25">
+        <f>COUNTIF(G33:EZ33, "da")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="5:23">
       <c r="E34" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="F34">
+        <f>COUNTIF(G34:EZ34, "da")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="5:23">
+      <c r="E35" t="s">
+        <v>85</v>
+      </c>
+      <c r="F35">
+        <f>COUNTIF(G35:EZ35, "da")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="5:23">
+      <c r="E36" t="s">
+        <v>178</v>
+      </c>
+      <c r="F36">
+        <f>COUNTIF(G36:EZ36, "da")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="5:23">
+      <c r="E37" t="s">
+        <v>119</v>
+      </c>
+      <c r="F37">
+        <f>COUNTIF(G37:EZ37, "da")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="5:23">
+      <c r="E38" t="s">
+        <v>179</v>
+      </c>
+      <c r="F38">
+        <f>COUNTIF(G38:EZ38, "da")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="5:23">
+      <c r="E39" t="s">
+        <v>88</v>
+      </c>
+      <c r="F39">
+        <f>COUNTIF(G39:EZ39, "da")</f>
+        <v>4</v>
+      </c>
+      <c r="I39" t="s">
+        <v>69</v>
+      </c>
+      <c r="M39" t="s">
+        <v>69</v>
+      </c>
+      <c r="R39" t="s">
+        <v>69</v>
+      </c>
+      <c r="U39" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="5:23">
+      <c r="E40" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="F40">
+        <f>COUNTIF(G40:EZ40, "da")</f>
+        <v>4</v>
+      </c>
+      <c r="I40" t="s">
+        <v>69</v>
+      </c>
+      <c r="J40" t="s">
+        <v>69</v>
+      </c>
+      <c r="P40" t="s">
+        <v>69</v>
+      </c>
+      <c r="W40" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="5:23">
+      <c r="E41" t="s">
+        <v>181</v>
+      </c>
+      <c r="F41">
+        <f>COUNTIF(G41:EZ41, "da")</f>
+        <v>1</v>
+      </c>
+      <c r="K41" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42" spans="5:23">
+      <c r="E42" t="s">
+        <v>89</v>
+      </c>
+      <c r="F42">
+        <f>COUNTIF(G42:EZ42, "da")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="5:23">
+      <c r="E43" t="s">
+        <v>182</v>
+      </c>
+      <c r="F43">
+        <f>COUNTIF(G43:EZ43, "da")</f>
+        <v>3</v>
+      </c>
+      <c r="O43" t="s">
+        <v>69</v>
+      </c>
+      <c r="T43" t="s">
+        <v>69</v>
+      </c>
+      <c r="W43" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="44" spans="5:23">
+      <c r="E44" t="s">
+        <v>183</v>
+      </c>
+      <c r="F44">
+        <f>COUNTIF(G44:EZ44, "da")</f>
+        <v>1</v>
+      </c>
+      <c r="K44" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45" spans="5:23">
+      <c r="E45" t="s">
+        <v>184</v>
+      </c>
+      <c r="F45">
+        <f>COUNTIF(G45:EZ45, "da")</f>
+        <v>3</v>
+      </c>
+      <c r="M45" t="s">
+        <v>69</v>
+      </c>
+      <c r="O45" t="s">
+        <v>69</v>
+      </c>
+      <c r="S45" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="46" spans="5:23">
+      <c r="E46" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46">
+        <f>COUNTIF(G46:EZ46, "da")</f>
+        <v>2</v>
+      </c>
+      <c r="N46" t="s">
+        <v>69</v>
+      </c>
+      <c r="R46" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="47" spans="5:23">
+      <c r="E47" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="F47">
+        <f>COUNTIF(G47:EZ47, "da")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="5:23">
+      <c r="E48" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="F48">
+        <f>COUNTIF(G48:EZ48, "da")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26">
+      <c r="E49" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="F49">
+        <f>COUNTIF(G49:EZ49, "da")</f>
+        <v>1</v>
+      </c>
+      <c r="R49" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26">
+      <c r="E50" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="F50">
+        <f>COUNTIF(G50:EZ50, "da")</f>
+        <v>3</v>
+      </c>
+      <c r="P50" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>69</v>
+      </c>
+      <c r="R50" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26">
+      <c r="E51" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="F51">
+        <f>COUNTIF(G51:EZ51, "da")</f>
+        <v>2</v>
+      </c>
+      <c r="M51" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26">
+      <c r="E52" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="F52">
+        <f>COUNTIF(G52:EZ52, "da")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26">
+      <c r="E53" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="F53">
+        <f>COUNTIF(G53:EZ53, "da")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:26">
+      <c r="C55" t="s">
+        <v>93</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="G55" t="s">
+        <v>69</v>
+      </c>
+      <c r="I55" t="s">
+        <v>69</v>
+      </c>
+      <c r="K55" t="s">
+        <v>69</v>
+      </c>
+      <c r="M55" t="s">
+        <v>69</v>
+      </c>
+      <c r="N55" t="s">
+        <v>69</v>
+      </c>
+      <c r="P55" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>69</v>
+      </c>
+      <c r="R55" t="s">
+        <v>69</v>
+      </c>
+      <c r="S55" t="s">
+        <v>69</v>
+      </c>
+      <c r="T55" t="s">
+        <v>69</v>
+      </c>
+      <c r="V55" t="s">
+        <v>69</v>
+      </c>
+      <c r="W55" t="s">
+        <v>69</v>
+      </c>
+      <c r="X55" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z55" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="56" spans="3:26">
+      <c r="E56" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="H56" t="s">
+        <v>69</v>
+      </c>
+      <c r="K56" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>69</v>
+      </c>
+      <c r="S56" t="s">
+        <v>69</v>
+      </c>
+      <c r="X56" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="57" spans="3:26">
+      <c r="E57" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26">
+      <c r="E58" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="J58" t="s">
+        <v>69</v>
+      </c>
+      <c r="V58" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26">
+      <c r="E59" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26">
+      <c r="E60" t="s">
+        <v>194</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26">
+      <c r="E61" t="s">
+        <v>195</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="G61" t="s">
+        <v>69</v>
+      </c>
+      <c r="H61" t="s">
+        <v>69</v>
+      </c>
+      <c r="I61" t="s">
+        <v>69</v>
+      </c>
+      <c r="J61" t="s">
+        <v>69</v>
+      </c>
+      <c r="O61" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>69</v>
+      </c>
+      <c r="R61" t="s">
+        <v>69</v>
+      </c>
+      <c r="S61" t="s">
+        <v>69</v>
+      </c>
+      <c r="T61" t="s">
+        <v>69</v>
+      </c>
+      <c r="U61" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26">
+      <c r="E62" t="s">
+        <v>196</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="G62" t="s">
+        <v>69</v>
+      </c>
+      <c r="I62" t="s">
+        <v>69</v>
+      </c>
+      <c r="J62" t="s">
+        <v>69</v>
+      </c>
+      <c r="L62" t="s">
+        <v>69</v>
+      </c>
+      <c r="M62" t="s">
+        <v>69</v>
+      </c>
+      <c r="O62" t="s">
+        <v>69</v>
+      </c>
+      <c r="R62" t="s">
+        <v>69</v>
+      </c>
+      <c r="S62" t="s">
+        <v>69</v>
+      </c>
+      <c r="T62" t="s">
+        <v>69</v>
+      </c>
+      <c r="U62" t="s">
+        <v>69</v>
+      </c>
+      <c r="W62" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26">
+      <c r="E63" t="s">
+        <v>197</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26">
+      <c r="E64" t="s">
+        <v>198</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="5:26">
+      <c r="E65" t="s">
+        <v>100</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="5:26">
+      <c r="E66" t="s">
+        <v>101</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="L66" t="s">
+        <v>69</v>
+      </c>
+      <c r="N66" t="s">
+        <v>69</v>
+      </c>
+      <c r="S66" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="67" spans="5:26">
+      <c r="E67" t="s">
+        <v>102</v>
+      </c>
+      <c r="F67">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="5:26">
+      <c r="E68" t="s">
+        <v>103</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="5:26">
+      <c r="E69" t="s">
+        <v>105</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="5:26">
+      <c r="E70" t="s">
+        <v>199</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="5:26">
+      <c r="E71" t="s">
+        <v>200</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="G71" t="s">
+        <v>69</v>
+      </c>
+      <c r="H71" t="s">
+        <v>69</v>
+      </c>
+      <c r="K71" t="s">
+        <v>69</v>
+      </c>
+      <c r="T71" t="s">
+        <v>69</v>
+      </c>
+      <c r="U71" t="s">
+        <v>69</v>
+      </c>
+      <c r="W71" t="s">
+        <v>69</v>
+      </c>
+      <c r="X71" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z71" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="72" spans="5:26">
+      <c r="E72" t="s">
+        <v>201</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="5:26">
+      <c r="E73" t="s">
+        <v>202</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G73" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="74" spans="5:26">
+      <c r="E74" t="s">
+        <v>203</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="5:26">
+      <c r="E75" t="s">
+        <v>109</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="N75" t="s">
+        <v>69</v>
+      </c>
+      <c r="U75" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z75" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="76" spans="5:26">
+      <c r="E76" t="s">
+        <v>204</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="K76" t="s">
+        <v>69</v>
+      </c>
+      <c r="R76" t="s">
+        <v>69</v>
+      </c>
+      <c r="T76" t="s">
+        <v>69</v>
+      </c>
+      <c r="V76" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="77" spans="5:26">
+      <c r="E77" t="s">
+        <v>205</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="G77" t="s">
+        <v>69</v>
+      </c>
+      <c r="I77" t="s">
+        <v>69</v>
+      </c>
+      <c r="M77" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>69</v>
+      </c>
+      <c r="R77" t="s">
+        <v>69</v>
+      </c>
+      <c r="V77" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z77" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="78" spans="5:26">
+      <c r="E78" t="s">
+        <v>206</v>
+      </c>
+      <c r="F78">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="H78" t="s">
+        <v>69</v>
+      </c>
+      <c r="J78" t="s">
+        <v>69</v>
+      </c>
+      <c r="K78" t="s">
+        <v>69</v>
+      </c>
+      <c r="L78" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>69</v>
+      </c>
+      <c r="S78" t="s">
+        <v>69</v>
+      </c>
+      <c r="X78" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="79" spans="5:26">
+      <c r="E79" t="s">
+        <v>207</v>
+      </c>
+      <c r="F79">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="5:26">
+      <c r="E80" t="s">
+        <v>208</v>
+      </c>
+      <c r="F80">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="J80" t="s">
+        <v>69</v>
+      </c>
+      <c r="K80" t="s">
+        <v>69</v>
+      </c>
+      <c r="T80" t="s">
+        <v>69</v>
+      </c>
+      <c r="V80" t="s">
+        <v>69</v>
+      </c>
+      <c r="W80" t="s">
+        <v>69</v>
+      </c>
+      <c r="X80" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="81" spans="3:26">
+      <c r="E81" t="s">
+        <v>209</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="I81" t="s">
+        <v>69</v>
+      </c>
+      <c r="P81" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="82" spans="3:26">
+      <c r="E82" t="s">
+        <v>210</v>
+      </c>
+      <c r="F82">
+        <f t="shared" ref="F82:F87" si="2">COUNTIF(G82:EZ82, "da")</f>
+        <v>2</v>
+      </c>
+      <c r="K82" t="s">
+        <v>69</v>
+      </c>
+      <c r="S82" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="83" spans="3:26">
+      <c r="E83" t="s">
+        <v>211</v>
+      </c>
+      <c r="F83">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="5:23" x14ac:dyDescent="0.25">
-      <c r="E35" t="s">
-        <v>74</v>
-      </c>
-      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="S83" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26">
+      <c r="E84" t="s">
+        <v>121</v>
+      </c>
+      <c r="F84">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="5:23" x14ac:dyDescent="0.25">
-      <c r="E36" t="s">
-        <v>167</v>
-      </c>
-      <c r="F36">
+        <v>5</v>
+      </c>
+      <c r="J84" t="s">
+        <v>69</v>
+      </c>
+      <c r="K84" t="s">
+        <v>69</v>
+      </c>
+      <c r="S84" t="s">
+        <v>69</v>
+      </c>
+      <c r="U84" t="s">
+        <v>69</v>
+      </c>
+      <c r="W84" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26">
+      <c r="E85" t="s">
+        <v>122</v>
+      </c>
+      <c r="F85">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="5:23" x14ac:dyDescent="0.25">
-      <c r="E37" t="s">
-        <v>108</v>
-      </c>
-      <c r="F37">
+    <row r="86" spans="3:26">
+      <c r="E86" t="s">
+        <v>123</v>
+      </c>
+      <c r="F86">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="5:23" x14ac:dyDescent="0.25">
-      <c r="E38" t="s">
-        <v>168</v>
-      </c>
-      <c r="F38">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="5:23" x14ac:dyDescent="0.25">
-      <c r="E39" t="s">
-        <v>77</v>
-      </c>
-      <c r="F39">
+    <row r="87" spans="3:26">
+      <c r="E87" t="s">
+        <v>124</v>
+      </c>
+      <c r="F87">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="I39" t="s">
-        <v>58</v>
-      </c>
-      <c r="M39" t="s">
-        <v>58</v>
-      </c>
-      <c r="R39" t="s">
-        <v>58</v>
-      </c>
-      <c r="U39" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="40" spans="5:23" x14ac:dyDescent="0.25">
-      <c r="E40" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="F40">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="I40" t="s">
-        <v>58</v>
-      </c>
-      <c r="J40" t="s">
-        <v>58</v>
-      </c>
-      <c r="P40" t="s">
-        <v>58</v>
-      </c>
-      <c r="W40" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="41" spans="5:23" x14ac:dyDescent="0.25">
-      <c r="E41" t="s">
-        <v>170</v>
-      </c>
-      <c r="F41">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="K41" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="42" spans="5:23" x14ac:dyDescent="0.25">
-      <c r="E42" t="s">
-        <v>78</v>
-      </c>
-      <c r="F42">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="5:23" x14ac:dyDescent="0.25">
-      <c r="E43" t="s">
-        <v>171</v>
-      </c>
-      <c r="F43">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="O43" t="s">
-        <v>58</v>
-      </c>
-      <c r="T43" t="s">
-        <v>58</v>
-      </c>
-      <c r="W43" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="44" spans="5:23" x14ac:dyDescent="0.25">
-      <c r="E44" t="s">
-        <v>172</v>
-      </c>
-      <c r="F44">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="K44" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="45" spans="5:23" x14ac:dyDescent="0.25">
-      <c r="E45" t="s">
-        <v>173</v>
-      </c>
-      <c r="F45">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="M45" t="s">
-        <v>58</v>
-      </c>
-      <c r="O45" t="s">
-        <v>58</v>
-      </c>
-      <c r="S45" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="46" spans="5:23" x14ac:dyDescent="0.25">
-      <c r="E46" t="s">
-        <v>79</v>
-      </c>
-      <c r="F46">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="N46" t="s">
-        <v>58</v>
-      </c>
-      <c r="R46" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="47" spans="5:23" x14ac:dyDescent="0.25">
-      <c r="E47" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="F47">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="5:23" x14ac:dyDescent="0.25">
-      <c r="E48" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="F48">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="E49" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="F49">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="R49" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="E50" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="F50">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="P50" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q50" t="s">
-        <v>58</v>
-      </c>
-      <c r="R50" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="E51" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="F51">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="M51" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q51" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="E52" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="F52">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="E53" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="F53">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C55" t="s">
-        <v>82</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="F55">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="G55" t="s">
-        <v>58</v>
-      </c>
-      <c r="I55" t="s">
-        <v>58</v>
-      </c>
-      <c r="K55" t="s">
-        <v>58</v>
-      </c>
-      <c r="M55" t="s">
-        <v>58</v>
-      </c>
-      <c r="N55" t="s">
-        <v>58</v>
-      </c>
-      <c r="P55" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q55" t="s">
-        <v>58</v>
-      </c>
-      <c r="R55" t="s">
-        <v>58</v>
-      </c>
-      <c r="S55" t="s">
-        <v>58</v>
-      </c>
-      <c r="T55" t="s">
-        <v>58</v>
-      </c>
-      <c r="V55" t="s">
-        <v>58</v>
-      </c>
-      <c r="W55" t="s">
-        <v>58</v>
-      </c>
-      <c r="X55" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y55" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z55" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="E56" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="F56">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="H56" t="s">
-        <v>58</v>
-      </c>
-      <c r="K56" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q56" t="s">
-        <v>58</v>
-      </c>
-      <c r="S56" t="s">
-        <v>58</v>
-      </c>
-      <c r="X56" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="E57" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="F57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="E58" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="F58">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="J58" t="s">
-        <v>58</v>
-      </c>
-      <c r="V58" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y58" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="E59" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="F59">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="E60" t="s">
-        <v>184</v>
-      </c>
-      <c r="F60">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="E61" t="s">
-        <v>185</v>
-      </c>
-      <c r="F61">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="G61" t="s">
-        <v>58</v>
-      </c>
-      <c r="H61" t="s">
-        <v>58</v>
-      </c>
-      <c r="I61" t="s">
-        <v>58</v>
-      </c>
-      <c r="J61" t="s">
-        <v>58</v>
-      </c>
-      <c r="O61" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q61" t="s">
-        <v>58</v>
-      </c>
-      <c r="R61" t="s">
-        <v>58</v>
-      </c>
-      <c r="S61" t="s">
-        <v>58</v>
-      </c>
-      <c r="T61" t="s">
-        <v>58</v>
-      </c>
-      <c r="U61" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="E62" t="s">
-        <v>186</v>
-      </c>
-      <c r="F62">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="G62" t="s">
-        <v>58</v>
-      </c>
-      <c r="I62" t="s">
-        <v>58</v>
-      </c>
-      <c r="J62" t="s">
-        <v>58</v>
-      </c>
-      <c r="L62" t="s">
-        <v>58</v>
-      </c>
-      <c r="M62" t="s">
-        <v>58</v>
-      </c>
-      <c r="O62" t="s">
-        <v>58</v>
-      </c>
-      <c r="R62" t="s">
-        <v>58</v>
-      </c>
-      <c r="S62" t="s">
-        <v>58</v>
-      </c>
-      <c r="T62" t="s">
-        <v>58</v>
-      </c>
-      <c r="U62" t="s">
-        <v>58</v>
-      </c>
-      <c r="W62" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="E63" t="s">
-        <v>187</v>
-      </c>
-      <c r="F63">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="E64" t="s">
-        <v>188</v>
-      </c>
-      <c r="F64">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E65" t="s">
-        <v>89</v>
-      </c>
-      <c r="F65">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E66" t="s">
-        <v>90</v>
-      </c>
-      <c r="F66">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="L66" t="s">
-        <v>58</v>
-      </c>
-      <c r="N66" t="s">
-        <v>58</v>
-      </c>
-      <c r="S66" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="67" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E67" t="s">
-        <v>91</v>
-      </c>
-      <c r="F67">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E68" t="s">
-        <v>92</v>
-      </c>
-      <c r="F68">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E69" t="s">
-        <v>94</v>
-      </c>
-      <c r="F69">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E70" t="s">
-        <v>189</v>
-      </c>
-      <c r="F70">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E71" t="s">
-        <v>190</v>
-      </c>
-      <c r="F71">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="G71" t="s">
-        <v>58</v>
-      </c>
-      <c r="H71" t="s">
-        <v>58</v>
-      </c>
-      <c r="K71" t="s">
-        <v>58</v>
-      </c>
-      <c r="T71" t="s">
-        <v>58</v>
-      </c>
-      <c r="U71" t="s">
-        <v>58</v>
-      </c>
-      <c r="W71" t="s">
-        <v>58</v>
-      </c>
-      <c r="X71" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y71" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z71" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="72" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E72" t="s">
-        <v>191</v>
-      </c>
-      <c r="F72">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E73" t="s">
-        <v>192</v>
-      </c>
-      <c r="F73">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="G73" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="74" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E74" t="s">
-        <v>193</v>
-      </c>
-      <c r="F74">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E75" t="s">
-        <v>98</v>
-      </c>
-      <c r="F75">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="N75" t="s">
-        <v>58</v>
-      </c>
-      <c r="U75" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y75" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z75" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="76" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E76" t="s">
-        <v>194</v>
-      </c>
-      <c r="F76">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="K76" t="s">
-        <v>58</v>
-      </c>
-      <c r="R76" t="s">
-        <v>58</v>
-      </c>
-      <c r="T76" t="s">
-        <v>58</v>
-      </c>
-      <c r="V76" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="77" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E77" t="s">
-        <v>195</v>
-      </c>
-      <c r="F77">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="G77" t="s">
-        <v>58</v>
-      </c>
-      <c r="I77" t="s">
-        <v>58</v>
-      </c>
-      <c r="M77" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q77" t="s">
-        <v>58</v>
-      </c>
-      <c r="R77" t="s">
-        <v>58</v>
-      </c>
-      <c r="V77" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z77" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="78" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E78" t="s">
-        <v>196</v>
-      </c>
-      <c r="F78">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="H78" t="s">
-        <v>58</v>
-      </c>
-      <c r="J78" t="s">
-        <v>58</v>
-      </c>
-      <c r="K78" t="s">
-        <v>58</v>
-      </c>
-      <c r="L78" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q78" t="s">
-        <v>58</v>
-      </c>
-      <c r="S78" t="s">
-        <v>58</v>
-      </c>
-      <c r="X78" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="79" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E79" t="s">
-        <v>197</v>
-      </c>
-      <c r="F79">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E80" t="s">
-        <v>198</v>
-      </c>
-      <c r="F80">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="J80" t="s">
-        <v>58</v>
-      </c>
-      <c r="K80" t="s">
-        <v>58</v>
-      </c>
-      <c r="T80" t="s">
-        <v>58</v>
-      </c>
-      <c r="V80" t="s">
-        <v>58</v>
-      </c>
-      <c r="W80" t="s">
-        <v>58</v>
-      </c>
-      <c r="X80" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y80" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="E81" t="s">
-        <v>199</v>
-      </c>
-      <c r="F81">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="I81" t="s">
-        <v>58</v>
-      </c>
-      <c r="P81" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="E82" t="s">
-        <v>200</v>
-      </c>
-      <c r="F82">
-        <f t="shared" ref="F82:F87" si="3">COUNTIF(G82:EZ82, "da")</f>
-        <v>2</v>
-      </c>
-      <c r="K82" t="s">
-        <v>58</v>
-      </c>
-      <c r="S82" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="E83" t="s">
-        <v>201</v>
-      </c>
-      <c r="F83">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="S83" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="E84" t="s">
-        <v>110</v>
-      </c>
-      <c r="F84">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="J84" t="s">
-        <v>58</v>
-      </c>
-      <c r="K84" t="s">
-        <v>58</v>
-      </c>
-      <c r="S84" t="s">
-        <v>58</v>
-      </c>
-      <c r="U84" t="s">
-        <v>58</v>
-      </c>
-      <c r="W84" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="E85" t="s">
-        <v>111</v>
-      </c>
-      <c r="F85">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="E86" t="s">
-        <v>112</v>
-      </c>
-      <c r="F86">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="E87" t="s">
-        <v>113</v>
-      </c>
-      <c r="F87">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
       <c r="T87" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="W87" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="X87" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="Z87" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26">
       <c r="E88" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="F88">
         <f>COUNTIF(G88:EZ88, "da")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:26">
       <c r="E89" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="F89">
         <f>COUNTIF(G89:EZ89, "da")</f>
         <v>1</v>
       </c>
       <c r="R89" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="90" spans="3:26">
       <c r="E90" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="F90">
         <f>COUNTIF(G90:EZ90, "da")</f>
         <v>4</v>
       </c>
       <c r="T90" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="V90" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="X90" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="Z90" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="91" spans="3:26">
       <c r="E91" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="F91">
         <f>COUNTIF(G91:EZ91, "da")</f>
         <v>1</v>
       </c>
       <c r="U91" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26">
       <c r="E92" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="F92">
         <f>COUNTIF(G92:EZ92, "da")</f>
         <v>1</v>
       </c>
       <c r="Y92" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26">
       <c r="C94" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="E94" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="F94">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:26">
       <c r="E95" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="F95">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="H95" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="J95" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="L95" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="R95" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="T95" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="V95" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="X95" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="96" spans="3:26">
       <c r="E96" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="F96">
         <f>COUNTIF(G96:EZ96, "da")</f>
         <v>1</v>
       </c>
       <c r="V96" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C98" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="D98" s="30"/>
-      <c r="E98" s="30"/>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25">
+      <c r="C98" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="D98" s="32"/>
+      <c r="E98" s="32"/>
+    </row>
+    <row r="100" spans="3:25">
       <c r="C100" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="E100" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="F100">
         <f>COUNTIF(G100:EZ100, "da")</f>
         <v>1</v>
       </c>
       <c r="Y100" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C102" s="29" t="s">
-        <v>126</v>
-      </c>
-      <c r="D102" s="29"/>
-      <c r="E102" s="29"/>
-    </row>
-    <row r="104" spans="3:25" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25">
+      <c r="C102" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="D102" s="31"/>
+      <c r="E102" s="31"/>
+    </row>
+    <row r="104" spans="3:25">
       <c r="C104" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="E104" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="F104">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:25">
       <c r="E105" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="F105">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="Y105" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="107" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C107" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="D107" s="28"/>
-      <c r="E107" s="28"/>
-    </row>
-    <row r="109" spans="3:25" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="107" spans="3:25">
+      <c r="C107" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="D107" s="30"/>
+      <c r="E107" s="30"/>
+    </row>
+    <row r="109" spans="3:25">
       <c r="C109" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="E109" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="F109">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:25">
       <c r="E110" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="F110">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:25">
       <c r="E111" s="14" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="F111">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:21">
       <c r="C113" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="E113" s="14" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="F113">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:21">
       <c r="E114" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="F114">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="L114" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="P114" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="116" spans="3:21" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="116" spans="3:21">
       <c r="C116" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="E116" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="F116">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:21">
       <c r="E117" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="F117">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="K117" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="L117" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="T117" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="118" spans="3:21" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="118" spans="3:21">
       <c r="E118" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="F118">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:21">
       <c r="D119" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="E119" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="F119">
         <f>COUNTIF(G119:EZ119, "da")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:21">
       <c r="E120" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="F120">
         <f>COUNTIF(G120:EZ120, "da")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:21">
       <c r="E121" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="F121">
         <f>COUNTIF(G121:EZ121, "da")</f>
         <v>1</v>
       </c>
       <c r="U121" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="123" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C123" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="D123" s="27"/>
-      <c r="E123" s="27"/>
-    </row>
-    <row r="125" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C125" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="D125" s="26"/>
-      <c r="E125" s="26"/>
-    </row>
-    <row r="127" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C127" s="33" t="s">
-        <v>219</v>
-      </c>
-      <c r="D127" s="33"/>
-      <c r="E127" s="33"/>
-    </row>
-    <row r="129" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="C129" t="s">
-        <v>14</v>
-      </c>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="123" spans="3:21">
+      <c r="C123" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="D123" s="29"/>
+      <c r="E123" s="29"/>
+    </row>
+    <row r="125" spans="3:21">
+      <c r="C125" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="D125" s="28"/>
+      <c r="E125" s="28"/>
+    </row>
+    <row r="127" spans="3:21">
+      <c r="C127" s="35" t="s">
+        <v>229</v>
+      </c>
+      <c r="D127" s="35"/>
+      <c r="E127" s="35"/>
+    </row>
+    <row r="129" spans="3:24">
       <c r="E129" s="14" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="F129">
         <f>COUNTIF(G129:EZ129, "da")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="C131" s="24" t="s">
-        <v>146</v>
-      </c>
-      <c r="D131" s="24"/>
-      <c r="E131" s="24"/>
-    </row>
-    <row r="133" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:24">
+      <c r="C131" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="D131" s="26"/>
+      <c r="E131" s="26"/>
+    </row>
+    <row r="133" spans="3:24">
       <c r="C133" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="E133" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="F133">
         <f>COUNTIF(G133:EZ133, "da")</f>
         <v>3</v>
       </c>
       <c r="S133" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="U133" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="X133" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="135" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="C135" s="31" t="s">
-        <v>222</v>
-      </c>
-      <c r="D135" s="31"/>
-      <c r="E135" s="31"/>
-    </row>
-    <row r="137" spans="3:24" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="135" spans="3:24">
+      <c r="C135" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="D135" s="33"/>
+      <c r="E135" s="33"/>
+    </row>
+    <row r="137" spans="3:24">
       <c r="C137" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="E137" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="F137">
         <f>COUNTIF(G137:EZ137, "da")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="E138" s="15" t="s">
-        <v>224</v>
+    <row r="138" spans="3:24">
+      <c r="E138" s="16" t="s">
+        <v>234</v>
       </c>
       <c r="F138">
-        <f t="shared" ref="F138:F150" si="4">COUNTIF(G138:EZ138, "da")</f>
+        <f t="shared" ref="F138:F150" si="3">COUNTIF(G138:EZ138, "da")</f>
         <v>2</v>
       </c>
       <c r="U138" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="W138" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="139" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="E139" s="15" t="s">
-        <v>225</v>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="139" spans="3:24">
+      <c r="E139" s="16" t="s">
+        <v>235</v>
       </c>
       <c r="F139">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="U139" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="W139" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="140" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="E140" s="15"/>
-    </row>
-    <row r="141" spans="3:24" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="140" spans="3:24">
+      <c r="E140" s="16"/>
+    </row>
+    <row r="141" spans="3:24">
       <c r="C141" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="E141" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="F141">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="3:24" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="3:24">
       <c r="E142" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="F142">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="V142" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="144" spans="3:24" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="144" spans="3:24">
       <c r="C144" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="E144" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="F144">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="3:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="3:6">
       <c r="E145" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="F145">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="3:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="3:6">
       <c r="E146" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="F146">
         <f>COUNTIF(G146:EZ146, "da")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C148" s="32" t="s">
-        <v>231</v>
-      </c>
-      <c r="D148" s="32"/>
-      <c r="E148" s="32"/>
-    </row>
-    <row r="150" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="3:6">
+      <c r="C148" s="34" t="s">
+        <v>241</v>
+      </c>
+      <c r="D148" s="34"/>
+      <c r="E148" s="34"/>
+    </row>
+    <row r="150" spans="3:6">
       <c r="C150" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="E150" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="F150">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C98:E98"/>
+    <mergeCell ref="C102:E102"/>
+    <mergeCell ref="C107:E107"/>
+    <mergeCell ref="C123:E123"/>
     <mergeCell ref="C135:E135"/>
     <mergeCell ref="C148:E148"/>
     <mergeCell ref="C131:E131"/>
     <mergeCell ref="C127:E127"/>
     <mergeCell ref="C125:E125"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C98:E98"/>
-    <mergeCell ref="C102:E102"/>
-    <mergeCell ref="C107:E107"/>
-    <mergeCell ref="C123:E123"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5100,16 +5204,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{893FA989-93CF-494A-8578-57CB6CF43C39}">
-  <dimension ref="A1:AJ89"/>
+  <dimension ref="A1:AJ91"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="6" ySplit="9" topLeftCell="G10" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="P13" sqref="P13"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="4.85546875" customWidth="1"/>
@@ -5120,85 +5224,81 @@
     <col min="7" max="36" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B1">
         <f>COUNT(F:F)</f>
-        <v>54</v>
-      </c>
-      <c r="C1">
-        <f>B1/B6</f>
-        <v>7.7142857142857144</v>
-      </c>
-    </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B2">
         <f>SUM(F:F)</f>
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B4">
         <f>COUNTIF(F:F, "&gt;9")</f>
         <v>0</v>
       </c>
-      <c r="C4">
-        <f>COUNTIF(F:F, 0)</f>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:36">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B6">
         <f>COUNTA(G8:EZ8)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F7" s="19" t="s">
-        <v>31</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" s="7" customFormat="1">
+      <c r="F7" s="20" t="s">
+        <v>37</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="I7" s="18" t="s">
-        <v>235</v>
+        <v>244</v>
+      </c>
+      <c r="I7" s="19" t="s">
+        <v>245</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
+        <v>249</v>
+      </c>
+      <c r="N7" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="O7" s="9" t="s">
+        <v>251</v>
+      </c>
       <c r="P7" s="9"/>
       <c r="Q7" s="9"/>
       <c r="R7" s="9"/>
@@ -5221,17 +5321,9 @@
       <c r="AI7" s="9"/>
       <c r="AJ7" s="9"/>
     </row>
-    <row r="8" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <f>COUNTIF(E:E, "*~**")-A9</f>
-        <v>16</v>
-      </c>
-      <c r="B8">
-        <f>B1-A8-2*A9</f>
-        <v>16</v>
-      </c>
+    <row r="8" spans="1:36" ht="14.25" customHeight="1">
       <c r="F8" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="G8">
         <v>4</v>
@@ -5254,14 +5346,16 @@
       <c r="M8">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <f>COUNTIF(E:E, "*~*~**")</f>
-        <v>11</v>
-      </c>
+      <c r="N8">
+        <v>5</v>
+      </c>
+      <c r="O8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" ht="16.5" customHeight="1">
       <c r="F9" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="G9">
         <v>5</v>
@@ -5284,748 +5378,805 @@
       <c r="M9">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="C10" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
+      <c r="N9">
+        <v>9</v>
+      </c>
+      <c r="O9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36">
+      <c r="C10" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
       <c r="F10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36">
       <c r="C12" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="F12">
         <f t="shared" ref="F12:F16" si="0">COUNTIF(G12:EZ12, "da")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36">
       <c r="E13" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="F13">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="I13" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="J13" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="K13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36">
       <c r="C15" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="E15" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="F15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36">
       <c r="E16" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="F16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="E17" s="15" t="s">
-        <v>80</v>
+    <row r="17" spans="3:15">
+      <c r="E17" s="16" t="s">
+        <v>91</v>
       </c>
       <c r="F17">
         <f>COUNTIF(G17:EZ17, "da")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:15">
       <c r="C19" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="F19">
         <f>COUNTIF(G19:EZ19, "da")</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G19" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="H19" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="I19" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="J19" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="K19" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="M19" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="N19" t="s">
+        <v>69</v>
+      </c>
+      <c r="O19" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="3:15">
       <c r="E20" s="11" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="F20">
-        <f t="shared" ref="F20:F41" si="1">COUNTIF(G20:EZ20, "da")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.25">
+        <f t="shared" ref="F20:F43" si="1">COUNTIF(G20:EZ20, "da")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15">
       <c r="E21" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="F21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:15">
       <c r="E22" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="F22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:15">
       <c r="E23" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="F23">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="L23" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="M23" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15">
       <c r="E24" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="F24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:15">
       <c r="E25" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="F25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:15">
       <c r="E26" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="F26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:15">
       <c r="E27" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="F27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:15">
       <c r="E28" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="F28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:15">
       <c r="E29" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="F29">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:15">
       <c r="E30" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="F30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:15">
       <c r="E31" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="F31">
         <f>COUNTIF(G31:EZ31, "da")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C33" t="s">
-        <v>116</v>
-      </c>
+    <row r="32" spans="3:15">
+      <c r="E32" t="s">
+        <v>98</v>
+      </c>
+      <c r="F32">
+        <f>COUNTIF(G32:EZ32, "da")</f>
+        <v>1</v>
+      </c>
+      <c r="N32" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="3:15">
       <c r="E33" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="F33">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="E34" t="s">
-        <v>121</v>
-      </c>
-      <c r="F34">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C36" s="29" t="s">
-        <v>126</v>
-      </c>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
-    </row>
-    <row r="38" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C38" t="s">
-        <v>56</v>
-      </c>
-      <c r="E38" t="s">
+        <f>COUNTIF(G33:EZ33, "da")</f>
+        <v>1</v>
+      </c>
+      <c r="N33" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="3:15">
+      <c r="C35" t="s">
         <v>127</v>
       </c>
-      <c r="F38">
-        <f>COUNTIF(G38:EZ38, "da")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="E39" s="14" t="s">
-        <v>241</v>
-      </c>
-      <c r="F39">
-        <f>COUNTIF(G39:EZ39, "da")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C41" t="s">
-        <v>61</v>
-      </c>
-      <c r="E41" t="s">
-        <v>128</v>
+      <c r="E35" t="s">
+        <v>131</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="3:15">
+      <c r="E36" t="s">
+        <v>132</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="3:15">
+      <c r="C38" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+    </row>
+    <row r="40" spans="3:15">
+      <c r="C40" t="s">
+        <v>67</v>
+      </c>
+      <c r="E40" t="s">
+        <v>138</v>
+      </c>
+      <c r="F40">
+        <f>COUNTIF(G40:EZ40, "da")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="3:15">
+      <c r="E41" s="14" t="s">
+        <v>253</v>
       </c>
       <c r="F41">
+        <f>COUNTIF(G41:EZ41, "da")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="3:15">
+      <c r="C43" t="s">
+        <v>72</v>
+      </c>
+      <c r="E43" t="s">
+        <v>139</v>
+      </c>
+      <c r="F43">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="I41" t="s">
-        <v>58</v>
-      </c>
-      <c r="J41" t="s">
-        <v>58</v>
-      </c>
-      <c r="K41" t="s">
-        <v>58</v>
-      </c>
-      <c r="M41" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="42" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="E42" t="s">
-        <v>129</v>
-      </c>
-      <c r="F42">
-        <f>COUNTIF(G42:EZ42, "da")</f>
+      <c r="I43" t="s">
+        <v>69</v>
+      </c>
+      <c r="J43" t="s">
+        <v>69</v>
+      </c>
+      <c r="K43" t="s">
+        <v>69</v>
+      </c>
+      <c r="M43" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="44" spans="3:15">
+      <c r="E44" t="s">
+        <v>140</v>
+      </c>
+      <c r="F44">
+        <f>COUNTIF(G44:EZ44, "da")</f>
         <v>3</v>
       </c>
-      <c r="I42" t="s">
-        <v>58</v>
-      </c>
-      <c r="J42" t="s">
-        <v>58</v>
-      </c>
-      <c r="K42" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="43" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="E43" t="s">
-        <v>130</v>
-      </c>
-      <c r="F43">
-        <f>COUNTIF(G43:EZ43, "da")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C45" t="s">
-        <v>82</v>
-      </c>
-      <c r="E45" s="10" t="s">
-        <v>131</v>
+      <c r="I44" t="s">
+        <v>69</v>
+      </c>
+      <c r="J44" t="s">
+        <v>69</v>
+      </c>
+      <c r="K44" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45" spans="3:15">
+      <c r="E45" t="s">
+        <v>141</v>
       </c>
       <c r="F45">
         <f>COUNTIF(G45:EZ45, "da")</f>
-        <v>6</v>
-      </c>
-      <c r="G45" t="s">
-        <v>58</v>
-      </c>
-      <c r="H45" t="s">
-        <v>58</v>
-      </c>
-      <c r="I45" t="s">
-        <v>58</v>
-      </c>
-      <c r="K45" t="s">
-        <v>58</v>
-      </c>
-      <c r="L45" t="s">
-        <v>58</v>
-      </c>
-      <c r="M45" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="46" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="E46" t="s">
-        <v>242</v>
-      </c>
-      <c r="F46">
-        <f t="shared" ref="F46:F73" si="2">COUNTIF(G46:EZ46, "da")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="3:15">
+      <c r="C47" t="s">
+        <v>93</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="F47">
+        <f>COUNTIF(G47:EZ47, "da")</f>
+        <v>8</v>
+      </c>
+      <c r="G47" t="s">
+        <v>69</v>
+      </c>
+      <c r="H47" t="s">
+        <v>69</v>
+      </c>
+      <c r="I47" t="s">
+        <v>69</v>
+      </c>
+      <c r="K47" t="s">
+        <v>69</v>
+      </c>
+      <c r="L47" t="s">
+        <v>69</v>
+      </c>
+      <c r="M47" t="s">
+        <v>69</v>
+      </c>
+      <c r="N47" t="s">
+        <v>69</v>
+      </c>
+      <c r="O47" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="48" spans="3:15">
+      <c r="E48" t="s">
+        <v>254</v>
+      </c>
+      <c r="F48">
+        <f t="shared" ref="F48:F75" si="2">COUNTIF(G48:EZ48, "da")</f>
         <v>3</v>
       </c>
-      <c r="G46" t="s">
-        <v>58</v>
-      </c>
-      <c r="H46" t="s">
-        <v>58</v>
-      </c>
-      <c r="M46" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="47" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="E47" t="s">
-        <v>243</v>
-      </c>
-      <c r="F47">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="E48" t="s">
-        <v>244</v>
-      </c>
-      <c r="F48">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="G48" t="s">
+        <v>69</v>
+      </c>
+      <c r="H48" t="s">
+        <v>69</v>
+      </c>
+      <c r="M48" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15">
       <c r="E49" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="F49">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:15">
       <c r="E50" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="F50">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="H50" t="s">
-        <v>58</v>
-      </c>
-      <c r="K50" t="s">
-        <v>58</v>
-      </c>
-      <c r="L50" t="s">
-        <v>58</v>
-      </c>
-      <c r="M50" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15">
       <c r="E51" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="F51">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="J51" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15">
       <c r="E52" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="F52">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="J52" t="s">
-        <v>58</v>
+        <v>5</v>
+      </c>
+      <c r="H52" t="s">
+        <v>69</v>
       </c>
       <c r="K52" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="E53" s="14" t="s">
-        <v>249</v>
+        <v>69</v>
+      </c>
+      <c r="L52" t="s">
+        <v>69</v>
+      </c>
+      <c r="M52" t="s">
+        <v>69</v>
+      </c>
+      <c r="O52" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15">
+      <c r="E53" t="s">
+        <v>259</v>
       </c>
       <c r="F53">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15">
       <c r="E54" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="F54">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H54" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="E55" t="s">
-        <v>251</v>
+        <v>2</v>
+      </c>
+      <c r="J54" t="s">
+        <v>69</v>
+      </c>
+      <c r="K54" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15">
+      <c r="E55" s="14" t="s">
+        <v>261</v>
       </c>
       <c r="F55">
         <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J55" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="56" spans="3:15">
+      <c r="E56" t="s">
+        <v>262</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H56" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="57" spans="3:15">
+      <c r="E57" t="s">
+        <v>263</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="G57" t="s">
+        <v>69</v>
+      </c>
+      <c r="H57" t="s">
+        <v>69</v>
+      </c>
+      <c r="M57" t="s">
+        <v>69</v>
+      </c>
+      <c r="N57" t="s">
+        <v>69</v>
+      </c>
+      <c r="O57" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15">
+      <c r="E58" t="s">
+        <v>143</v>
+      </c>
+      <c r="F58">
+        <f>COUNTIF(G58:EZ58, "da")</f>
+        <v>5</v>
+      </c>
+      <c r="H58" t="s">
+        <v>69</v>
+      </c>
+      <c r="K58" t="s">
+        <v>69</v>
+      </c>
+      <c r="L58" t="s">
+        <v>69</v>
+      </c>
+      <c r="M58" t="s">
+        <v>69</v>
+      </c>
+      <c r="O58" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15">
+      <c r="E59" t="s">
+        <v>264</v>
+      </c>
+      <c r="F59">
+        <f>COUNTIF(G59:EZ59, "da")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15">
+      <c r="E60" t="s">
+        <v>265</v>
+      </c>
+      <c r="F60">
+        <f>COUNTIF(G60:EZ60, "da")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15">
+      <c r="E61" t="s">
+        <v>266</v>
+      </c>
+      <c r="F61">
+        <f>COUNTIF(G61:EZ61, "da")</f>
+        <v>2</v>
+      </c>
+      <c r="J61" t="s">
+        <v>69</v>
+      </c>
+      <c r="M61" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15">
+      <c r="E62" t="s">
+        <v>267</v>
+      </c>
+      <c r="F62">
+        <f>COUNTIF(G62:EZ62, "da")</f>
+        <v>1</v>
+      </c>
+      <c r="J62" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15">
+      <c r="C63" s="6"/>
+      <c r="E63" t="s">
+        <v>144</v>
+      </c>
+      <c r="F63">
+        <f>COUNTIF(G63:EZ63, "da")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15">
+      <c r="C64" s="6"/>
+      <c r="E64" t="s">
+        <v>268</v>
+      </c>
+      <c r="F64">
+        <f>COUNTIF(G64:EZ64, "da")</f>
+        <v>1</v>
+      </c>
+      <c r="O64" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="66" spans="3:15">
+      <c r="C66" t="s">
+        <v>127</v>
+      </c>
+      <c r="E66" t="s">
+        <v>146</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="G55" t="s">
-        <v>58</v>
-      </c>
-      <c r="H55" t="s">
-        <v>58</v>
-      </c>
-      <c r="M55" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="E56" t="s">
-        <v>132</v>
-      </c>
-      <c r="F56">
-        <f t="shared" ref="F56:F62" si="3">COUNTIF(G56:EZ56, "da")</f>
-        <v>4</v>
-      </c>
-      <c r="H56" t="s">
-        <v>58</v>
-      </c>
-      <c r="K56" t="s">
-        <v>58</v>
-      </c>
-      <c r="L56" t="s">
-        <v>58</v>
-      </c>
-      <c r="M56" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="E57" t="s">
-        <v>252</v>
-      </c>
-      <c r="F57">
+      <c r="K66" t="s">
+        <v>69</v>
+      </c>
+      <c r="L66" t="s">
+        <v>69</v>
+      </c>
+      <c r="O66" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="67" spans="3:15">
+      <c r="E67" t="s">
+        <v>145</v>
+      </c>
+      <c r="F67">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="3:15">
+      <c r="E68" t="s">
+        <v>269</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="3:15">
+      <c r="E69" t="s">
+        <v>270</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="3:15">
+      <c r="C71" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="D71" s="32"/>
+      <c r="E71" s="32"/>
+    </row>
+    <row r="73" spans="3:15">
+      <c r="C73" t="s">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>271</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="3:15">
+      <c r="C75" t="s">
+        <v>93</v>
+      </c>
+      <c r="E75" t="s">
+        <v>136</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M75" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="77" spans="3:15">
+      <c r="C77" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="D77" s="30"/>
+      <c r="E77" s="30"/>
+    </row>
+    <row r="79" spans="3:15">
+      <c r="C79" t="s">
+        <v>72</v>
+      </c>
+      <c r="E79" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="F79">
+        <f t="shared" ref="F79:F83" si="3">COUNTIF(G79:EZ79, "da")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="3:15">
+      <c r="E80" t="s">
+        <v>272</v>
+      </c>
+      <c r="F80">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="E58" t="s">
-        <v>253</v>
-      </c>
-      <c r="F58">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="E59" t="s">
-        <v>254</v>
-      </c>
-      <c r="F59">
+    <row r="82" spans="3:12">
+      <c r="C82" t="s">
+        <v>127</v>
+      </c>
+      <c r="E82" t="s">
+        <v>273</v>
+      </c>
+      <c r="F82">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="J59" t="s">
-        <v>58</v>
-      </c>
-      <c r="M59" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="E60" t="s">
-        <v>255</v>
-      </c>
-      <c r="F60">
+      <c r="J82" t="s">
+        <v>69</v>
+      </c>
+      <c r="L82" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="83" spans="3:12">
+      <c r="E83" t="s">
+        <v>227</v>
+      </c>
+      <c r="F83">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="J60" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C61" s="6"/>
-      <c r="E61" t="s">
-        <v>133</v>
-      </c>
-      <c r="F61">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C62" s="6"/>
-      <c r="E62" t="s">
-        <v>256</v>
-      </c>
-      <c r="F62">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C64" t="s">
-        <v>116</v>
-      </c>
-      <c r="E64" t="s">
-        <v>135</v>
-      </c>
-      <c r="F64">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="K64" t="s">
-        <v>58</v>
-      </c>
-      <c r="L64" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="65" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="E65" t="s">
-        <v>134</v>
-      </c>
-      <c r="F65">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="E66" t="s">
-        <v>257</v>
-      </c>
-      <c r="F66">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="E67" t="s">
-        <v>258</v>
-      </c>
-      <c r="F67">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C69" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="D69" s="30"/>
-      <c r="E69" s="30"/>
-    </row>
-    <row r="71" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C71" t="s">
-        <v>61</v>
-      </c>
-      <c r="E71" t="s">
-        <v>259</v>
-      </c>
-      <c r="F71">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C73" t="s">
-        <v>82</v>
-      </c>
-      <c r="E73" t="s">
-        <v>125</v>
-      </c>
-      <c r="F73">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="M73" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="75" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C75" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="D75" s="28"/>
-      <c r="E75" s="28"/>
-    </row>
-    <row r="77" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C77" t="s">
-        <v>61</v>
-      </c>
-      <c r="E77" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="F77">
-        <f t="shared" ref="F77:F81" si="4">COUNTIF(G77:EZ77, "da")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="E78" t="s">
-        <v>260</v>
-      </c>
-      <c r="F78">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C80" t="s">
-        <v>116</v>
-      </c>
-      <c r="E80" t="s">
-        <v>261</v>
-      </c>
-      <c r="F80">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="J80" t="s">
-        <v>58</v>
-      </c>
-      <c r="L80" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="E81" t="s">
-        <v>217</v>
-      </c>
-      <c r="F81">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C83" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="D83" s="27"/>
-      <c r="E83" s="27"/>
-    </row>
-    <row r="85" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C85" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="D85" s="26"/>
-      <c r="E85" s="26"/>
-    </row>
-    <row r="87" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C87" s="33" t="s">
-        <v>219</v>
-      </c>
-      <c r="D87" s="33"/>
-      <c r="E87" s="33"/>
-    </row>
-    <row r="89" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C89" t="s">
-        <v>14</v>
-      </c>
-      <c r="E89" t="s">
-        <v>262</v>
-      </c>
-      <c r="F89">
-        <f>COUNTIF(G89:EZ89, "da")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12">
+      <c r="C85" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="D85" s="29"/>
+      <c r="E85" s="29"/>
+    </row>
+    <row r="87" spans="3:12">
+      <c r="C87" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="D87" s="28"/>
+      <c r="E87" s="28"/>
+    </row>
+    <row r="89" spans="3:12">
+      <c r="C89" s="35" t="s">
+        <v>229</v>
+      </c>
+      <c r="D89" s="35"/>
+      <c r="E89" s="35"/>
+    </row>
+    <row r="91" spans="3:12">
+      <c r="E91" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="F91">
+        <f>COUNTIF(G91:EZ91, "da")</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="C89:E89"/>
     <mergeCell ref="C87:E87"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C71:E71"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="C77:E77"/>
     <mergeCell ref="C85:E85"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C69:E69"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="C75:E75"/>
-    <mergeCell ref="C83:E83"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SAMPLES/zz_lista_volontera_24_25.xlsx
+++ b/SAMPLES/zz_lista_volontera_24_25.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28803"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\working\waccache\FR1PEPF00001103\EXCELCNV\aaa8bacf-0bbd-4828-8490-7d2883d37192\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lobel\Documents\Lobel\Zlatni Zmaj\Izvjesce\ZZ_Report_Analysis\SAMPLES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9123F13F-4FC1-4C2B-BF16-4789F0795A61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5FCAB66-61E4-4D11-9038-C15E2AA4E82F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="15480" windowHeight="11640" firstSheet="4" activeTab="2" xr2:uid="{E4510751-5150-4AC6-8207-09F7448F3FDD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{E4510751-5150-4AC6-8207-09F7448F3FDD}"/>
   </bookViews>
   <sheets>
     <sheet name="raspored" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1769" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1769" uniqueCount="482">
   <si>
     <t>Zadnje popunjena evidencija: 13.4.2025.</t>
   </si>
@@ -952,9 +952,6 @@
     <t>07.11.2024.</t>
   </si>
   <si>
-    <t>21.1.2025</t>
-  </si>
-  <si>
     <t>Marta Bezjak</t>
   </si>
   <si>
@@ -1593,7 +1590,7 @@
     <numFmt numFmtId="164" formatCode="d\.m\.;@"/>
     <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1884,7 +1881,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1913,7 +1910,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1924,18 +1920,17 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1944,6 +1939,21 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1963,21 +1973,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1987,14 +1982,10 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Output" xfId="1" builtinId="21"/>
+    <cellStyle name="Izlaz" xfId="1" builtinId="21"/>
+    <cellStyle name="Normalno" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2069,9 +2060,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema sustava Office 2013 – 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 – 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2109,7 +2100,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 – 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2215,7 +2206,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 – 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2357,7 +2348,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2371,7 +2362,7 @@
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="31.5703125" customWidth="1"/>
     <col min="4" max="5" width="38.28515625" customWidth="1"/>
@@ -2381,20 +2372,20 @@
     <col min="14" max="14" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:13">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:13" ht="30.75" customHeight="1">
-      <c r="C6" s="28" t="s">
+    <row r="6" spans="2:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-    </row>
-    <row r="7" spans="2:13" ht="24" customHeight="1">
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+    </row>
+    <row r="7" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="3" t="s">
         <v>2</v>
       </c>
@@ -2407,11 +2398,11 @@
       <c r="F7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K7" s="21" t="s">
+      <c r="K7" s="19" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="2:13" ht="33" customHeight="1">
+    <row r="8" spans="2:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="4" t="s">
         <v>7</v>
       </c>
@@ -2428,17 +2419,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="2:13" ht="34.5" customHeight="1">
+    <row r="9" spans="2:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D9" s="4" t="s">
         <v>12</v>
       </c>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:13">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="J10" s="6"/>
     </row>
-    <row r="12" spans="2:13">
-      <c r="K12" s="21" t="s">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="K12" s="19" t="s">
         <v>13</v>
       </c>
       <c r="L12" t="s">
@@ -2448,14 +2439,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="2:13" ht="33.75" customHeight="1">
-      <c r="B13" s="27" t="s">
+    <row r="13" spans="2:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
       <c r="K13" t="s">
         <v>17</v>
       </c>
@@ -2466,7 +2457,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="2:13" ht="23.25" customHeight="1">
+    <row r="14" spans="2:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="7" t="s">
         <v>20</v>
       </c>
@@ -2492,7 +2483,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="2:13" ht="25.5" customHeight="1">
+    <row r="15" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
         <v>25</v>
       </c>
@@ -2518,7 +2509,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="2:13" ht="25.5" customHeight="1">
+    <row r="16" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
         <v>32</v>
       </c>
@@ -2544,7 +2535,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="2:13" ht="25.5" customHeight="1">
+    <row r="17" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
         <v>37</v>
       </c>
@@ -2570,7 +2561,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="2:13" ht="25.5" customHeight="1">
+    <row r="18" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="4" t="s">
         <v>42</v>
       </c>
@@ -2590,29 +2581,29 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="2:13">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="2:13" ht="15" customHeight="1"/>
-    <row r="23" spans="2:13" ht="43.5" customHeight="1">
+    <row r="22" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="2:13" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="22" t="s">
+      <c r="D23" t="s">
         <v>46</v>
       </c>
-      <c r="K23" s="20" t="s">
+      <c r="K23" s="18" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="2:13">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="K24" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="2:13">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C26" s="2" t="s">
         <v>49</v>
       </c>
@@ -2620,67 +2611,67 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="2:13">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="K27" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="2:13">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="2:13">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="2:13">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="2:13">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="3:3">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="3:3">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="3:3">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="39" spans="3:3">
+    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C39" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="3:3">
+    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="3:3">
+    <row r="43" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="44" spans="3:3">
+    <row r="44" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="46" spans="3:3">
+    <row r="46" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>63</v>
       </c>
@@ -2700,13 +2691,13 @@
   <dimension ref="A1:BM165"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="6" ySplit="6" topLeftCell="G140" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="6" topLeftCell="G7" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
       <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="topRight" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="5.140625" customWidth="1"/>
@@ -2732,7 +2723,7 @@
     <col min="65" max="65" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65">
+    <row r="1" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>64</v>
       </c>
@@ -2741,7 +2732,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:65">
+    <row r="2" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>65</v>
       </c>
@@ -2750,7 +2741,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="3" spans="1:65">
+    <row r="3" spans="1:65" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
         <v>66</v>
       </c>
@@ -2759,7 +2750,7 @@
         <v>1.22</v>
       </c>
     </row>
-    <row r="4" spans="1:65">
+    <row r="4" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>67</v>
       </c>
@@ -2775,7 +2766,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="5" spans="1:65">
+    <row r="5" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>69</v>
       </c>
@@ -2790,7 +2781,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="6" spans="1:65">
+    <row r="6" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>71</v>
       </c>
@@ -2802,7 +2793,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:65">
+    <row r="7" spans="1:65" x14ac:dyDescent="0.25">
       <c r="F7" t="s">
         <v>73</v>
       </c>
@@ -2956,35 +2947,35 @@
       <c r="BD7" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="BE7" s="44" t="s">
+      <c r="BE7" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="BF7" s="44" t="s">
+      <c r="BF7" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="BG7" s="44" t="s">
+      <c r="BG7" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="BH7" s="44" t="s">
+      <c r="BH7" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="BI7" s="44" t="s">
+      <c r="BI7" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="BJ7" s="44" t="s">
+      <c r="BJ7" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="BK7" s="45" t="s">
+      <c r="BK7" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="BL7" s="45" t="s">
+      <c r="BL7" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="BM7" s="45" t="s">
+      <c r="BM7" s="24" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="8" spans="1:65" ht="14.25" customHeight="1">
+    <row r="8" spans="1:65" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F8" t="s">
         <v>133</v>
       </c>
@@ -3057,19 +3048,19 @@
       <c r="AC8">
         <v>3</v>
       </c>
-      <c r="AD8" s="18" t="s">
+      <c r="AD8" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="AE8" s="18" t="s">
+      <c r="AE8" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="AF8" s="18" t="s">
+      <c r="AF8" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="AG8" s="18" t="s">
+      <c r="AG8" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="AH8" s="18" t="s">
+      <c r="AH8" s="17" t="s">
         <v>134</v>
       </c>
       <c r="AI8">
@@ -3114,10 +3105,10 @@
       <c r="AV8">
         <v>3</v>
       </c>
-      <c r="AW8" s="18" t="s">
+      <c r="AW8" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="AX8" s="18" t="s">
+      <c r="AX8" s="17" t="s">
         <v>134</v>
       </c>
       <c r="AY8">
@@ -3166,7 +3157,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:65" ht="16.5" customHeight="1">
+    <row r="9" spans="1:65" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F9" t="s">
         <v>135</v>
       </c>
@@ -3239,19 +3230,19 @@
       <c r="AC9">
         <v>3</v>
       </c>
-      <c r="AD9" s="18" t="s">
+      <c r="AD9" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="AE9" s="18" t="s">
+      <c r="AE9" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="AF9" s="18" t="s">
+      <c r="AF9" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="AG9" s="18" t="s">
+      <c r="AG9" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="AH9" s="18" t="s">
+      <c r="AH9" s="17" t="s">
         <v>134</v>
       </c>
       <c r="AI9">
@@ -3296,10 +3287,10 @@
       <c r="AV9">
         <v>4</v>
       </c>
-      <c r="AW9" s="18" t="s">
+      <c r="AW9" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="AX9" s="18" t="s">
+      <c r="AX9" s="17" t="s">
         <v>134</v>
       </c>
       <c r="AY9">
@@ -3348,17 +3339,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:65">
-      <c r="C10" s="30" t="s">
+    <row r="10" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="C10" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
       <c r="F10" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="12" spans="1:65">
+    <row r="12" spans="1:65" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>138</v>
       </c>
@@ -3379,7 +3370,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="13" spans="1:65">
+    <row r="13" spans="1:65" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
         <v>141</v>
       </c>
@@ -3388,7 +3379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:65">
+    <row r="14" spans="1:65" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
         <v>142</v>
       </c>
@@ -3400,7 +3391,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="15" spans="1:65">
+    <row r="15" spans="1:65" x14ac:dyDescent="0.25">
       <c r="E15" t="s">
         <v>143</v>
       </c>
@@ -3409,7 +3400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:65">
+    <row r="16" spans="1:65" x14ac:dyDescent="0.25">
       <c r="E16" t="s">
         <v>144</v>
       </c>
@@ -3418,7 +3409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="3:64">
+    <row r="17" spans="3:64" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
         <v>145</v>
       </c>
@@ -3427,7 +3418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="3:64">
+    <row r="18" spans="3:64" x14ac:dyDescent="0.25">
       <c r="E18" t="s">
         <v>146</v>
       </c>
@@ -3436,7 +3427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="3:64">
+    <row r="19" spans="3:64" x14ac:dyDescent="0.25">
       <c r="E19" t="s">
         <v>147</v>
       </c>
@@ -3445,7 +3436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="3:64">
+    <row r="20" spans="3:64" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
         <v>148</v>
       </c>
@@ -3454,7 +3445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="3:64">
+    <row r="21" spans="3:64" x14ac:dyDescent="0.25">
       <c r="E21" t="s">
         <v>149</v>
       </c>
@@ -3463,7 +3454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="3:64">
+    <row r="22" spans="3:64" x14ac:dyDescent="0.25">
       <c r="E22" t="s">
         <v>150</v>
       </c>
@@ -3481,7 +3472,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="23" spans="3:64">
+    <row r="23" spans="3:64" x14ac:dyDescent="0.25">
       <c r="E23" t="s">
         <v>151</v>
       </c>
@@ -3493,7 +3484,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="24" spans="3:64">
+    <row r="24" spans="3:64" x14ac:dyDescent="0.25">
       <c r="E24" t="s">
         <v>152</v>
       </c>
@@ -3505,7 +3496,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="25" spans="3:64">
+    <row r="25" spans="3:64" x14ac:dyDescent="0.25">
       <c r="E25" t="s">
         <v>153</v>
       </c>
@@ -3514,7 +3505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="3:64">
+    <row r="27" spans="3:64" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>154</v>
       </c>
@@ -3526,7 +3517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="3:64">
+    <row r="28" spans="3:64" x14ac:dyDescent="0.25">
       <c r="E28" t="s">
         <v>156</v>
       </c>
@@ -3541,7 +3532,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="29" spans="3:64">
+    <row r="29" spans="3:64" x14ac:dyDescent="0.25">
       <c r="E29" t="s">
         <v>157</v>
       </c>
@@ -3550,7 +3541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="3:64">
+    <row r="30" spans="3:64" x14ac:dyDescent="0.25">
       <c r="E30" t="s">
         <v>158</v>
       </c>
@@ -3559,7 +3550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="3:64">
+    <row r="31" spans="3:64" x14ac:dyDescent="0.25">
       <c r="E31" t="s">
         <v>159</v>
       </c>
@@ -3568,7 +3559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="3:64">
+    <row r="32" spans="3:64" x14ac:dyDescent="0.25">
       <c r="E32" t="s">
         <v>160</v>
       </c>
@@ -3604,7 +3595,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="33" spans="5:57">
+    <row r="33" spans="5:57" x14ac:dyDescent="0.25">
       <c r="E33" s="13" t="s">
         <v>161</v>
       </c>
@@ -3613,7 +3604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="5:57">
+    <row r="34" spans="5:57" x14ac:dyDescent="0.25">
       <c r="E34" s="13" t="s">
         <v>162</v>
       </c>
@@ -3622,7 +3613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="5:57">
+    <row r="35" spans="5:57" x14ac:dyDescent="0.25">
       <c r="E35" t="s">
         <v>163</v>
       </c>
@@ -3631,7 +3622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="5:57">
+    <row r="36" spans="5:57" x14ac:dyDescent="0.25">
       <c r="E36" t="s">
         <v>164</v>
       </c>
@@ -3640,7 +3631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="5:57">
+    <row r="37" spans="5:57" x14ac:dyDescent="0.25">
       <c r="E37" t="s">
         <v>165</v>
       </c>
@@ -3649,7 +3640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="5:57">
+    <row r="38" spans="5:57" x14ac:dyDescent="0.25">
       <c r="E38" t="s">
         <v>166</v>
       </c>
@@ -3658,7 +3649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="5:57">
+    <row r="39" spans="5:57" x14ac:dyDescent="0.25">
       <c r="E39" t="s">
         <v>167</v>
       </c>
@@ -3685,8 +3676,8 @@
         <v>140</v>
       </c>
     </row>
-    <row r="40" spans="5:57">
-      <c r="E40" s="14" t="s">
+    <row r="40" spans="5:57" x14ac:dyDescent="0.25">
+      <c r="E40" t="s">
         <v>168</v>
       </c>
       <c r="F40">
@@ -3694,7 +3685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="5:57">
+    <row r="41" spans="5:57" x14ac:dyDescent="0.25">
       <c r="E41" s="13" t="s">
         <v>169</v>
       </c>
@@ -3703,7 +3694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="5:57">
+    <row r="42" spans="5:57" x14ac:dyDescent="0.25">
       <c r="E42" t="s">
         <v>170</v>
       </c>
@@ -3712,7 +3703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="5:57">
+    <row r="43" spans="5:57" x14ac:dyDescent="0.25">
       <c r="E43" t="s">
         <v>171</v>
       </c>
@@ -3721,7 +3712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="5:57">
+    <row r="44" spans="5:57" x14ac:dyDescent="0.25">
       <c r="E44" t="s">
         <v>172</v>
       </c>
@@ -3730,7 +3721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="5:57">
+    <row r="45" spans="5:57" x14ac:dyDescent="0.25">
       <c r="E45" t="s">
         <v>173</v>
       </c>
@@ -3739,7 +3730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="5:57">
+    <row r="46" spans="5:57" x14ac:dyDescent="0.25">
       <c r="E46" t="s">
         <v>174</v>
       </c>
@@ -3754,7 +3745,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="47" spans="5:57">
+    <row r="47" spans="5:57" x14ac:dyDescent="0.25">
       <c r="E47" t="s">
         <v>175</v>
       </c>
@@ -3763,7 +3754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="5:57">
+    <row r="48" spans="5:57" x14ac:dyDescent="0.25">
       <c r="E48" t="s">
         <v>176</v>
       </c>
@@ -3772,7 +3763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="3:65">
+    <row r="50" spans="3:65" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>177</v>
       </c>
@@ -3838,7 +3829,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="51" spans="3:65">
+    <row r="51" spans="3:65" x14ac:dyDescent="0.25">
       <c r="E51" s="9" t="s">
         <v>179</v>
       </c>
@@ -3865,7 +3856,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="52" spans="3:65">
+    <row r="52" spans="3:65" x14ac:dyDescent="0.25">
       <c r="E52" s="10" t="s">
         <v>180</v>
       </c>
@@ -3880,7 +3871,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="53" spans="3:65">
+    <row r="53" spans="3:65" x14ac:dyDescent="0.25">
       <c r="E53" s="13" t="s">
         <v>181</v>
       </c>
@@ -3889,7 +3880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="3:65">
+    <row r="54" spans="3:65" x14ac:dyDescent="0.25">
       <c r="E54" t="s">
         <v>182</v>
       </c>
@@ -3913,7 +3904,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="55" spans="3:65">
+    <row r="55" spans="3:65" x14ac:dyDescent="0.25">
       <c r="E55" t="s">
         <v>183</v>
       </c>
@@ -3937,7 +3928,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="56" spans="3:65">
+    <row r="56" spans="3:65" x14ac:dyDescent="0.25">
       <c r="E56" t="s">
         <v>184</v>
       </c>
@@ -3949,7 +3940,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="57" spans="3:65">
+    <row r="57" spans="3:65" x14ac:dyDescent="0.25">
       <c r="E57" t="s">
         <v>185</v>
       </c>
@@ -3958,7 +3949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="3:65">
+    <row r="58" spans="3:65" x14ac:dyDescent="0.25">
       <c r="E58" t="s">
         <v>186</v>
       </c>
@@ -3967,7 +3958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="3:65">
+    <row r="59" spans="3:65" x14ac:dyDescent="0.25">
       <c r="E59" t="s">
         <v>187</v>
       </c>
@@ -3976,7 +3967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="3:65">
+    <row r="60" spans="3:65" x14ac:dyDescent="0.25">
       <c r="E60" t="s">
         <v>188</v>
       </c>
@@ -3988,7 +3979,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="61" spans="3:65">
+    <row r="61" spans="3:65" x14ac:dyDescent="0.25">
       <c r="E61" t="s">
         <v>189</v>
       </c>
@@ -4000,7 +3991,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="62" spans="3:65">
+    <row r="62" spans="3:65" x14ac:dyDescent="0.25">
       <c r="E62" t="s">
         <v>190</v>
       </c>
@@ -4018,7 +4009,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="63" spans="3:65">
+    <row r="63" spans="3:65" x14ac:dyDescent="0.25">
       <c r="E63" t="s">
         <v>191</v>
       </c>
@@ -4027,7 +4018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="3:65">
+    <row r="64" spans="3:65" x14ac:dyDescent="0.25">
       <c r="E64" s="1" t="s">
         <v>192</v>
       </c>
@@ -4039,7 +4030,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="65" spans="5:65">
+    <row r="65" spans="5:65" x14ac:dyDescent="0.25">
       <c r="E65" t="s">
         <v>193</v>
       </c>
@@ -4048,7 +4039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="5:65">
+    <row r="66" spans="5:65" x14ac:dyDescent="0.25">
       <c r="E66" t="s">
         <v>194</v>
       </c>
@@ -4057,7 +4048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="5:65">
+    <row r="67" spans="5:65" x14ac:dyDescent="0.25">
       <c r="E67" t="s">
         <v>195</v>
       </c>
@@ -4066,7 +4057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="5:65">
+    <row r="68" spans="5:65" x14ac:dyDescent="0.25">
       <c r="E68" t="s">
         <v>196</v>
       </c>
@@ -4075,7 +4066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="5:65">
+    <row r="69" spans="5:65" x14ac:dyDescent="0.25">
       <c r="E69" t="s">
         <v>197</v>
       </c>
@@ -4093,7 +4084,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="70" spans="5:65">
+    <row r="70" spans="5:65" x14ac:dyDescent="0.25">
       <c r="E70" t="s">
         <v>198</v>
       </c>
@@ -4102,7 +4093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="5:65">
+    <row r="71" spans="5:65" x14ac:dyDescent="0.25">
       <c r="E71" t="s">
         <v>199</v>
       </c>
@@ -4111,7 +4102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="5:65">
+    <row r="72" spans="5:65" x14ac:dyDescent="0.25">
       <c r="E72" t="s">
         <v>200</v>
       </c>
@@ -4120,7 +4111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="5:65">
+    <row r="73" spans="5:65" x14ac:dyDescent="0.25">
       <c r="E73" t="s">
         <v>201</v>
       </c>
@@ -4132,7 +4123,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="74" spans="5:65">
+    <row r="74" spans="5:65" x14ac:dyDescent="0.25">
       <c r="E74" t="s">
         <v>202</v>
       </c>
@@ -4144,7 +4135,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="75" spans="5:65">
+    <row r="75" spans="5:65" x14ac:dyDescent="0.25">
       <c r="E75" t="s">
         <v>203</v>
       </c>
@@ -4153,7 +4144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="5:65">
+    <row r="76" spans="5:65" x14ac:dyDescent="0.25">
       <c r="E76" t="s">
         <v>204</v>
       </c>
@@ -4162,7 +4153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="5:65">
+    <row r="77" spans="5:65" x14ac:dyDescent="0.25">
       <c r="E77" t="s">
         <v>205</v>
       </c>
@@ -4174,7 +4165,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="78" spans="5:65">
+    <row r="78" spans="5:65" x14ac:dyDescent="0.25">
       <c r="E78" t="s">
         <v>206</v>
       </c>
@@ -4186,7 +4177,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="79" spans="5:65">
+    <row r="79" spans="5:65" x14ac:dyDescent="0.25">
       <c r="E79" t="s">
         <v>207</v>
       </c>
@@ -4195,7 +4186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="5:65">
+    <row r="80" spans="5:65" x14ac:dyDescent="0.25">
       <c r="E80" t="s">
         <v>208</v>
       </c>
@@ -4216,7 +4207,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="81" spans="3:65">
+    <row r="81" spans="3:65" x14ac:dyDescent="0.25">
       <c r="E81" t="s">
         <v>209</v>
       </c>
@@ -4225,7 +4216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="3:65">
+    <row r="82" spans="3:65" x14ac:dyDescent="0.25">
       <c r="E82" t="s">
         <v>210</v>
       </c>
@@ -4243,7 +4234,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="84" spans="3:65">
+    <row r="84" spans="3:65" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>211</v>
       </c>
@@ -4261,7 +4252,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="85" spans="3:65">
+    <row r="85" spans="3:65" x14ac:dyDescent="0.25">
       <c r="E85" t="s">
         <v>213</v>
       </c>
@@ -4270,7 +4261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="3:65">
+    <row r="86" spans="3:65" x14ac:dyDescent="0.25">
       <c r="E86" t="s">
         <v>214</v>
       </c>
@@ -4279,7 +4270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="3:65">
+    <row r="87" spans="3:65" x14ac:dyDescent="0.25">
       <c r="E87" t="s">
         <v>215</v>
       </c>
@@ -4288,7 +4279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="3:65">
+    <row r="88" spans="3:65" x14ac:dyDescent="0.25">
       <c r="E88" t="s">
         <v>216</v>
       </c>
@@ -4297,7 +4288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="3:65">
+    <row r="89" spans="3:65" x14ac:dyDescent="0.25">
       <c r="E89" s="13" t="s">
         <v>217</v>
       </c>
@@ -4306,7 +4297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="3:65">
+    <row r="90" spans="3:65" x14ac:dyDescent="0.25">
       <c r="E90" t="s">
         <v>218</v>
       </c>
@@ -4342,7 +4333,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="91" spans="3:65">
+    <row r="91" spans="3:65" x14ac:dyDescent="0.25">
       <c r="E91" t="s">
         <v>219</v>
       </c>
@@ -4354,7 +4345,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="92" spans="3:65">
+    <row r="92" spans="3:65" x14ac:dyDescent="0.25">
       <c r="E92" t="s">
         <v>220</v>
       </c>
@@ -4363,14 +4354,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="3:65">
-      <c r="C94" s="35" t="s">
+    <row r="94" spans="3:65" x14ac:dyDescent="0.25">
+      <c r="C94" s="38" t="s">
         <v>221</v>
       </c>
-      <c r="D94" s="35"/>
-      <c r="E94" s="35"/>
-    </row>
-    <row r="96" spans="3:65">
+      <c r="D94" s="38"/>
+      <c r="E94" s="38"/>
+    </row>
+    <row r="96" spans="3:65" x14ac:dyDescent="0.25">
       <c r="C96" t="s">
         <v>177</v>
       </c>
@@ -4448,14 +4439,14 @@
         <v>140</v>
       </c>
     </row>
-    <row r="98" spans="3:25">
-      <c r="C98" s="34" t="s">
+    <row r="98" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="C98" s="37" t="s">
         <v>223</v>
       </c>
-      <c r="D98" s="34"/>
-      <c r="E98" s="34"/>
-    </row>
-    <row r="100" spans="3:25">
+      <c r="D98" s="37"/>
+      <c r="E98" s="37"/>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C100" t="s">
         <v>138</v>
       </c>
@@ -4467,7 +4458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="3:25">
+    <row r="102" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C102" t="s">
         <v>154</v>
       </c>
@@ -4482,7 +4473,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="103" spans="3:25">
+    <row r="103" spans="3:25" x14ac:dyDescent="0.25">
       <c r="E103" t="s">
         <v>226</v>
       </c>
@@ -4494,7 +4485,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="104" spans="3:25">
+    <row r="104" spans="3:25" x14ac:dyDescent="0.25">
       <c r="E104" t="s">
         <v>227</v>
       </c>
@@ -4503,7 +4494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="3:25">
+    <row r="106" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C106" t="s">
         <v>177</v>
       </c>
@@ -4521,7 +4512,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="107" spans="3:25">
+    <row r="107" spans="3:25" x14ac:dyDescent="0.25">
       <c r="E107" t="s">
         <v>229</v>
       </c>
@@ -4539,7 +4530,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="108" spans="3:25">
+    <row r="108" spans="3:25" x14ac:dyDescent="0.25">
       <c r="E108" t="s">
         <v>230</v>
       </c>
@@ -4548,7 +4539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="3:25">
+    <row r="110" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C110" t="s">
         <v>211</v>
       </c>
@@ -4560,7 +4551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="3:25">
+    <row r="111" spans="3:25" x14ac:dyDescent="0.25">
       <c r="E111" t="s">
         <v>232</v>
       </c>
@@ -4572,14 +4563,14 @@
         <v>140</v>
       </c>
     </row>
-    <row r="113" spans="3:65">
-      <c r="C113" s="33" t="s">
+    <row r="113" spans="3:65" x14ac:dyDescent="0.25">
+      <c r="C113" s="36" t="s">
         <v>233</v>
       </c>
-      <c r="D113" s="33"/>
-      <c r="E113" s="33"/>
-    </row>
-    <row r="115" spans="3:65">
+      <c r="D113" s="36"/>
+      <c r="E113" s="36"/>
+    </row>
+    <row r="115" spans="3:65" x14ac:dyDescent="0.25">
       <c r="C115" t="s">
         <v>138</v>
       </c>
@@ -4591,7 +4582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="3:65">
+    <row r="116" spans="3:65" x14ac:dyDescent="0.25">
       <c r="E116" t="s">
         <v>235</v>
       </c>
@@ -4606,7 +4597,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="117" spans="3:65">
+    <row r="117" spans="3:65" x14ac:dyDescent="0.25">
       <c r="E117" t="s">
         <v>236</v>
       </c>
@@ -4615,7 +4606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="3:65">
+    <row r="118" spans="3:65" x14ac:dyDescent="0.25">
       <c r="E118" t="s">
         <v>237</v>
       </c>
@@ -4627,7 +4618,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="120" spans="3:65">
+    <row r="120" spans="3:65" x14ac:dyDescent="0.25">
       <c r="C120" t="s">
         <v>154</v>
       </c>
@@ -4768,7 +4759,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="121" spans="3:65">
+    <row r="121" spans="3:65" x14ac:dyDescent="0.25">
       <c r="E121" t="s">
         <v>239</v>
       </c>
@@ -4912,7 +4903,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="122" spans="3:65">
+    <row r="122" spans="3:65" x14ac:dyDescent="0.25">
       <c r="E122" s="13" t="s">
         <v>240</v>
       </c>
@@ -4921,8 +4912,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="3:65">
-      <c r="C124" s="15" t="s">
+    <row r="124" spans="3:65" x14ac:dyDescent="0.25">
+      <c r="C124" s="14" t="s">
         <v>177</v>
       </c>
       <c r="E124" t="s">
@@ -4939,8 +4930,8 @@
         <v>140</v>
       </c>
     </row>
-    <row r="125" spans="3:65">
-      <c r="C125" s="15"/>
+    <row r="125" spans="3:65" x14ac:dyDescent="0.25">
+      <c r="C125" s="14"/>
       <c r="E125" t="s">
         <v>242</v>
       </c>
@@ -4949,8 +4940,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="3:65">
-      <c r="C126" s="15"/>
+    <row r="126" spans="3:65" x14ac:dyDescent="0.25">
+      <c r="C126" s="14"/>
       <c r="E126" t="s">
         <v>243</v>
       </c>
@@ -4974,14 +4965,14 @@
         <v>140</v>
       </c>
     </row>
-    <row r="128" spans="3:65">
-      <c r="C128" s="32" t="s">
+    <row r="128" spans="3:65" x14ac:dyDescent="0.25">
+      <c r="C128" s="35" t="s">
         <v>244</v>
       </c>
-      <c r="D128" s="32"/>
-      <c r="E128" s="32"/>
-    </row>
-    <row r="130" spans="3:6">
+      <c r="D128" s="35"/>
+      <c r="E128" s="35"/>
+    </row>
+    <row r="130" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C130" t="s">
         <v>138</v>
       </c>
@@ -4993,7 +4984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="3:6">
+    <row r="132" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C132" t="s">
         <v>154</v>
       </c>
@@ -5005,7 +4996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="3:6">
+    <row r="133" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E133" t="s">
         <v>247</v>
       </c>
@@ -5014,7 +5005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="3:6">
+    <row r="134" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E134" t="s">
         <v>248</v>
       </c>
@@ -5023,7 +5014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="3:6">
+    <row r="136" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C136" t="s">
         <v>211</v>
       </c>
@@ -5035,7 +5026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="3:6">
+    <row r="137" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E137" t="s">
         <v>250</v>
       </c>
@@ -5044,14 +5035,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="3:6">
-      <c r="C139" s="31" t="s">
+    <row r="139" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C139" s="34" t="s">
         <v>251</v>
       </c>
-      <c r="D139" s="31"/>
-      <c r="E139" s="31"/>
-    </row>
-    <row r="141" spans="3:6">
+      <c r="D139" s="34"/>
+      <c r="E139" s="34"/>
+    </row>
+    <row r="141" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C141" t="s">
         <v>177</v>
       </c>
@@ -5063,7 +5054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="3:6">
+    <row r="142" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E142" t="s">
         <v>253</v>
       </c>
@@ -5072,14 +5063,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="3:6">
-      <c r="C144" s="39" t="s">
+    <row r="144" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C144" s="31" t="s">
         <v>254</v>
       </c>
-      <c r="D144" s="39"/>
-      <c r="E144" s="39"/>
-    </row>
-    <row r="146" spans="3:59">
+      <c r="D144" s="31"/>
+      <c r="E144" s="31"/>
+    </row>
+    <row r="146" spans="3:59" x14ac:dyDescent="0.25">
       <c r="C146" t="s">
         <v>177</v>
       </c>
@@ -5091,14 +5082,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="3:59">
-      <c r="C148" s="40" t="s">
+    <row r="148" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="C148" s="32" t="s">
         <v>256</v>
       </c>
-      <c r="D148" s="40"/>
-      <c r="E148" s="40"/>
-    </row>
-    <row r="150" spans="3:59">
+      <c r="D148" s="32"/>
+      <c r="E148" s="32"/>
+    </row>
+    <row r="150" spans="3:59" x14ac:dyDescent="0.25">
       <c r="C150" t="s">
         <v>177</v>
       </c>
@@ -5113,14 +5104,14 @@
         <v>140</v>
       </c>
     </row>
-    <row r="152" spans="3:59">
-      <c r="C152" s="36" t="s">
+    <row r="152" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="C152" s="28" t="s">
         <v>258</v>
       </c>
-      <c r="D152" s="36"/>
-      <c r="E152" s="36"/>
-    </row>
-    <row r="154" spans="3:59">
+      <c r="D152" s="28"/>
+      <c r="E152" s="28"/>
+    </row>
+    <row r="154" spans="3:59" x14ac:dyDescent="0.25">
       <c r="C154" t="s">
         <v>177</v>
       </c>
@@ -5132,7 +5123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="3:59">
+    <row r="155" spans="3:59" x14ac:dyDescent="0.25">
       <c r="E155" t="s">
         <v>260</v>
       </c>
@@ -5144,7 +5135,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="157" spans="3:59">
+    <row r="157" spans="3:59" x14ac:dyDescent="0.25">
       <c r="C157" t="s">
         <v>211</v>
       </c>
@@ -5162,14 +5153,14 @@
         <v>140</v>
       </c>
     </row>
-    <row r="159" spans="3:59">
-      <c r="C159" s="37" t="s">
+    <row r="159" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="C159" s="29" t="s">
         <v>262</v>
       </c>
-      <c r="D159" s="37"/>
-      <c r="E159" s="37"/>
-    </row>
-    <row r="161" spans="3:6">
+      <c r="D159" s="29"/>
+      <c r="E159" s="29"/>
+    </row>
+    <row r="161" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C161" t="s">
         <v>211</v>
       </c>
@@ -5181,14 +5172,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="3:6">
-      <c r="C163" s="38" t="s">
+    <row r="163" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C163" s="30" t="s">
         <v>264</v>
       </c>
-      <c r="D163" s="38"/>
-      <c r="E163" s="38"/>
-    </row>
-    <row r="165" spans="3:6">
+      <c r="D163" s="30"/>
+      <c r="E163" s="30"/>
+    </row>
+    <row r="165" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C165" t="s">
         <v>177</v>
       </c>
@@ -5202,17 +5193,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C152:E152"/>
-    <mergeCell ref="C159:E159"/>
-    <mergeCell ref="C163:E163"/>
-    <mergeCell ref="C144:E144"/>
-    <mergeCell ref="C148:E148"/>
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="C139:E139"/>
     <mergeCell ref="C128:E128"/>
     <mergeCell ref="C113:E113"/>
     <mergeCell ref="C98:E98"/>
     <mergeCell ref="C94:E94"/>
+    <mergeCell ref="C152:E152"/>
+    <mergeCell ref="C159:E159"/>
+    <mergeCell ref="C163:E163"/>
+    <mergeCell ref="C144:E144"/>
+    <mergeCell ref="C148:E148"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5223,27 +5214,30 @@
   <dimension ref="A1:BF242"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="6" ySplit="9" topLeftCell="AJ10" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
+      <pane xSplit="6" ySplit="9" topLeftCell="AA10" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="topRight" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomRight" activeCell="AJ24" sqref="AJ24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="3.85546875" customWidth="1"/>
+    <col min="2" max="2" width="6" customWidth="1"/>
     <col min="3" max="3" width="9.5703125" customWidth="1"/>
     <col min="4" max="4" width="5.85546875" customWidth="1"/>
     <col min="5" max="5" width="21.85546875" customWidth="1"/>
     <col min="6" max="6" width="15.28515625" customWidth="1"/>
     <col min="7" max="36" width="12" customWidth="1"/>
+    <col min="37" max="37" width="10.7109375" customWidth="1"/>
+    <col min="38" max="38" width="11.5703125" customWidth="1"/>
+    <col min="41" max="41" width="11.85546875" customWidth="1"/>
     <col min="43" max="44" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="45" max="46" width="10.140625" customWidth="1"/>
     <col min="58" max="58" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58">
+    <row r="1" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>64</v>
       </c>
@@ -5252,7 +5246,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="2" spans="1:58">
+    <row r="2" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>65</v>
       </c>
@@ -5264,7 +5258,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="3" spans="1:58">
+    <row r="3" spans="1:58" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
         <v>66</v>
       </c>
@@ -5273,7 +5267,7 @@
         <v>1.55</v>
       </c>
     </row>
-    <row r="4" spans="1:58">
+    <row r="4" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>67</v>
       </c>
@@ -5289,7 +5283,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="5" spans="1:58">
+    <row r="5" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>69</v>
       </c>
@@ -5304,7 +5298,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="6" spans="1:58">
+    <row r="6" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>71</v>
       </c>
@@ -5322,7 +5316,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="7" spans="1:58">
+    <row r="7" spans="1:58" x14ac:dyDescent="0.25">
       <c r="F7" t="s">
         <v>73</v>
       </c>
@@ -5344,37 +5338,37 @@
       <c r="L7" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="M7" s="23" t="s">
+      <c r="M7" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="N7" s="24" t="s">
+      <c r="N7" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="O7" s="24" t="s">
+      <c r="O7" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="P7" s="24" t="s">
+      <c r="P7" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="Q7" s="24" t="s">
+      <c r="Q7" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="R7" s="24" t="s">
+      <c r="R7" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="S7" s="24" t="s">
+      <c r="S7" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="T7" s="24" t="s">
+      <c r="T7" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="U7" s="24" t="s">
+      <c r="U7" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="V7" s="24" t="s">
+      <c r="V7" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="W7" s="24" t="s">
+      <c r="W7" s="8" t="s">
         <v>90</v>
       </c>
       <c r="X7" s="8" t="s">
@@ -5411,7 +5405,7 @@
         <v>105</v>
       </c>
       <c r="AI7" s="8" t="s">
-        <v>272</v>
+        <v>106</v>
       </c>
       <c r="AJ7" s="8" t="s">
         <v>107</v>
@@ -5483,7 +5477,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="8" spans="1:58" ht="14.25" customHeight="1">
+    <row r="8" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F8" t="s">
         <v>133</v>
       </c>
@@ -5583,7 +5577,7 @@
       <c r="AL8">
         <v>12</v>
       </c>
-      <c r="AM8" s="25"/>
+      <c r="AM8" s="21"/>
       <c r="AN8">
         <v>11</v>
       </c>
@@ -5599,10 +5593,10 @@
       <c r="AR8">
         <v>25</v>
       </c>
-      <c r="AS8" s="18" t="s">
+      <c r="AS8" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="AT8" s="18" t="s">
+      <c r="AT8" s="17" t="s">
         <v>134</v>
       </c>
       <c r="AU8">
@@ -5642,7 +5636,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:58" ht="16.5" customHeight="1">
+    <row r="9" spans="1:58" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F9" t="s">
         <v>135</v>
       </c>
@@ -5742,7 +5736,7 @@
       <c r="AL9">
         <v>21</v>
       </c>
-      <c r="AM9" s="25"/>
+      <c r="AM9" s="21"/>
       <c r="AN9">
         <v>22</v>
       </c>
@@ -5758,10 +5752,10 @@
       <c r="AR9">
         <v>26</v>
       </c>
-      <c r="AS9" s="18" t="s">
+      <c r="AS9" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="AT9" s="18" t="s">
+      <c r="AT9" s="17" t="s">
         <v>134</v>
       </c>
       <c r="AU9">
@@ -5801,31 +5795,31 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:58">
-      <c r="C10" s="30" t="s">
+    <row r="10" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="C10" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
       <c r="F10" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="12" spans="1:58">
+    <row r="12" spans="1:58" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>138</v>
       </c>
       <c r="E12" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F12">
         <f>COUNTIF(G12:FB12, "da")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:58">
+    <row r="13" spans="1:58" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F13">
         <f t="shared" ref="F13:F14" si="0">COUNTIF(G13:FB13, "da")</f>
@@ -5841,9 +5835,9 @@
         <v>140</v>
       </c>
     </row>
-    <row r="14" spans="1:58">
+    <row r="14" spans="1:58" x14ac:dyDescent="0.25">
       <c r="E14" s="13" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F14">
         <f t="shared" si="0"/>
@@ -5862,7 +5856,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="15" spans="1:58">
+    <row r="15" spans="1:58" x14ac:dyDescent="0.25">
       <c r="E15" t="s">
         <v>141</v>
       </c>
@@ -5871,7 +5865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:58">
+    <row r="16" spans="1:58" x14ac:dyDescent="0.25">
       <c r="E16" t="s">
         <v>142</v>
       </c>
@@ -5883,27 +5877,27 @@
         <v>140</v>
       </c>
     </row>
-    <row r="17" spans="4:58">
+    <row r="17" spans="5:58" x14ac:dyDescent="0.25">
       <c r="E17" s="13" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="4:58">
+    <row r="18" spans="5:58" x14ac:dyDescent="0.25">
       <c r="E18" s="13" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="4:58">
-      <c r="E19" s="14" t="s">
-        <v>278</v>
+    <row r="19" spans="5:58" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>277</v>
       </c>
       <c r="F19">
         <f t="shared" si="1"/>
@@ -5919,19 +5913,17 @@
         <v>140</v>
       </c>
     </row>
-    <row r="20" spans="4:58">
-      <c r="D20" s="14"/>
-      <c r="E20" s="14" t="s">
-        <v>279</v>
+    <row r="20" spans="5:58" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>278</v>
       </c>
       <c r="F20">
         <f>COUNTIF(G20:FB20, "da")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="4:58">
-      <c r="D21" s="14"/>
-      <c r="E21" s="14" t="s">
+    <row r="21" spans="5:58" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
         <v>143</v>
       </c>
       <c r="F21">
@@ -5939,19 +5931,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="4:58">
-      <c r="D22" s="14"/>
-      <c r="E22" s="14" t="s">
-        <v>280</v>
+    <row r="22" spans="5:58" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>279</v>
       </c>
       <c r="F22">
         <f>COUNTIF(G22:FB22, "da")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="4:58">
-      <c r="D23" s="14"/>
-      <c r="E23" s="14" t="s">
+    <row r="23" spans="5:58" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
         <v>144</v>
       </c>
       <c r="F23">
@@ -5959,8 +5949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="4:58">
-      <c r="D24" s="14"/>
+    <row r="24" spans="5:58" x14ac:dyDescent="0.25">
       <c r="E24" t="s">
         <v>145</v>
       </c>
@@ -5969,18 +5958,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="4:58">
-      <c r="D25" s="14"/>
+    <row r="25" spans="5:58" x14ac:dyDescent="0.25">
       <c r="E25" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F25">
         <f t="shared" ref="F25" si="3">COUNTIF(G25:FF25, "da")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="4:58">
-      <c r="D26" s="14"/>
+    <row r="26" spans="5:58" x14ac:dyDescent="0.25">
       <c r="E26" t="s">
         <v>146</v>
       </c>
@@ -5989,8 +5976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="4:58">
-      <c r="D27" s="14"/>
+    <row r="27" spans="5:58" x14ac:dyDescent="0.25">
       <c r="E27" t="s">
         <v>147</v>
       </c>
@@ -5999,20 +5985,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="4:58">
-      <c r="D28" s="14"/>
+    <row r="28" spans="5:58" x14ac:dyDescent="0.25">
       <c r="E28" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F28">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="4:58">
-      <c r="D29" s="14"/>
+    <row r="29" spans="5:58" x14ac:dyDescent="0.25">
       <c r="E29" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F29">
         <f t="shared" si="5"/>
@@ -6025,8 +6009,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="30" spans="4:58">
-      <c r="D30" s="14"/>
+    <row r="30" spans="5:58" x14ac:dyDescent="0.25">
       <c r="E30" t="s">
         <v>148</v>
       </c>
@@ -6038,8 +6021,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="31" spans="4:58">
-      <c r="D31" s="14"/>
+    <row r="31" spans="5:58" x14ac:dyDescent="0.25">
       <c r="E31" t="s">
         <v>149</v>
       </c>
@@ -6060,10 +6042,9 @@
         <v>140</v>
       </c>
     </row>
-    <row r="32" spans="4:58">
-      <c r="D32" s="14"/>
+    <row r="32" spans="5:58" x14ac:dyDescent="0.25">
       <c r="E32" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F32">
         <f t="shared" ref="F32" si="8">COUNTIF(G32:FF32, "da")</f>
@@ -6073,8 +6054,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="33" spans="3:58">
-      <c r="D33" s="14"/>
+    <row r="33" spans="3:58" x14ac:dyDescent="0.25">
       <c r="E33" t="s">
         <v>150</v>
       </c>
@@ -6095,10 +6075,9 @@
         <v>140</v>
       </c>
     </row>
-    <row r="34" spans="3:58">
-      <c r="D34" s="14"/>
+    <row r="34" spans="3:58" x14ac:dyDescent="0.25">
       <c r="E34" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F34">
         <f t="shared" si="9"/>
@@ -6111,8 +6090,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="35" spans="3:58">
-      <c r="D35" s="14"/>
+    <row r="35" spans="3:58" x14ac:dyDescent="0.25">
       <c r="E35" t="s">
         <v>153</v>
       </c>
@@ -6121,34 +6099,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="3:58">
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-    </row>
-    <row r="37" spans="3:58">
+    <row r="37" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>154</v>
       </c>
       <c r="E37" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="3:58">
+    <row r="38" spans="3:58" x14ac:dyDescent="0.25">
       <c r="E38" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="3:58">
+    <row r="39" spans="3:58" x14ac:dyDescent="0.25">
       <c r="E39" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F39">
         <f t="shared" si="1"/>
@@ -6170,9 +6144,9 @@
         <v>140</v>
       </c>
     </row>
-    <row r="40" spans="3:58">
+    <row r="40" spans="3:58" x14ac:dyDescent="0.25">
       <c r="E40" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F40">
         <f t="shared" si="1"/>
@@ -6191,18 +6165,18 @@
         <v>140</v>
       </c>
     </row>
-    <row r="41" spans="3:58">
+    <row r="41" spans="3:58" x14ac:dyDescent="0.25">
       <c r="E41" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F41">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="3:58">
+    <row r="42" spans="3:58" x14ac:dyDescent="0.25">
       <c r="E42" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F42">
         <f t="shared" si="1"/>
@@ -6269,9 +6243,9 @@
         <v>140</v>
       </c>
     </row>
-    <row r="43" spans="3:58">
+    <row r="43" spans="3:58" x14ac:dyDescent="0.25">
       <c r="E43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F43">
         <f t="shared" si="1"/>
@@ -6290,9 +6264,9 @@
         <v>140</v>
       </c>
     </row>
-    <row r="44" spans="3:58">
+    <row r="44" spans="3:58" x14ac:dyDescent="0.25">
       <c r="E44" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F44">
         <f t="shared" si="1"/>
@@ -6308,7 +6282,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="45" spans="3:58">
+    <row r="45" spans="3:58" x14ac:dyDescent="0.25">
       <c r="E45" t="s">
         <v>164</v>
       </c>
@@ -6317,7 +6291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="3:58">
+    <row r="46" spans="3:58" x14ac:dyDescent="0.25">
       <c r="E46" t="s">
         <v>165</v>
       </c>
@@ -6326,7 +6300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="3:58">
+    <row r="47" spans="3:58" x14ac:dyDescent="0.25">
       <c r="E47" t="s">
         <v>166</v>
       </c>
@@ -6335,25 +6309,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="3:58">
+    <row r="48" spans="3:58" x14ac:dyDescent="0.25">
       <c r="E48" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F48">
         <f t="shared" ref="F48:F71" si="10">COUNTIF(G48:FB48, "da")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="5:58">
+    <row r="49" spans="5:58" x14ac:dyDescent="0.25">
       <c r="E49" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F49">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="5:58">
+    <row r="50" spans="5:58" x14ac:dyDescent="0.25">
       <c r="E50" t="s">
         <v>167</v>
       </c>
@@ -6362,16 +6336,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="5:58">
+    <row r="51" spans="5:58" x14ac:dyDescent="0.25">
       <c r="E51" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F51">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="5:58">
+    <row r="52" spans="5:58" x14ac:dyDescent="0.25">
       <c r="E52" t="s">
         <v>203</v>
       </c>
@@ -6380,16 +6354,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="5:58">
+    <row r="53" spans="5:58" x14ac:dyDescent="0.25">
       <c r="E53" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F53">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="5:58">
+    <row r="54" spans="5:58" x14ac:dyDescent="0.25">
       <c r="E54" t="s">
         <v>170</v>
       </c>
@@ -6416,9 +6390,9 @@
         <v>140</v>
       </c>
     </row>
-    <row r="55" spans="5:58">
+    <row r="55" spans="5:58" x14ac:dyDescent="0.25">
       <c r="E55" s="13" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F55">
         <f t="shared" si="10"/>
@@ -6446,9 +6420,9 @@
         <v>140</v>
       </c>
     </row>
-    <row r="56" spans="5:58">
+    <row r="56" spans="5:58" x14ac:dyDescent="0.25">
       <c r="E56" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F56">
         <f t="shared" si="10"/>
@@ -6458,7 +6432,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="57" spans="5:58">
+    <row r="57" spans="5:58" x14ac:dyDescent="0.25">
       <c r="E57" t="s">
         <v>171</v>
       </c>
@@ -6467,9 +6441,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="5:58">
+    <row r="58" spans="5:58" x14ac:dyDescent="0.25">
       <c r="E58" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F58">
         <f t="shared" si="10"/>
@@ -6512,9 +6486,9 @@
         <v>140</v>
       </c>
     </row>
-    <row r="59" spans="5:58">
+    <row r="59" spans="5:58" x14ac:dyDescent="0.25">
       <c r="E59" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F59">
         <f t="shared" si="10"/>
@@ -6524,9 +6498,9 @@
         <v>140</v>
       </c>
     </row>
-    <row r="60" spans="5:58">
+    <row r="60" spans="5:58" x14ac:dyDescent="0.25">
       <c r="E60" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F60">
         <f t="shared" si="10"/>
@@ -6542,7 +6516,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="61" spans="5:58">
+    <row r="61" spans="5:58" x14ac:dyDescent="0.25">
       <c r="E61" t="s">
         <v>172</v>
       </c>
@@ -6560,8 +6534,8 @@
         <v>140</v>
       </c>
     </row>
-    <row r="62" spans="5:58">
-      <c r="E62" s="15" t="s">
+    <row r="62" spans="5:58" x14ac:dyDescent="0.25">
+      <c r="E62" s="14" t="s">
         <v>173</v>
       </c>
       <c r="F62">
@@ -6569,18 +6543,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="5:58">
-      <c r="E63" s="15" t="s">
-        <v>303</v>
+    <row r="63" spans="5:58" x14ac:dyDescent="0.25">
+      <c r="E63" s="14" t="s">
+        <v>302</v>
       </c>
       <c r="F63">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="5:58">
-      <c r="E64" s="15" t="s">
-        <v>304</v>
+    <row r="64" spans="5:58" x14ac:dyDescent="0.25">
+      <c r="E64" s="14" t="s">
+        <v>303</v>
       </c>
       <c r="F64">
         <f t="shared" si="10"/>
@@ -6590,9 +6564,9 @@
         <v>140</v>
       </c>
     </row>
-    <row r="65" spans="3:58">
-      <c r="E65" s="15" t="s">
-        <v>305</v>
+    <row r="65" spans="3:58" x14ac:dyDescent="0.25">
+      <c r="E65" s="14" t="s">
+        <v>304</v>
       </c>
       <c r="F65">
         <f t="shared" si="10"/>
@@ -6608,9 +6582,9 @@
         <v>140</v>
       </c>
     </row>
-    <row r="66" spans="3:58">
-      <c r="E66" s="15" t="s">
-        <v>306</v>
+    <row r="66" spans="3:58" x14ac:dyDescent="0.25">
+      <c r="E66" s="14" t="s">
+        <v>305</v>
       </c>
       <c r="F66">
         <f t="shared" si="10"/>
@@ -6653,9 +6627,9 @@
         <v>140</v>
       </c>
     </row>
-    <row r="67" spans="3:58">
-      <c r="E67" s="15" t="s">
-        <v>307</v>
+    <row r="67" spans="3:58" x14ac:dyDescent="0.25">
+      <c r="E67" s="14" t="s">
+        <v>306</v>
       </c>
       <c r="F67">
         <f t="shared" si="10"/>
@@ -6668,9 +6642,9 @@
         <v>140</v>
       </c>
     </row>
-    <row r="68" spans="3:58">
-      <c r="E68" s="15" t="s">
-        <v>308</v>
+    <row r="68" spans="3:58" x14ac:dyDescent="0.25">
+      <c r="E68" s="14" t="s">
+        <v>307</v>
       </c>
       <c r="F68">
         <f t="shared" si="10"/>
@@ -6686,9 +6660,9 @@
         <v>140</v>
       </c>
     </row>
-    <row r="69" spans="3:58">
-      <c r="E69" s="15" t="s">
-        <v>309</v>
+    <row r="69" spans="3:58" x14ac:dyDescent="0.25">
+      <c r="E69" s="14" t="s">
+        <v>308</v>
       </c>
       <c r="F69">
         <f t="shared" si="10"/>
@@ -6701,18 +6675,18 @@
         <v>140</v>
       </c>
     </row>
-    <row r="70" spans="3:58">
-      <c r="E70" s="15" t="s">
-        <v>310</v>
+    <row r="70" spans="3:58" x14ac:dyDescent="0.25">
+      <c r="E70" s="14" t="s">
+        <v>309</v>
       </c>
       <c r="F70">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="3:58">
-      <c r="E71" s="15" t="s">
-        <v>311</v>
+    <row r="71" spans="3:58" x14ac:dyDescent="0.25">
+      <c r="E71" s="14" t="s">
+        <v>310</v>
       </c>
       <c r="F71">
         <f t="shared" si="10"/>
@@ -6722,7 +6696,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="73" spans="3:58">
+    <row r="73" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>177</v>
       </c>
@@ -6857,9 +6831,9 @@
         <v>140</v>
       </c>
     </row>
-    <row r="74" spans="3:58">
+    <row r="74" spans="3:58" x14ac:dyDescent="0.25">
       <c r="E74" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F74">
         <f t="shared" si="1"/>
@@ -6923,16 +6897,16 @@
         <v>140</v>
       </c>
     </row>
-    <row r="75" spans="3:58">
-      <c r="E75" s="19" t="s">
-        <v>313</v>
+    <row r="75" spans="3:58" x14ac:dyDescent="0.25">
+      <c r="E75" t="s">
+        <v>312</v>
       </c>
       <c r="F75">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="3:58">
+    <row r="76" spans="3:58" x14ac:dyDescent="0.25">
       <c r="E76" s="9" t="s">
         <v>179</v>
       </c>
@@ -6980,18 +6954,18 @@
         <v>140</v>
       </c>
     </row>
-    <row r="77" spans="3:58">
+    <row r="77" spans="3:58" x14ac:dyDescent="0.25">
       <c r="E77" s="10" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F77">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="3:58">
+    <row r="78" spans="3:58" x14ac:dyDescent="0.25">
       <c r="E78" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F78">
         <f t="shared" si="1"/>
@@ -7001,9 +6975,9 @@
         <v>140</v>
       </c>
     </row>
-    <row r="79" spans="3:58">
+    <row r="79" spans="3:58" x14ac:dyDescent="0.25">
       <c r="E79" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F79">
         <f t="shared" si="1"/>
@@ -7043,9 +7017,9 @@
         <v>140</v>
       </c>
     </row>
-    <row r="80" spans="3:58">
+    <row r="80" spans="3:58" x14ac:dyDescent="0.25">
       <c r="E80" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F80">
         <f t="shared" si="1"/>
@@ -7133,18 +7107,18 @@
         <v>140</v>
       </c>
     </row>
-    <row r="81" spans="5:56">
+    <row r="81" spans="5:56" x14ac:dyDescent="0.25">
       <c r="E81" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F81">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="5:56">
+    <row r="82" spans="5:56" x14ac:dyDescent="0.25">
       <c r="E82" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F82">
         <f t="shared" si="1"/>
@@ -7157,7 +7131,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="83" spans="5:56">
+    <row r="83" spans="5:56" x14ac:dyDescent="0.25">
       <c r="E83" t="s">
         <v>184</v>
       </c>
@@ -7166,7 +7140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="5:56">
+    <row r="84" spans="5:56" x14ac:dyDescent="0.25">
       <c r="E84" t="s">
         <v>185</v>
       </c>
@@ -7187,7 +7161,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="85" spans="5:56">
+    <row r="85" spans="5:56" x14ac:dyDescent="0.25">
       <c r="E85" t="s">
         <v>186</v>
       </c>
@@ -7196,7 +7170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="5:56">
+    <row r="86" spans="5:56" x14ac:dyDescent="0.25">
       <c r="E86" t="s">
         <v>187</v>
       </c>
@@ -7205,7 +7179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="5:56">
+    <row r="87" spans="5:56" x14ac:dyDescent="0.25">
       <c r="E87" t="s">
         <v>189</v>
       </c>
@@ -7214,18 +7188,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="5:56">
+    <row r="88" spans="5:56" x14ac:dyDescent="0.25">
       <c r="E88" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F88">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="5:56">
+    <row r="89" spans="5:56" x14ac:dyDescent="0.25">
       <c r="E89" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F89">
         <f t="shared" si="1"/>
@@ -7295,18 +7269,18 @@
         <v>140</v>
       </c>
     </row>
-    <row r="90" spans="5:56">
+    <row r="90" spans="5:56" x14ac:dyDescent="0.25">
       <c r="E90" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F90">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="5:56">
+    <row r="91" spans="5:56" x14ac:dyDescent="0.25">
       <c r="E91" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F91">
         <f>COUNTIF(G91:FB91, "da")</f>
@@ -7316,9 +7290,9 @@
         <v>140</v>
       </c>
     </row>
-    <row r="92" spans="5:56">
+    <row r="92" spans="5:56" x14ac:dyDescent="0.25">
       <c r="E92" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F92">
         <f t="shared" si="1"/>
@@ -7349,7 +7323,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="93" spans="5:56">
+    <row r="93" spans="5:56" x14ac:dyDescent="0.25">
       <c r="E93" t="s">
         <v>193</v>
       </c>
@@ -7376,9 +7350,9 @@
         <v>140</v>
       </c>
     </row>
-    <row r="94" spans="5:56">
+    <row r="94" spans="5:56" x14ac:dyDescent="0.25">
       <c r="E94" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F94">
         <f t="shared" si="1"/>
@@ -7403,9 +7377,9 @@
         <v>140</v>
       </c>
     </row>
-    <row r="95" spans="5:56">
+    <row r="95" spans="5:56" x14ac:dyDescent="0.25">
       <c r="E95" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F95">
         <f t="shared" si="1"/>
@@ -7439,9 +7413,9 @@
         <v>140</v>
       </c>
     </row>
-    <row r="96" spans="5:56">
+    <row r="96" spans="5:56" x14ac:dyDescent="0.25">
       <c r="E96" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F96">
         <f t="shared" si="1"/>
@@ -7478,18 +7452,18 @@
         <v>140</v>
       </c>
     </row>
-    <row r="97" spans="5:58">
+    <row r="97" spans="5:58" x14ac:dyDescent="0.25">
       <c r="E97" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F97">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="5:58">
+    <row r="98" spans="5:58" x14ac:dyDescent="0.25">
       <c r="E98" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F98">
         <f t="shared" si="1"/>
@@ -7583,9 +7557,9 @@
         <v>140</v>
       </c>
     </row>
-    <row r="99" spans="5:58">
+    <row r="99" spans="5:58" x14ac:dyDescent="0.25">
       <c r="E99" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F99">
         <f t="shared" si="1"/>
@@ -7607,9 +7581,9 @@
         <v>140</v>
       </c>
     </row>
-    <row r="100" spans="5:58">
+    <row r="100" spans="5:58" x14ac:dyDescent="0.25">
       <c r="E100" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F100">
         <f t="shared" ref="F100:F105" si="11">COUNTIF(G100:FB100, "da")</f>
@@ -7625,9 +7599,9 @@
         <v>140</v>
       </c>
     </row>
-    <row r="101" spans="5:58">
+    <row r="101" spans="5:58" x14ac:dyDescent="0.25">
       <c r="E101" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F101">
         <f t="shared" si="11"/>
@@ -7637,7 +7611,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="102" spans="5:58">
+    <row r="102" spans="5:58" x14ac:dyDescent="0.25">
       <c r="E102" t="s">
         <v>205</v>
       </c>
@@ -7670,7 +7644,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="103" spans="5:58">
+    <row r="103" spans="5:58" x14ac:dyDescent="0.25">
       <c r="E103" t="s">
         <v>206</v>
       </c>
@@ -7682,7 +7656,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="104" spans="5:58">
+    <row r="104" spans="5:58" x14ac:dyDescent="0.25">
       <c r="E104" t="s">
         <v>207</v>
       </c>
@@ -7691,7 +7665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="5:58">
+    <row r="105" spans="5:58" x14ac:dyDescent="0.25">
       <c r="E105" t="s">
         <v>208</v>
       </c>
@@ -7715,18 +7689,18 @@
         <v>140</v>
       </c>
     </row>
-    <row r="106" spans="5:58">
+    <row r="106" spans="5:58" x14ac:dyDescent="0.25">
       <c r="E106" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F106">
         <f t="shared" ref="F106:F118" si="12">COUNTIF(G106:FB106, "da")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="5:58">
+    <row r="107" spans="5:58" x14ac:dyDescent="0.25">
       <c r="E107" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F107">
         <f t="shared" si="12"/>
@@ -7736,7 +7710,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="108" spans="5:58">
+    <row r="108" spans="5:58" x14ac:dyDescent="0.25">
       <c r="E108" t="s">
         <v>183</v>
       </c>
@@ -7772,9 +7746,9 @@
         <v>140</v>
       </c>
     </row>
-    <row r="109" spans="5:58">
+    <row r="109" spans="5:58" x14ac:dyDescent="0.25">
       <c r="E109" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F109">
         <f t="shared" si="12"/>
@@ -7787,9 +7761,9 @@
         <v>140</v>
       </c>
     </row>
-    <row r="110" spans="5:58">
+    <row r="110" spans="5:58" x14ac:dyDescent="0.25">
       <c r="E110" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F110">
         <f t="shared" si="12"/>
@@ -7820,9 +7794,9 @@
         <v>140</v>
       </c>
     </row>
-    <row r="111" spans="5:58">
+    <row r="111" spans="5:58" x14ac:dyDescent="0.25">
       <c r="E111" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F111">
         <f t="shared" si="12"/>
@@ -7847,9 +7821,9 @@
         <v>140</v>
       </c>
     </row>
-    <row r="112" spans="5:58">
+    <row r="112" spans="5:58" x14ac:dyDescent="0.25">
       <c r="E112" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F112">
         <f t="shared" si="12"/>
@@ -7859,9 +7833,9 @@
         <v>140</v>
       </c>
     </row>
-    <row r="113" spans="3:57">
+    <row r="113" spans="3:57" x14ac:dyDescent="0.25">
       <c r="E113" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F113">
         <f t="shared" si="12"/>
@@ -7871,9 +7845,9 @@
         <v>140</v>
       </c>
     </row>
-    <row r="114" spans="3:57">
+    <row r="114" spans="3:57" x14ac:dyDescent="0.25">
       <c r="E114" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F114">
         <f t="shared" si="12"/>
@@ -7886,9 +7860,9 @@
         <v>140</v>
       </c>
     </row>
-    <row r="115" spans="3:57">
+    <row r="115" spans="3:57" x14ac:dyDescent="0.25">
       <c r="E115" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F115">
         <f t="shared" si="12"/>
@@ -7898,18 +7872,18 @@
         <v>140</v>
       </c>
     </row>
-    <row r="116" spans="3:57">
+    <row r="116" spans="3:57" x14ac:dyDescent="0.25">
       <c r="E116" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F116">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="3:57">
+    <row r="117" spans="3:57" x14ac:dyDescent="0.25">
       <c r="E117" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F117">
         <f t="shared" si="12"/>
@@ -7919,9 +7893,9 @@
         <v>140</v>
       </c>
     </row>
-    <row r="118" spans="3:57">
+    <row r="118" spans="3:57" x14ac:dyDescent="0.25">
       <c r="E118" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F118">
         <f t="shared" si="12"/>
@@ -7931,9 +7905,9 @@
         <v>140</v>
       </c>
     </row>
-    <row r="119" spans="3:57">
+    <row r="119" spans="3:57" x14ac:dyDescent="0.25">
       <c r="E119" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F119">
         <f t="shared" ref="F119:F121" si="13">COUNTIF(G119:FB119, "da")</f>
@@ -7943,18 +7917,18 @@
         <v>140</v>
       </c>
     </row>
-    <row r="120" spans="3:57">
+    <row r="120" spans="3:57" x14ac:dyDescent="0.25">
       <c r="E120" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F120">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="3:57">
+    <row r="121" spans="3:57" x14ac:dyDescent="0.25">
       <c r="E121" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F121">
         <f t="shared" si="13"/>
@@ -7973,19 +7947,19 @@
         <v>140</v>
       </c>
     </row>
-    <row r="123" spans="3:57">
+    <row r="123" spans="3:57" x14ac:dyDescent="0.25">
       <c r="C123" t="s">
         <v>211</v>
       </c>
       <c r="E123" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F123">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="3:57">
+    <row r="124" spans="3:57" x14ac:dyDescent="0.25">
       <c r="E124" t="s">
         <v>214</v>
       </c>
@@ -8051,7 +8025,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="125" spans="3:57">
+    <row r="125" spans="3:57" x14ac:dyDescent="0.25">
       <c r="E125" t="s">
         <v>215</v>
       </c>
@@ -8063,14 +8037,14 @@
         <v>140</v>
       </c>
     </row>
-    <row r="127" spans="3:57">
-      <c r="C127" s="35" t="s">
+    <row r="127" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="C127" s="38" t="s">
         <v>221</v>
       </c>
-      <c r="D127" s="35"/>
-      <c r="E127" s="35"/>
-    </row>
-    <row r="129" spans="3:52">
+      <c r="D127" s="38"/>
+      <c r="E127" s="38"/>
+    </row>
+    <row r="129" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C129" t="s">
         <v>177</v>
       </c>
@@ -8085,9 +8059,9 @@
         <v>140</v>
       </c>
     </row>
-    <row r="130" spans="3:52">
+    <row r="130" spans="3:52" x14ac:dyDescent="0.25">
       <c r="E130" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F130">
         <f>COUNTIF(G130:FB130, "da")</f>
@@ -8097,23 +8071,23 @@
         <v>140</v>
       </c>
     </row>
-    <row r="131" spans="3:52">
+    <row r="131" spans="3:52" x14ac:dyDescent="0.25">
       <c r="E131" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F131">
         <f>COUNTIF(G131:FB131, "da")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="3:52">
-      <c r="C133" s="34" t="s">
+    <row r="133" spans="3:52" x14ac:dyDescent="0.25">
+      <c r="C133" s="37" t="s">
         <v>223</v>
       </c>
-      <c r="D133" s="34"/>
-      <c r="E133" s="34"/>
-    </row>
-    <row r="135" spans="3:52">
+      <c r="D133" s="37"/>
+      <c r="E133" s="37"/>
+    </row>
+    <row r="135" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C135" t="s">
         <v>177</v>
       </c>
@@ -8125,9 +8099,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="3:52">
+    <row r="136" spans="3:52" x14ac:dyDescent="0.25">
       <c r="E136" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F136">
         <f t="shared" si="1"/>
@@ -8137,19 +8111,19 @@
         <v>140</v>
       </c>
     </row>
-    <row r="138" spans="3:52">
-      <c r="C138" s="33" t="s">
+    <row r="138" spans="3:52" x14ac:dyDescent="0.25">
+      <c r="C138" s="36" t="s">
         <v>233</v>
       </c>
-      <c r="D138" s="33"/>
-      <c r="E138" s="33"/>
-    </row>
-    <row r="140" spans="3:52">
+      <c r="D138" s="36"/>
+      <c r="E138" s="36"/>
+    </row>
+    <row r="140" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C140" t="s">
         <v>138</v>
       </c>
       <c r="E140" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F140">
         <f t="shared" ref="F140" si="14">COUNTIF(G140:FB140, "da")</f>
@@ -8159,37 +8133,37 @@
         <v>140</v>
       </c>
     </row>
-    <row r="141" spans="3:52">
+    <row r="141" spans="3:52" x14ac:dyDescent="0.25">
       <c r="E141" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F141">
         <f t="shared" ref="F141" si="15">COUNTIF(G141:FB141, "da")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="3:52">
+    <row r="143" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C143" t="s">
         <v>154</v>
       </c>
       <c r="E143" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F143">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="3:52">
+    <row r="144" spans="3:52" x14ac:dyDescent="0.25">
       <c r="E144" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F144">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="3:58">
+    <row r="145" spans="3:58" x14ac:dyDescent="0.25">
       <c r="E145" s="13" t="s">
         <v>240</v>
       </c>
@@ -8198,18 +8172,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="3:58">
+    <row r="146" spans="3:58" x14ac:dyDescent="0.25">
       <c r="E146" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F146">
         <f t="shared" ref="F146" si="16">COUNTIF(G146:FB146, "da")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="3:58">
+    <row r="147" spans="3:58" x14ac:dyDescent="0.25">
       <c r="E147" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F147">
         <f t="shared" ref="F147" si="17">COUNTIF(G147:FB147, "da")</f>
@@ -8219,21 +8193,21 @@
         <v>140</v>
       </c>
     </row>
-    <row r="149" spans="3:58">
+    <row r="149" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C149" t="s">
         <v>177</v>
       </c>
       <c r="E149" s="13" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F149">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="3:58">
+    <row r="150" spans="3:58" x14ac:dyDescent="0.25">
       <c r="E150" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F150">
         <f t="shared" si="1"/>
@@ -8249,7 +8223,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="151" spans="3:58">
+    <row r="151" spans="3:58" x14ac:dyDescent="0.25">
       <c r="E151" t="s">
         <v>241</v>
       </c>
@@ -8270,7 +8244,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="152" spans="3:58">
+    <row r="152" spans="3:58" x14ac:dyDescent="0.25">
       <c r="E152" t="s">
         <v>242</v>
       </c>
@@ -8282,7 +8256,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="153" spans="3:58">
+    <row r="153" spans="3:58" x14ac:dyDescent="0.25">
       <c r="E153" t="s">
         <v>243</v>
       </c>
@@ -8294,21 +8268,21 @@
         <v>140</v>
       </c>
     </row>
-    <row r="155" spans="3:58">
+    <row r="155" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C155" t="s">
         <v>211</v>
       </c>
       <c r="E155" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F155">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="3:58">
+    <row r="156" spans="3:58" x14ac:dyDescent="0.25">
       <c r="E156" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F156">
         <f t="shared" si="1"/>
@@ -8330,9 +8304,9 @@
         <v>140</v>
       </c>
     </row>
-    <row r="157" spans="3:58">
+    <row r="157" spans="3:58" x14ac:dyDescent="0.25">
       <c r="E157" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F157">
         <f t="shared" si="1"/>
@@ -8348,18 +8322,18 @@
         <v>140</v>
       </c>
     </row>
-    <row r="158" spans="3:58">
+    <row r="158" spans="3:58" x14ac:dyDescent="0.25">
       <c r="E158" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F158">
         <f>COUNTIF(G158:FB158, "da")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="3:58">
+    <row r="159" spans="3:58" x14ac:dyDescent="0.25">
       <c r="E159" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F159">
         <f>COUNTIF(G159:FB159, "da")</f>
@@ -8396,9 +8370,9 @@
         <v>140</v>
       </c>
     </row>
-    <row r="160" spans="3:58">
+    <row r="160" spans="3:58" x14ac:dyDescent="0.25">
       <c r="E160" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F160">
         <f>COUNTIF(G160:FB160, "da")</f>
@@ -8411,9 +8385,9 @@
         <v>140</v>
       </c>
     </row>
-    <row r="161" spans="3:56">
+    <row r="161" spans="3:56" x14ac:dyDescent="0.25">
       <c r="E161" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F161">
         <f>COUNTIF(G161:FB161, "da")</f>
@@ -8423,19 +8397,19 @@
         <v>140</v>
       </c>
     </row>
-    <row r="163" spans="3:56">
-      <c r="C163" s="32" t="s">
+    <row r="163" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="C163" s="35" t="s">
         <v>244</v>
       </c>
-      <c r="D163" s="32"/>
-      <c r="E163" s="32"/>
-    </row>
-    <row r="165" spans="3:56">
+      <c r="D163" s="35"/>
+      <c r="E163" s="35"/>
+    </row>
+    <row r="165" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C165" t="s">
         <v>154</v>
       </c>
       <c r="E165" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F165">
         <f t="shared" ref="F165:F171" si="19">COUNTIF(G165:FB165, "da")</f>
@@ -8457,9 +8431,9 @@
         <v>140</v>
       </c>
     </row>
-    <row r="166" spans="3:56">
+    <row r="166" spans="3:56" x14ac:dyDescent="0.25">
       <c r="E166" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F166">
         <f t="shared" si="19"/>
@@ -8469,7 +8443,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="167" spans="3:56">
+    <row r="167" spans="3:56" x14ac:dyDescent="0.25">
       <c r="E167" t="s">
         <v>247</v>
       </c>
@@ -8478,9 +8452,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="3:56">
+    <row r="168" spans="3:56" x14ac:dyDescent="0.25">
       <c r="E168" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F168">
         <f t="shared" si="19"/>
@@ -8490,9 +8464,9 @@
         <v>140</v>
       </c>
     </row>
-    <row r="169" spans="3:56">
+    <row r="169" spans="3:56" x14ac:dyDescent="0.25">
       <c r="E169" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F169">
         <f t="shared" si="19"/>
@@ -8511,16 +8485,16 @@
         <v>140</v>
       </c>
     </row>
-    <row r="170" spans="3:56">
+    <row r="170" spans="3:56" x14ac:dyDescent="0.25">
       <c r="E170" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F170">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="3:56">
+    <row r="171" spans="3:56" x14ac:dyDescent="0.25">
       <c r="E171" t="s">
         <v>248</v>
       </c>
@@ -8529,21 +8503,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="3:56">
+    <row r="173" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C173" t="s">
         <v>177</v>
       </c>
       <c r="E173" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F173">
         <f t="shared" ref="F173:F181" si="20">COUNTIF(G173:FB173, "da")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="3:56">
+    <row r="174" spans="3:56" x14ac:dyDescent="0.25">
       <c r="E174" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F174">
         <f t="shared" si="20"/>
@@ -8559,9 +8533,9 @@
         <v>140</v>
       </c>
     </row>
-    <row r="175" spans="3:56">
+    <row r="175" spans="3:56" x14ac:dyDescent="0.25">
       <c r="E175" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F175">
         <f t="shared" si="20"/>
@@ -8583,9 +8557,9 @@
         <v>140</v>
       </c>
     </row>
-    <row r="176" spans="3:56">
+    <row r="176" spans="3:56" x14ac:dyDescent="0.25">
       <c r="E176" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F176">
         <f t="shared" si="20"/>
@@ -8610,9 +8584,9 @@
         <v>140</v>
       </c>
     </row>
-    <row r="177" spans="3:56">
+    <row r="177" spans="3:56" x14ac:dyDescent="0.25">
       <c r="E177" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F177">
         <f t="shared" si="20"/>
@@ -8634,18 +8608,18 @@
         <v>140</v>
       </c>
     </row>
-    <row r="178" spans="3:56">
+    <row r="178" spans="3:56" x14ac:dyDescent="0.25">
       <c r="E178" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F178">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="3:56">
+    <row r="179" spans="3:56" x14ac:dyDescent="0.25">
       <c r="E179" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F179">
         <f t="shared" si="20"/>
@@ -8658,18 +8632,18 @@
         <v>140</v>
       </c>
     </row>
-    <row r="180" spans="3:56">
+    <row r="180" spans="3:56" x14ac:dyDescent="0.25">
       <c r="E180" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F180">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="3:56">
+    <row r="181" spans="3:56" x14ac:dyDescent="0.25">
       <c r="E181" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F181">
         <f t="shared" si="20"/>
@@ -8688,18 +8662,18 @@
         <v>140</v>
       </c>
     </row>
-    <row r="182" spans="3:56">
+    <row r="182" spans="3:56" x14ac:dyDescent="0.25">
       <c r="E182" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F182">
         <f t="shared" ref="F182:F184" si="21">COUNTIF(G182:FB182, "da")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="3:56">
+    <row r="183" spans="3:56" x14ac:dyDescent="0.25">
       <c r="E183" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F183">
         <f t="shared" si="21"/>
@@ -8715,19 +8689,19 @@
         <v>140</v>
       </c>
     </row>
-    <row r="184" spans="3:56">
+    <row r="184" spans="3:56" x14ac:dyDescent="0.25">
       <c r="D184" t="s">
+        <v>382</v>
+      </c>
+      <c r="E184" t="s">
         <v>383</v>
-      </c>
-      <c r="E184" t="s">
-        <v>384</v>
       </c>
       <c r="F184">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="3:56">
+    <row r="186" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C186" t="s">
         <v>211</v>
       </c>
@@ -8739,9 +8713,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="3:56">
+    <row r="187" spans="3:56" x14ac:dyDescent="0.25">
       <c r="E187" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F187">
         <f>COUNTIF(G187:FB187, "da")</f>
@@ -8757,9 +8731,9 @@
         <v>140</v>
       </c>
     </row>
-    <row r="188" spans="3:56">
+    <row r="188" spans="3:56" x14ac:dyDescent="0.25">
       <c r="E188" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F188">
         <f>COUNTIF(G188:FB188, "da")</f>
@@ -8769,7 +8743,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="189" spans="3:56">
+    <row r="189" spans="3:56" x14ac:dyDescent="0.25">
       <c r="E189" t="s">
         <v>250</v>
       </c>
@@ -8778,42 +8752,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="3:56">
-      <c r="C191" s="31" t="s">
+    <row r="191" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="C191" s="34" t="s">
         <v>251</v>
       </c>
-      <c r="D191" s="31"/>
-      <c r="E191" s="31"/>
-    </row>
-    <row r="193" spans="3:55">
-      <c r="C193" s="43" t="s">
+      <c r="D191" s="34"/>
+      <c r="E191" s="34"/>
+    </row>
+    <row r="193" spans="3:55" x14ac:dyDescent="0.25">
+      <c r="C193" s="41" t="s">
+        <v>386</v>
+      </c>
+      <c r="D193" s="41"/>
+      <c r="E193" s="41"/>
+    </row>
+    <row r="195" spans="3:55" x14ac:dyDescent="0.25">
+      <c r="E195" s="13" t="s">
         <v>387</v>
-      </c>
-      <c r="D193" s="43"/>
-      <c r="E193" s="43"/>
-    </row>
-    <row r="195" spans="3:55">
-      <c r="E195" s="13" t="s">
-        <v>388</v>
       </c>
       <c r="F195">
         <f>COUNTIF(G195:FB195, "da")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="3:55">
-      <c r="C197" s="40" t="s">
+    <row r="197" spans="3:55" x14ac:dyDescent="0.25">
+      <c r="C197" s="32" t="s">
         <v>256</v>
       </c>
-      <c r="D197" s="40"/>
-      <c r="E197" s="40"/>
-    </row>
-    <row r="199" spans="3:55">
+      <c r="D197" s="32"/>
+      <c r="E197" s="32"/>
+    </row>
+    <row r="199" spans="3:55" x14ac:dyDescent="0.25">
       <c r="C199" t="s">
         <v>177</v>
       </c>
       <c r="E199" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F199">
         <f>COUNTIF(G199:FB199, "da")</f>
@@ -8832,19 +8806,19 @@
         <v>140</v>
       </c>
     </row>
-    <row r="201" spans="3:55">
-      <c r="C201" s="37" t="s">
-        <v>390</v>
-      </c>
-      <c r="D201" s="37"/>
-      <c r="E201" s="37"/>
-    </row>
-    <row r="203" spans="3:55">
+    <row r="201" spans="3:55" x14ac:dyDescent="0.25">
+      <c r="C201" s="29" t="s">
+        <v>389</v>
+      </c>
+      <c r="D201" s="29"/>
+      <c r="E201" s="29"/>
+    </row>
+    <row r="203" spans="3:55" x14ac:dyDescent="0.25">
       <c r="C203" t="s">
         <v>138</v>
       </c>
-      <c r="E203" s="15" t="s">
-        <v>391</v>
+      <c r="E203" s="14" t="s">
+        <v>390</v>
       </c>
       <c r="F203">
         <f t="shared" ref="F203:F204" si="22">COUNTIF(G203:FB203, "da")</f>
@@ -8869,30 +8843,30 @@
         <v>140</v>
       </c>
     </row>
-    <row r="204" spans="3:55">
-      <c r="E204" s="15" t="s">
-        <v>392</v>
+    <row r="204" spans="3:55" x14ac:dyDescent="0.25">
+      <c r="E204" s="14" t="s">
+        <v>391</v>
       </c>
       <c r="F204">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="3:55">
+    <row r="206" spans="3:55" x14ac:dyDescent="0.25">
       <c r="C206" t="s">
         <v>154</v>
       </c>
       <c r="E206" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F206">
         <f>COUNTIF(G206:FB206, "da")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="3:55">
-      <c r="E207" s="15" t="s">
-        <v>394</v>
+    <row r="207" spans="3:55" x14ac:dyDescent="0.25">
+      <c r="E207" s="14" t="s">
+        <v>393</v>
       </c>
       <c r="F207">
         <f t="shared" ref="F207:F233" si="23">COUNTIF(G207:FB207, "da")</f>
@@ -8947,9 +8921,9 @@
         <v>140</v>
       </c>
     </row>
-    <row r="208" spans="3:55">
-      <c r="E208" s="15" t="s">
-        <v>395</v>
+    <row r="208" spans="3:55" x14ac:dyDescent="0.25">
+      <c r="E208" s="14" t="s">
+        <v>394</v>
       </c>
       <c r="F208">
         <f t="shared" si="23"/>
@@ -8968,24 +8942,24 @@
         <v>140</v>
       </c>
     </row>
-    <row r="209" spans="3:58">
-      <c r="E209" s="15" t="s">
-        <v>396</v>
+    <row r="209" spans="3:58" x14ac:dyDescent="0.25">
+      <c r="E209" s="14" t="s">
+        <v>395</v>
       </c>
       <c r="F209">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="3:58">
-      <c r="E210" s="15"/>
-    </row>
-    <row r="211" spans="3:58">
+    <row r="210" spans="3:58" x14ac:dyDescent="0.25">
+      <c r="E210" s="14"/>
+    </row>
+    <row r="211" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C211" t="s">
         <v>177</v>
       </c>
       <c r="E211" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F211">
         <f t="shared" si="23"/>
@@ -9007,9 +8981,9 @@
         <v>140</v>
       </c>
     </row>
-    <row r="212" spans="3:58">
+    <row r="212" spans="3:58" x14ac:dyDescent="0.25">
       <c r="E212" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F212">
         <f t="shared" si="23"/>
@@ -9019,48 +8993,48 @@
         <v>140</v>
       </c>
     </row>
-    <row r="213" spans="3:58">
+    <row r="213" spans="3:58" x14ac:dyDescent="0.25">
       <c r="E213" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F213">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="3:58">
+    <row r="215" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C215" t="s">
         <v>211</v>
       </c>
       <c r="E215" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F215">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="3:58">
+    <row r="216" spans="3:58" x14ac:dyDescent="0.25">
       <c r="E216" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F216">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="3:58">
+    <row r="217" spans="3:58" x14ac:dyDescent="0.25">
       <c r="E217" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F217">
         <f>COUNTIF(G217:FB217, "da")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="3:58">
-      <c r="E218" s="15" t="s">
-        <v>403</v>
+    <row r="218" spans="3:58" x14ac:dyDescent="0.25">
+      <c r="E218" s="14" t="s">
+        <v>402</v>
       </c>
       <c r="F218">
         <f>COUNTIF(G218:FB218, "da")</f>
@@ -9079,38 +9053,38 @@
         <v>140</v>
       </c>
     </row>
-    <row r="220" spans="3:58">
-      <c r="C220" s="42" t="s">
-        <v>404</v>
-      </c>
-      <c r="D220" s="42"/>
-      <c r="E220" s="42"/>
-    </row>
-    <row r="222" spans="3:58">
+    <row r="220" spans="3:58" x14ac:dyDescent="0.25">
+      <c r="C220" s="40" t="s">
+        <v>403</v>
+      </c>
+      <c r="D220" s="40"/>
+      <c r="E220" s="40"/>
+    </row>
+    <row r="222" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C222" t="s">
         <v>154</v>
       </c>
       <c r="E222" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F222">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="3:58">
-      <c r="C224" s="36" t="s">
+    <row r="224" spans="3:58" x14ac:dyDescent="0.25">
+      <c r="C224" s="28" t="s">
         <v>258</v>
       </c>
-      <c r="D224" s="36"/>
-      <c r="E224" s="36"/>
-    </row>
-    <row r="226" spans="3:58">
+      <c r="D224" s="28"/>
+      <c r="E224" s="28"/>
+    </row>
+    <row r="226" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C226" t="s">
         <v>138</v>
       </c>
       <c r="E226" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F226">
         <f t="shared" si="23"/>
@@ -9120,31 +9094,31 @@
         <v>140</v>
       </c>
     </row>
-    <row r="228" spans="3:58">
+    <row r="228" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C228" t="s">
         <v>154</v>
       </c>
       <c r="E228" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F228">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="3:58">
+    <row r="230" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C230" t="s">
         <v>177</v>
       </c>
       <c r="E230" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F230">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="3:58">
+    <row r="231" spans="3:58" x14ac:dyDescent="0.25">
       <c r="E231" t="s">
         <v>259</v>
       </c>
@@ -9153,26 +9127,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="3:58">
+    <row r="233" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C233" t="s">
         <v>211</v>
       </c>
       <c r="E233" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F233">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="3:58">
-      <c r="C235" s="38" t="s">
+    <row r="235" spans="3:58" x14ac:dyDescent="0.25">
+      <c r="C235" s="30" t="s">
         <v>264</v>
       </c>
-      <c r="D235" s="38"/>
-      <c r="E235" s="38"/>
-    </row>
-    <row r="237" spans="3:58">
+      <c r="D235" s="30"/>
+      <c r="E235" s="30"/>
+    </row>
+    <row r="237" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C237" t="s">
         <v>177</v>
       </c>
@@ -9202,9 +9176,9 @@
         <v>140</v>
       </c>
     </row>
-    <row r="238" spans="3:58">
+    <row r="238" spans="3:58" x14ac:dyDescent="0.25">
       <c r="E238" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F238">
         <f t="shared" si="24"/>
@@ -9226,16 +9200,16 @@
         <v>140</v>
       </c>
     </row>
-    <row r="240" spans="3:58">
-      <c r="C240" s="41" t="s">
+    <row r="240" spans="3:58" x14ac:dyDescent="0.25">
+      <c r="C240" s="39" t="s">
+        <v>410</v>
+      </c>
+      <c r="D240" s="39"/>
+      <c r="E240" s="39"/>
+    </row>
+    <row r="242" spans="5:44" x14ac:dyDescent="0.25">
+      <c r="E242" t="s">
         <v>411</v>
-      </c>
-      <c r="D240" s="41"/>
-      <c r="E240" s="41"/>
-    </row>
-    <row r="242" spans="5:44">
-      <c r="E242" t="s">
-        <v>412</v>
       </c>
       <c r="F242">
         <f t="shared" ref="F242" si="25">COUNTIF(G242:FF242, "da")</f>
@@ -9271,12 +9245,12 @@
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="6" ySplit="9" topLeftCell="U10" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
       <selection pane="bottomRight" activeCell="AD13" sqref="AD13"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="topRight" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="4.85546875" customWidth="1"/>
@@ -9291,7 +9265,7 @@
     <col min="31" max="36" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>64</v>
       </c>
@@ -9300,7 +9274,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>65</v>
       </c>
@@ -9309,7 +9283,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="3" spans="1:36">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
         <v>66</v>
       </c>
@@ -9318,7 +9292,7 @@
         <v>1.32</v>
       </c>
     </row>
-    <row r="4" spans="1:36">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>67</v>
       </c>
@@ -9334,7 +9308,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="5" spans="1:36">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>69</v>
       </c>
@@ -9349,7 +9323,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="1:36">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>71</v>
       </c>
@@ -9358,78 +9332,78 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:36" s="6" customFormat="1">
-      <c r="F7" s="17" t="s">
+    <row r="7" spans="1:36" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F7" s="16" t="s">
         <v>73</v>
       </c>
       <c r="G7" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="H7" s="8" t="s">
         <v>413</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="I7" s="15" t="s">
         <v>414</v>
       </c>
-      <c r="I7" s="16" t="s">
+      <c r="J7" s="6" t="s">
         <v>415</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="K7" s="6" t="s">
         <v>416</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="L7" s="6" t="s">
         <v>417</v>
       </c>
-      <c r="L7" s="6" t="s">
+      <c r="M7" s="8" t="s">
         <v>418</v>
       </c>
-      <c r="M7" s="8" t="s">
+      <c r="N7" s="8" t="s">
         <v>419</v>
       </c>
-      <c r="N7" s="8" t="s">
+      <c r="O7" s="8" t="s">
         <v>420</v>
       </c>
-      <c r="O7" s="8" t="s">
+      <c r="P7" s="8" t="s">
         <v>421</v>
       </c>
-      <c r="P7" s="8" t="s">
+      <c r="Q7" s="8" t="s">
         <v>422</v>
       </c>
-      <c r="Q7" s="8" t="s">
+      <c r="R7" s="8" t="s">
         <v>423</v>
       </c>
-      <c r="R7" s="8" t="s">
+      <c r="S7" s="8" t="s">
         <v>424</v>
       </c>
-      <c r="S7" s="8" t="s">
+      <c r="T7" s="8" t="s">
         <v>425</v>
       </c>
-      <c r="T7" s="8" t="s">
+      <c r="U7" s="8" t="s">
         <v>426</v>
       </c>
-      <c r="U7" s="8" t="s">
+      <c r="V7" s="8" t="s">
         <v>427</v>
       </c>
-      <c r="V7" s="8" t="s">
+      <c r="W7" s="8" t="s">
         <v>428</v>
       </c>
-      <c r="W7" s="8" t="s">
+      <c r="X7" s="8" t="s">
         <v>429</v>
       </c>
-      <c r="X7" s="8" t="s">
+      <c r="Y7" s="8" t="s">
         <v>430</v>
       </c>
-      <c r="Y7" s="8" t="s">
+      <c r="Z7" s="8" t="s">
         <v>431</v>
       </c>
-      <c r="Z7" s="8" t="s">
+      <c r="AA7" s="8" t="s">
         <v>432</v>
-      </c>
-      <c r="AA7" s="8" t="s">
-        <v>433</v>
       </c>
       <c r="AB7" s="8" t="s">
         <v>125</v>
       </c>
       <c r="AC7" s="8" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AD7" s="8" t="s">
         <v>131</v>
@@ -9441,7 +9415,7 @@
       <c r="AI7" s="8"/>
       <c r="AJ7" s="8"/>
     </row>
-    <row r="8" spans="1:36" ht="14.25" customHeight="1">
+    <row r="8" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F8" t="s">
         <v>133</v>
       </c>
@@ -9496,7 +9470,7 @@
       <c r="W8">
         <v>9</v>
       </c>
-      <c r="X8" s="18" t="s">
+      <c r="X8" s="17" t="s">
         <v>134</v>
       </c>
       <c r="Y8">
@@ -9518,7 +9492,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:36" ht="16.5" customHeight="1">
+    <row r="9" spans="1:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F9" t="s">
         <v>135</v>
       </c>
@@ -9573,7 +9547,7 @@
       <c r="W9">
         <v>9</v>
       </c>
-      <c r="X9" s="18" t="s">
+      <c r="X9" s="17" t="s">
         <v>134</v>
       </c>
       <c r="Y9">
@@ -9595,31 +9569,31 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:36">
-      <c r="C10" s="30" t="s">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="C10" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
       <c r="F10" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="12" spans="1:36">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>138</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F12">
         <f t="shared" ref="F12:F22" si="0">COUNTIF(G12:EZ12, "da")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:36">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F13">
         <f t="shared" si="0"/>
@@ -9635,7 +9609,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="14" spans="1:36">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
         <v>143</v>
       </c>
@@ -9644,7 +9618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:36">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="E15" t="s">
         <v>146</v>
       </c>
@@ -9653,7 +9627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:36">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="E16" t="s">
         <v>147</v>
       </c>
@@ -9662,7 +9636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="3:28">
+    <row r="17" spans="3:28" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
         <v>148</v>
       </c>
@@ -9671,7 +9645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="3:28">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.25">
       <c r="E18" t="s">
         <v>150</v>
       </c>
@@ -9683,7 +9657,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="19" spans="3:28">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.25">
       <c r="E19" t="s">
         <v>153</v>
       </c>
@@ -9692,7 +9666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="3:28">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>154</v>
       </c>
@@ -9704,7 +9678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="3:28">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.25">
       <c r="E22" t="s">
         <v>163</v>
       </c>
@@ -9713,8 +9687,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="3:28">
-      <c r="E23" s="15" t="s">
+    <row r="23" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="E23" s="14" t="s">
         <v>173</v>
       </c>
       <c r="F23">
@@ -9722,7 +9696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="3:28">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>177</v>
       </c>
@@ -9770,7 +9744,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="26" spans="3:28">
+    <row r="26" spans="3:28" x14ac:dyDescent="0.25">
       <c r="E26" s="10" t="s">
         <v>186</v>
       </c>
@@ -9779,7 +9753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="3:28">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.25">
       <c r="E27" t="s">
         <v>187</v>
       </c>
@@ -9788,7 +9762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="3:28">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.25">
       <c r="E28" t="s">
         <v>188</v>
       </c>
@@ -9797,7 +9771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="3:28">
+    <row r="29" spans="3:28" x14ac:dyDescent="0.25">
       <c r="E29" t="s">
         <v>191</v>
       </c>
@@ -9818,7 +9792,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="30" spans="3:28">
+    <row r="30" spans="3:28" x14ac:dyDescent="0.25">
       <c r="E30" t="s">
         <v>199</v>
       </c>
@@ -9827,7 +9801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="3:28">
+    <row r="31" spans="3:28" x14ac:dyDescent="0.25">
       <c r="E31" t="s">
         <v>200</v>
       </c>
@@ -9836,16 +9810,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="3:28">
+    <row r="32" spans="3:28" x14ac:dyDescent="0.25">
       <c r="E32" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F32">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="3:30">
+    <row r="33" spans="3:30" x14ac:dyDescent="0.25">
       <c r="E33" t="s">
         <v>203</v>
       </c>
@@ -9854,7 +9828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="3:30">
+    <row r="34" spans="3:30" x14ac:dyDescent="0.25">
       <c r="E34" t="s">
         <v>170</v>
       </c>
@@ -9863,7 +9837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="3:30">
+    <row r="35" spans="3:30" x14ac:dyDescent="0.25">
       <c r="E35" t="s">
         <v>205</v>
       </c>
@@ -9872,7 +9846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="3:30">
+    <row r="36" spans="3:30" x14ac:dyDescent="0.25">
       <c r="E36" t="s">
         <v>206</v>
       </c>
@@ -9881,7 +9855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="3:30">
+    <row r="37" spans="3:30" x14ac:dyDescent="0.25">
       <c r="E37" t="s">
         <v>209</v>
       </c>
@@ -9890,7 +9864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="3:30">
+    <row r="38" spans="3:30" x14ac:dyDescent="0.25">
       <c r="E38" t="s">
         <v>182</v>
       </c>
@@ -9926,7 +9900,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="39" spans="3:30">
+    <row r="39" spans="3:30" x14ac:dyDescent="0.25">
       <c r="E39" s="1" t="s">
         <v>192</v>
       </c>
@@ -9938,9 +9912,9 @@
         <v>140</v>
       </c>
     </row>
-    <row r="40" spans="3:30">
-      <c r="E40" s="14" t="s">
-        <v>437</v>
+    <row r="40" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="E40" t="s">
+        <v>436</v>
       </c>
       <c r="F40">
         <f t="shared" ref="F40:F41" si="7">COUNTIF(G40:EZ40, "da")</f>
@@ -9959,9 +9933,9 @@
         <v>140</v>
       </c>
     </row>
-    <row r="41" spans="3:30">
-      <c r="E41" s="14" t="s">
-        <v>347</v>
+    <row r="41" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="E41" t="s">
+        <v>346</v>
       </c>
       <c r="F41">
         <f t="shared" si="7"/>
@@ -9983,7 +9957,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="43" spans="3:30">
+    <row r="43" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>211</v>
       </c>
@@ -9995,7 +9969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="3:30">
+    <row r="44" spans="3:30" x14ac:dyDescent="0.25">
       <c r="E44" t="s">
         <v>216</v>
       </c>
@@ -10004,14 +9978,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="3:30">
-      <c r="C46" s="34" t="s">
+    <row r="46" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C46" s="37" t="s">
         <v>223</v>
       </c>
-      <c r="D46" s="34"/>
-      <c r="E46" s="34"/>
-    </row>
-    <row r="48" spans="3:30">
+      <c r="D46" s="37"/>
+      <c r="E46" s="37"/>
+    </row>
+    <row r="48" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>138</v>
       </c>
@@ -10023,16 +9997,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="3:29">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.25">
       <c r="E49" s="13" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F49">
         <f>COUNTIF(G49:EZ49, "da")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="3:29">
+    <row r="51" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>154</v>
       </c>
@@ -10062,7 +10036,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="52" spans="3:29">
+    <row r="52" spans="3:29" x14ac:dyDescent="0.25">
       <c r="E52" t="s">
         <v>226</v>
       </c>
@@ -10083,7 +10057,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="53" spans="3:29">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.25">
       <c r="E53" t="s">
         <v>227</v>
       </c>
@@ -10107,7 +10081,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="55" spans="3:29">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>177</v>
       </c>
@@ -10164,9 +10138,9 @@
         <v>140</v>
       </c>
     </row>
-    <row r="56" spans="3:29">
+    <row r="56" spans="3:29" x14ac:dyDescent="0.25">
       <c r="E56" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F56">
         <f t="shared" ref="F56:F83" si="8">COUNTIF(G56:EZ56, "da")</f>
@@ -10194,9 +10168,9 @@
         <v>140</v>
       </c>
     </row>
-    <row r="57" spans="3:29">
+    <row r="57" spans="3:29" x14ac:dyDescent="0.25">
       <c r="E57" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F57">
         <f t="shared" si="8"/>
@@ -10206,9 +10180,9 @@
         <v>140</v>
       </c>
     </row>
-    <row r="58" spans="3:29">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.25">
       <c r="E58" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F58">
         <f t="shared" si="8"/>
@@ -10218,18 +10192,18 @@
         <v>140</v>
       </c>
     </row>
-    <row r="59" spans="3:29">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.25">
       <c r="E59" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F59">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="3:29">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.25">
       <c r="E60" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F60">
         <f t="shared" si="8"/>
@@ -10269,9 +10243,9 @@
         <v>140</v>
       </c>
     </row>
-    <row r="61" spans="3:29">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.25">
       <c r="E61" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F61">
         <f t="shared" si="8"/>
@@ -10281,9 +10255,9 @@
         <v>140</v>
       </c>
     </row>
-    <row r="62" spans="3:29">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.25">
       <c r="E62" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F62">
         <f t="shared" si="8"/>
@@ -10296,9 +10270,9 @@
         <v>140</v>
       </c>
     </row>
-    <row r="63" spans="3:29">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.25">
       <c r="E63" s="13" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F63">
         <f t="shared" si="8"/>
@@ -10308,9 +10282,9 @@
         <v>140</v>
       </c>
     </row>
-    <row r="64" spans="3:29">
+    <row r="64" spans="3:29" x14ac:dyDescent="0.25">
       <c r="E64" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F64">
         <f t="shared" si="8"/>
@@ -10323,9 +10297,9 @@
         <v>140</v>
       </c>
     </row>
-    <row r="65" spans="3:29">
+    <row r="65" spans="3:29" x14ac:dyDescent="0.25">
       <c r="E65" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F65">
         <f t="shared" si="8"/>
@@ -10365,7 +10339,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="66" spans="3:29">
+    <row r="66" spans="3:29" x14ac:dyDescent="0.25">
       <c r="E66" t="s">
         <v>229</v>
       </c>
@@ -10404,27 +10378,27 @@
         <v>140</v>
       </c>
     </row>
-    <row r="67" spans="3:29">
+    <row r="67" spans="3:29" x14ac:dyDescent="0.25">
       <c r="E67" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F67">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="3:29">
+    <row r="68" spans="3:29" x14ac:dyDescent="0.25">
       <c r="E68" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F68">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="3:29">
+    <row r="69" spans="3:29" x14ac:dyDescent="0.25">
       <c r="E69" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F69">
         <f t="shared" si="9"/>
@@ -10440,9 +10414,9 @@
         <v>140</v>
       </c>
     </row>
-    <row r="70" spans="3:29">
+    <row r="70" spans="3:29" x14ac:dyDescent="0.25">
       <c r="E70" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F70">
         <f t="shared" si="9"/>
@@ -10458,7 +10432,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="71" spans="3:29">
+    <row r="71" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C71" s="5"/>
       <c r="E71" t="s">
         <v>230</v>
@@ -10468,10 +10442,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="3:29">
+    <row r="72" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C72" s="5"/>
       <c r="E72" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F72">
         <f t="shared" si="9"/>
@@ -10493,7 +10467,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="74" spans="3:29">
+    <row r="74" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>211</v>
       </c>
@@ -10514,7 +10488,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="75" spans="3:29">
+    <row r="75" spans="3:29" x14ac:dyDescent="0.25">
       <c r="E75" t="s">
         <v>231</v>
       </c>
@@ -10523,37 +10497,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="3:29">
+    <row r="76" spans="3:29" x14ac:dyDescent="0.25">
       <c r="E76" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F76">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="3:29">
+    <row r="77" spans="3:29" x14ac:dyDescent="0.25">
       <c r="E77" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F77">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="3:29">
-      <c r="C79" s="35" t="s">
+    <row r="79" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="C79" s="38" t="s">
         <v>221</v>
       </c>
-      <c r="D79" s="35"/>
-      <c r="E79" s="35"/>
-    </row>
-    <row r="81" spans="3:28">
+      <c r="D79" s="38"/>
+      <c r="E79" s="38"/>
+    </row>
+    <row r="81" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>154</v>
       </c>
       <c r="E81" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F81">
         <f t="shared" si="8"/>
@@ -10566,7 +10540,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="83" spans="3:28">
+    <row r="83" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>177</v>
       </c>
@@ -10581,14 +10555,14 @@
         <v>140</v>
       </c>
     </row>
-    <row r="85" spans="3:28">
-      <c r="C85" s="33" t="s">
+    <row r="85" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="C85" s="36" t="s">
         <v>233</v>
       </c>
-      <c r="D85" s="33"/>
-      <c r="E85" s="33"/>
-    </row>
-    <row r="87" spans="3:28">
+      <c r="D85" s="36"/>
+      <c r="E85" s="36"/>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>154</v>
       </c>
@@ -10600,16 +10574,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="3:28">
+    <row r="88" spans="3:28" x14ac:dyDescent="0.25">
       <c r="E88" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F88">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="3:28">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
         <v>177</v>
       </c>
@@ -10621,12 +10595,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="3:28">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
         <v>211</v>
       </c>
       <c r="E92" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F92">
         <f t="shared" si="10"/>
@@ -10642,23 +10616,23 @@
         <v>140</v>
       </c>
     </row>
-    <row r="93" spans="3:28">
+    <row r="93" spans="3:28" x14ac:dyDescent="0.25">
       <c r="E93" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F93">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="3:28">
-      <c r="C95" s="32" t="s">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="C95" s="35" t="s">
         <v>244</v>
       </c>
-      <c r="D95" s="32"/>
-      <c r="E95" s="32"/>
-    </row>
-    <row r="97" spans="3:6">
+      <c r="D95" s="35"/>
+      <c r="E95" s="35"/>
+    </row>
+    <row r="97" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C97" t="s">
         <v>154</v>
       </c>
@@ -10670,7 +10644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="3:6">
+    <row r="98" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E98" t="s">
         <v>248</v>
       </c>
@@ -10679,28 +10653,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="3:6">
+    <row r="100" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C100" t="s">
         <v>177</v>
       </c>
       <c r="E100" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F100">
         <f t="shared" ref="F100:F101" si="13">COUNTIF(G100:EZ100, "da")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="3:6">
+    <row r="101" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E101" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F101">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="3:6">
+    <row r="103" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C103" t="s">
         <v>211</v>
       </c>
@@ -10712,70 +10686,70 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="3:6">
-      <c r="C105" s="31" t="s">
+    <row r="105" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C105" s="34" t="s">
         <v>251</v>
       </c>
-      <c r="D105" s="31"/>
-      <c r="E105" s="31"/>
-    </row>
-    <row r="107" spans="3:6">
-      <c r="C107" s="43" t="s">
-        <v>387</v>
-      </c>
-      <c r="D107" s="43"/>
-      <c r="E107" s="43"/>
-    </row>
-    <row r="109" spans="3:6">
-      <c r="E109" s="14" t="s">
-        <v>461</v>
+      <c r="D105" s="34"/>
+      <c r="E105" s="34"/>
+    </row>
+    <row r="107" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C107" s="41" t="s">
+        <v>386</v>
+      </c>
+      <c r="D107" s="41"/>
+      <c r="E107" s="41"/>
+    </row>
+    <row r="109" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="E109" t="s">
+        <v>460</v>
       </c>
       <c r="F109">
         <f>COUNTIF(G109:EZ109, "da")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="3:6">
-      <c r="C111" s="36" t="s">
+    <row r="111" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C111" s="28" t="s">
         <v>258</v>
       </c>
-      <c r="D111" s="36"/>
-      <c r="E111" s="36"/>
-    </row>
-    <row r="113" spans="3:6">
+      <c r="D111" s="28"/>
+      <c r="E111" s="28"/>
+    </row>
+    <row r="113" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C113" t="s">
         <v>138</v>
       </c>
       <c r="E113" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F113">
         <f t="shared" ref="F113:F114" si="15">COUNTIF(G113:EZ113, "da")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="3:6">
+    <row r="114" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E114" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F114">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="3:6">
-      <c r="C116" s="38" t="s">
+    <row r="116" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C116" s="30" t="s">
         <v>264</v>
       </c>
-      <c r="D116" s="38"/>
-      <c r="E116" s="38"/>
-    </row>
-    <row r="118" spans="3:6">
+      <c r="D116" s="30"/>
+      <c r="E116" s="30"/>
+    </row>
+    <row r="118" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C118" t="s">
         <v>177</v>
       </c>
       <c r="E118" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F118">
         <f t="shared" ref="F118" si="16">COUNTIF(G118:FD118, "da")</f>
@@ -10804,12 +10778,12 @@
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="6" ySplit="9" topLeftCell="G10" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="4.85546875" customWidth="1"/>
@@ -10820,7 +10794,7 @@
     <col min="7" max="36" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>64</v>
       </c>
@@ -10829,7 +10803,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>65</v>
       </c>
@@ -10838,7 +10812,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:36">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
         <v>66</v>
       </c>
@@ -10847,7 +10821,7 @@
         <v>2.84</v>
       </c>
     </row>
-    <row r="4" spans="1:36">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>67</v>
       </c>
@@ -10863,7 +10837,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="5" spans="1:36">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>69</v>
       </c>
@@ -10878,7 +10852,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:36">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>71</v>
       </c>
@@ -10887,30 +10861,30 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:36" s="6" customFormat="1">
-      <c r="F7" s="17" t="s">
+    <row r="7" spans="1:36" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F7" s="16" t="s">
         <v>73</v>
       </c>
       <c r="G7" s="8" t="s">
+        <v>463</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>432</v>
+      </c>
+      <c r="I7" s="8" t="s">
         <v>464</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>433</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>465</v>
       </c>
       <c r="J7" s="8" t="s">
         <v>125</v>
       </c>
       <c r="K7" s="8" t="s">
+        <v>465</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="M7" s="8" t="s">
         <v>466</v>
-      </c>
-      <c r="L7" s="8" t="s">
-        <v>434</v>
-      </c>
-      <c r="M7" s="8" t="s">
-        <v>467</v>
       </c>
       <c r="N7" s="8" t="s">
         <v>131</v>
@@ -10938,7 +10912,7 @@
       <c r="AI7" s="8"/>
       <c r="AJ7" s="8"/>
     </row>
-    <row r="8" spans="1:36" ht="14.25" customHeight="1">
+    <row r="8" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F8" t="s">
         <v>133</v>
       </c>
@@ -10967,7 +10941,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:36" ht="16.5" customHeight="1">
+    <row r="9" spans="1:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F9" t="s">
         <v>135</v>
       </c>
@@ -10996,17 +10970,17 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:36">
-      <c r="C10" s="30" t="s">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="C10" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
       <c r="F10" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="12" spans="1:36">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>138</v>
       </c>
@@ -11018,7 +10992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:36">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
         <v>150</v>
       </c>
@@ -11027,30 +11001,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:36">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>154</v>
       </c>
       <c r="E15" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:36">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="E16" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="3:14">
+    <row r="17" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F17">
         <f t="shared" si="0"/>
@@ -11060,9 +11034,9 @@
         <v>140</v>
       </c>
     </row>
-    <row r="18" spans="3:14">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E18" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F18">
         <f t="shared" si="0"/>
@@ -11072,7 +11046,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="20" spans="3:14">
+    <row r="20" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>177</v>
       </c>
@@ -11090,9 +11064,9 @@
         <v>140</v>
       </c>
     </row>
-    <row r="21" spans="3:14">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E21" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F21">
         <f t="shared" si="0"/>
@@ -11102,9 +11076,9 @@
         <v>140</v>
       </c>
     </row>
-    <row r="22" spans="3:14">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E22" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F22">
         <f t="shared" si="0"/>
@@ -11114,16 +11088,16 @@
         <v>140</v>
       </c>
     </row>
-    <row r="23" spans="3:14">
+    <row r="23" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E23" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="3:14">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E24" t="s">
         <v>178</v>
       </c>
@@ -11135,19 +11109,19 @@
         <v>140</v>
       </c>
     </row>
-    <row r="26" spans="3:14">
-      <c r="C26" s="36" t="s">
+    <row r="26" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C26" s="28" t="s">
         <v>258</v>
       </c>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-    </row>
-    <row r="28" spans="3:14">
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>138</v>
       </c>
       <c r="E28" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F28">
         <f t="shared" ref="F28:F67" si="1">COUNTIF(G28:EZ28, "da")</f>
@@ -11166,39 +11140,39 @@
         <v>140</v>
       </c>
     </row>
-    <row r="29" spans="3:14">
+    <row r="29" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E29" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F29">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="3:14">
+    <row r="30" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E30" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="3:14">
+    <row r="31" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E31" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="3:14">
+    <row r="33" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>154</v>
       </c>
       <c r="E33" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F33">
         <f t="shared" si="1"/>
@@ -11214,18 +11188,18 @@
         <v>140</v>
       </c>
     </row>
-    <row r="34" spans="3:14">
+    <row r="34" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E34" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="3:14">
+    <row r="35" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E35" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F35">
         <f t="shared" si="1"/>
@@ -11235,12 +11209,12 @@
         <v>140</v>
       </c>
     </row>
-    <row r="37" spans="3:14">
+    <row r="37" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>177</v>
       </c>
       <c r="E37" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F37">
         <f t="shared" si="1"/>
@@ -11253,7 +11227,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="38" spans="3:14">
+    <row r="38" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E38" t="s">
         <v>259</v>
       </c>
@@ -11262,9 +11236,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="3:14">
+    <row r="39" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E39" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F39">
         <f t="shared" si="1"/>
@@ -11277,7 +11251,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="40" spans="3:14">
+    <row r="40" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E40" t="s">
         <v>260</v>
       </c>
@@ -11286,12 +11260,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="3:14">
+    <row r="42" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>211</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F42">
         <f t="shared" si="1"/>
@@ -11316,7 +11290,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="43" spans="3:14">
+    <row r="43" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E43" t="s">
         <v>261</v>
       </c>
@@ -11325,19 +11299,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="3:14">
-      <c r="C45" s="35" t="s">
+    <row r="45" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C45" s="38" t="s">
         <v>221</v>
       </c>
-      <c r="D45" s="35"/>
-      <c r="E45" s="35"/>
-    </row>
-    <row r="47" spans="3:14">
+      <c r="D45" s="38"/>
+      <c r="E45" s="38"/>
+    </row>
+    <row r="47" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>138</v>
       </c>
-      <c r="E47" s="26" t="s">
-        <v>479</v>
+      <c r="E47" s="22" t="s">
+        <v>478</v>
       </c>
       <c r="J47" t="s">
         <v>140</v>
@@ -11346,19 +11320,19 @@
         <v>140</v>
       </c>
     </row>
-    <row r="49" spans="3:14">
+    <row r="49" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>154</v>
       </c>
-      <c r="E49" s="26" t="s">
-        <v>480</v>
+      <c r="E49" s="22" t="s">
+        <v>479</v>
       </c>
       <c r="F49">
         <f t="shared" ref="F49" si="2">COUNTIF(G49:EZ49, "da")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="3:14">
+    <row r="51" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>177</v>
       </c>
@@ -11391,9 +11365,9 @@
         <v>140</v>
       </c>
     </row>
-    <row r="52" spans="3:14">
-      <c r="E52" s="19" t="s">
-        <v>349</v>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="E52" t="s">
+        <v>348</v>
       </c>
       <c r="F52">
         <f t="shared" si="1"/>
@@ -11406,19 +11380,19 @@
         <v>140</v>
       </c>
     </row>
-    <row r="54" spans="3:14">
-      <c r="C54" s="33" t="s">
+    <row r="54" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C54" s="36" t="s">
         <v>233</v>
       </c>
-      <c r="D54" s="33"/>
-      <c r="E54" s="33"/>
-    </row>
-    <row r="56" spans="3:14">
+      <c r="D54" s="36"/>
+      <c r="E54" s="36"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>138</v>
       </c>
       <c r="E56" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F56">
         <f t="shared" si="1"/>
@@ -11428,7 +11402,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="57" spans="3:14">
+    <row r="57" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E57" t="s">
         <v>235</v>
       </c>
@@ -11437,7 +11411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="3:14">
+    <row r="58" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E58" t="s">
         <v>237</v>
       </c>
@@ -11446,7 +11420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="3:14">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>154</v>
       </c>
@@ -11476,7 +11450,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="61" spans="3:14">
+    <row r="61" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E61" t="s">
         <v>238</v>
       </c>
@@ -11497,12 +11471,12 @@
         <v>140</v>
       </c>
     </row>
-    <row r="63" spans="3:14">
+    <row r="63" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>177</v>
       </c>
       <c r="E63" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F63">
         <f t="shared" si="1"/>
@@ -11515,14 +11489,14 @@
         <v>140</v>
       </c>
     </row>
-    <row r="65" spans="3:6">
-      <c r="C65" s="32" t="s">
+    <row r="65" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C65" s="35" t="s">
         <v>244</v>
       </c>
-      <c r="D65" s="32"/>
-      <c r="E65" s="32"/>
-    </row>
-    <row r="67" spans="3:6">
+      <c r="D65" s="35"/>
+      <c r="E65" s="35"/>
+    </row>
+    <row r="67" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>154</v>
       </c>
@@ -11534,26 +11508,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="3:6">
-      <c r="C69" s="31" t="s">
+    <row r="69" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C69" s="34" t="s">
         <v>251</v>
       </c>
-      <c r="D69" s="31"/>
-      <c r="E69" s="31"/>
-    </row>
-    <row r="71" spans="3:6">
-      <c r="C71" s="43" t="s">
-        <v>387</v>
-      </c>
-      <c r="D71" s="43"/>
-      <c r="E71" s="43"/>
-    </row>
-    <row r="73" spans="3:6">
-      <c r="C73" s="34" t="s">
+      <c r="D69" s="34"/>
+      <c r="E69" s="34"/>
+    </row>
+    <row r="71" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C71" s="41" t="s">
+        <v>386</v>
+      </c>
+      <c r="D71" s="41"/>
+      <c r="E71" s="41"/>
+    </row>
+    <row r="73" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C73" s="37" t="s">
         <v>223</v>
       </c>
-      <c r="D73" s="34"/>
-      <c r="E73" s="34"/>
+      <c r="D73" s="37"/>
+      <c r="E73" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="8">
